--- a/headr_pin_map.xlsx
+++ b/headr_pin_map.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="7140" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15840" windowHeight="7140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Px_y" sheetId="1" r:id="rId1"/>
     <sheet name="P##" sheetId="2" r:id="rId2"/>
+    <sheet name="Pixels" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,8 +26,67 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Miles Martin</author>
+  </authors>
+  <commentList>
+    <comment ref="S1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Miles Martin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+consider for row 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Miles Martin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+cinsider for col 3
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
   <si>
     <t>B2</t>
   </si>
@@ -36,9 +97,6 @@
     <t>F0</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>B7</t>
   </si>
   <si>
@@ -145,6 +203,111 @@
   </si>
   <si>
     <t>A7</t>
+  </si>
+  <si>
+    <t>RST</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>4th</t>
+  </si>
+  <si>
+    <t>5th</t>
+  </si>
+  <si>
+    <t>6th</t>
+  </si>
+  <si>
+    <t>7th</t>
+  </si>
+  <si>
+    <t>8th</t>
+  </si>
+  <si>
+    <t>9th</t>
+  </si>
+  <si>
+    <t>10th</t>
+  </si>
+  <si>
+    <t>11th</t>
+  </si>
+  <si>
+    <t>12th</t>
+  </si>
+  <si>
+    <t>13th</t>
+  </si>
+  <si>
+    <t>14th</t>
+  </si>
+  <si>
+    <t>15th</t>
+  </si>
+  <si>
+    <t>16th</t>
+  </si>
+  <si>
+    <t>17th</t>
+  </si>
+  <si>
+    <t>18th</t>
+  </si>
+  <si>
+    <t>19th</t>
+  </si>
+  <si>
+    <t>20th</t>
+  </si>
+  <si>
+    <t>21st</t>
+  </si>
+  <si>
+    <t>22nd</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Unallocated non-rows</t>
+  </si>
+  <si>
+    <t>rows in order</t>
+  </si>
+  <si>
+    <t>Columns in order</t>
+  </si>
+  <si>
+    <t>Column pin candidates</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Row pin candidates</t>
+  </si>
+  <si>
+    <t>0,1,3</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>16ish</t>
+  </si>
+  <si>
+    <t>17ish</t>
   </si>
 </sst>
 </file>
@@ -154,13 +317,39 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -189,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -202,6 +391,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:T4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -496,7 +690,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -508,114 +702,114 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -696,6 +890,247 @@
       </c>
       <c r="T4" s="4">
         <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1">
+        <f>A6-1</f>
+        <v>19</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" ref="C6:J7" si="1">B6-1</f>
+        <v>18</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="K6" s="1">
+        <v>21</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" ref="L6:T7" si="2">K6+1</f>
+        <v>22</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1">
+        <f>A7-1</f>
+        <v>39</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <f>K7+1</f>
+        <v>2</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="R7" s="3">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="S7" s="3">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="T7" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4">
+        <f>A9+1</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" ref="C9:T9" si="3">B9+1</f>
+        <v>3</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="P9" s="4">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="Q9" s="4">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="R9" s="4">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="S9" s="4">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="T9" s="4">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -706,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:T4"/>
+    <sheetView topLeftCell="D1" zoomScale="202" zoomScaleNormal="202" workbookViewId="0">
+      <selection activeCell="R6" sqref="M6:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -719,49 +1154,49 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1">
         <f>A1-1</f>
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1">
         <f t="shared" ref="C1:J2" si="0">B1-1</f>
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="J1" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="K1" s="1">
         <v>21</v>
       </c>
       <c r="L1" s="1">
-        <f t="shared" ref="C1:T1" si="1">K1+1</f>
+        <f t="shared" ref="L1:T1" si="1">K1+1</f>
         <v>22</v>
       </c>
       <c r="M1" s="1">
@@ -799,43 +1234,43 @@
     </row>
     <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1">
         <f>A2-1</f>
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F2" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="G2" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="J2" s="1">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="K2" s="3">
         <v>1</v>
@@ -956,6 +1391,1062 @@
       <c r="T4" s="4">
         <f t="shared" si="3"/>
         <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4">
+        <f>A9+1</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" ref="C9:T9" si="4">B9+1</f>
+        <v>3</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="P9" s="4">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="Q9" s="4">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="R9" s="4">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="S9" s="4">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="T9" s="4">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>20</v>
+      </c>
+      <c r="E1">
+        <v>16</v>
+      </c>
+      <c r="F1">
+        <v>15</v>
+      </c>
+      <c r="G1">
+        <v>14</v>
+      </c>
+      <c r="K1">
+        <v>21</v>
+      </c>
+      <c r="L1">
+        <v>22</v>
+      </c>
+      <c r="S1">
+        <v>29</v>
+      </c>
+      <c r="T1">
+        <v>30</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+    </row>
+    <row r="2" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="6">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="P2">
+        <v>6</v>
+      </c>
+      <c r="Q2">
+        <v>7</v>
+      </c>
+      <c r="S2">
+        <v>9</v>
+      </c>
+      <c r="T2">
+        <v>10</v>
+      </c>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+    </row>
+    <row r="4" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>11</v>
+      </c>
+      <c r="L4">
+        <v>12</v>
+      </c>
+      <c r="M4">
+        <v>13</v>
+      </c>
+      <c r="N4">
+        <v>14</v>
+      </c>
+      <c r="O4">
+        <v>15</v>
+      </c>
+      <c r="P4">
+        <v>16</v>
+      </c>
+      <c r="Q4">
+        <v>17</v>
+      </c>
+      <c r="R4">
+        <v>18</v>
+      </c>
+      <c r="S4">
+        <v>19</v>
+      </c>
+      <c r="T4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <v>13</v>
+      </c>
+      <c r="I6">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>11</v>
+      </c>
+      <c r="M6">
+        <v>23</v>
+      </c>
+      <c r="N6">
+        <v>24</v>
+      </c>
+      <c r="O6">
+        <v>25</v>
+      </c>
+      <c r="P6">
+        <v>26</v>
+      </c>
+      <c r="Q6">
+        <v>27</v>
+      </c>
+      <c r="R6" s="5">
+        <v>28</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+    </row>
+    <row r="7" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>39</v>
+      </c>
+      <c r="C7">
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>37</v>
+      </c>
+      <c r="E7">
+        <v>36</v>
+      </c>
+      <c r="F7">
+        <v>35</v>
+      </c>
+      <c r="G7">
+        <v>34</v>
+      </c>
+      <c r="H7">
+        <v>33</v>
+      </c>
+      <c r="I7">
+        <v>32</v>
+      </c>
+      <c r="J7">
+        <v>31</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>8</v>
+      </c>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+    </row>
+    <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>11</v>
+      </c>
+      <c r="L9">
+        <v>12</v>
+      </c>
+      <c r="M9">
+        <v>13</v>
+      </c>
+      <c r="N9">
+        <v>14</v>
+      </c>
+      <c r="O9">
+        <v>15</v>
+      </c>
+      <c r="P9">
+        <v>16</v>
+      </c>
+      <c r="Q9">
+        <v>17</v>
+      </c>
+      <c r="R9">
+        <v>18</v>
+      </c>
+      <c r="S9">
+        <v>19</v>
+      </c>
+      <c r="T9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>71</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+    </row>
+    <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" t="s">
+        <v>73</v>
+      </c>
+      <c r="N12" t="s">
+        <v>72</v>
+      </c>
+      <c r="O12" t="s">
+        <v>47</v>
+      </c>
+      <c r="R12" t="s">
+        <v>46</v>
+      </c>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+    </row>
+    <row r="14" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <v>9</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>11</v>
+      </c>
+      <c r="L14">
+        <v>12</v>
+      </c>
+      <c r="M14">
+        <v>13</v>
+      </c>
+      <c r="N14">
+        <v>14</v>
+      </c>
+      <c r="O14">
+        <v>15</v>
+      </c>
+      <c r="P14">
+        <v>16</v>
+      </c>
+      <c r="Q14">
+        <v>17</v>
+      </c>
+      <c r="R14">
+        <v>18</v>
+      </c>
+      <c r="S14">
+        <v>19</v>
+      </c>
+      <c r="T14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+    </row>
+    <row r="17" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>42</v>
+      </c>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+    </row>
+    <row r="19" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <v>9</v>
+      </c>
+      <c r="J19">
+        <v>10</v>
+      </c>
+      <c r="K19">
+        <v>11</v>
+      </c>
+      <c r="L19">
+        <v>12</v>
+      </c>
+      <c r="M19">
+        <v>13</v>
+      </c>
+      <c r="N19">
+        <v>14</v>
+      </c>
+      <c r="O19">
+        <v>15</v>
+      </c>
+      <c r="P19">
+        <v>16</v>
+      </c>
+      <c r="Q19">
+        <v>17</v>
+      </c>
+      <c r="R19">
+        <v>18</v>
+      </c>
+      <c r="S19">
+        <v>19</v>
+      </c>
+      <c r="T19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>14</v>
+      </c>
+      <c r="V21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+    </row>
+    <row r="22" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+    </row>
+    <row r="24" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>7</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <v>9</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="K24">
+        <v>11</v>
+      </c>
+      <c r="L24">
+        <v>12</v>
+      </c>
+      <c r="M24">
+        <v>13</v>
+      </c>
+      <c r="N24">
+        <v>14</v>
+      </c>
+      <c r="O24">
+        <v>15</v>
+      </c>
+      <c r="P24">
+        <v>16</v>
+      </c>
+      <c r="Q24">
+        <v>17</v>
+      </c>
+      <c r="R24">
+        <v>18</v>
+      </c>
+      <c r="S24">
+        <v>19</v>
+      </c>
+      <c r="T24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <v>17</v>
+      </c>
+      <c r="E26">
+        <v>16</v>
+      </c>
+      <c r="F26">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>14</v>
+      </c>
+      <c r="H26">
+        <v>13</v>
+      </c>
+      <c r="I26">
+        <v>12</v>
+      </c>
+      <c r="J26">
+        <v>11</v>
+      </c>
+      <c r="K26">
+        <v>21</v>
+      </c>
+      <c r="L26">
+        <v>22</v>
+      </c>
+      <c r="M26">
+        <v>23</v>
+      </c>
+      <c r="N26">
+        <v>24</v>
+      </c>
+      <c r="O26">
+        <v>25</v>
+      </c>
+      <c r="P26">
+        <v>26</v>
+      </c>
+      <c r="Q26">
+        <v>27</v>
+      </c>
+      <c r="R26">
+        <v>28</v>
+      </c>
+      <c r="S26">
+        <v>29</v>
+      </c>
+      <c r="T26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>39</v>
+      </c>
+      <c r="C27">
+        <v>38</v>
+      </c>
+      <c r="D27">
+        <v>37</v>
+      </c>
+      <c r="E27">
+        <v>36</v>
+      </c>
+      <c r="F27">
+        <v>35</v>
+      </c>
+      <c r="G27">
+        <v>34</v>
+      </c>
+      <c r="H27">
+        <v>33</v>
+      </c>
+      <c r="I27">
+        <v>32</v>
+      </c>
+      <c r="J27">
+        <v>31</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <v>4</v>
+      </c>
+      <c r="O27">
+        <v>5</v>
+      </c>
+      <c r="P27">
+        <v>6</v>
+      </c>
+      <c r="Q27">
+        <v>7</v>
+      </c>
+      <c r="R27">
+        <v>8</v>
+      </c>
+      <c r="S27">
+        <v>9</v>
+      </c>
+      <c r="T27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29">
+        <v>7</v>
+      </c>
+      <c r="H29">
+        <v>8</v>
+      </c>
+      <c r="I29">
+        <v>9</v>
+      </c>
+      <c r="J29">
+        <v>10</v>
+      </c>
+      <c r="K29">
+        <v>11</v>
+      </c>
+      <c r="L29">
+        <v>12</v>
+      </c>
+      <c r="M29">
+        <v>13</v>
+      </c>
+      <c r="N29">
+        <v>14</v>
+      </c>
+      <c r="O29">
+        <v>15</v>
+      </c>
+      <c r="P29">
+        <v>16</v>
+      </c>
+      <c r="Q29">
+        <v>17</v>
+      </c>
+      <c r="R29">
+        <v>18</v>
+      </c>
+      <c r="S29">
+        <v>19</v>
+      </c>
+      <c r="T29">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="V1:Y2"/>
+    <mergeCell ref="V6:Y7"/>
+    <mergeCell ref="V11:Y12"/>
+    <mergeCell ref="V16:Y17"/>
+    <mergeCell ref="V21:Y22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/headr_pin_map.xlsx
+++ b/headr_pin_map.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15840" windowHeight="7140" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="7140" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Px_y" sheetId="1" r:id="rId1"/>
     <sheet name="P##" sheetId="2" r:id="rId2"/>
     <sheet name="Pixels" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="75">
   <si>
     <t>B2</t>
   </si>
@@ -304,10 +305,13 @@
     <t>NG</t>
   </si>
   <si>
-    <t>16ish</t>
-  </si>
-  <si>
-    <t>17ish</t>
+    <t>6ish</t>
+  </si>
+  <si>
+    <t>Zero-indexed array index</t>
+  </si>
+  <si>
+    <t>Zero-indexed            light number LRTB</t>
   </si>
 </sst>
 </file>
@@ -317,7 +321,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,8 +355,14 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,8 +375,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -374,11 +390,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -396,6 +492,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -680,7 +822,7 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="202" zoomScaleNormal="202" workbookViewId="0">
+    <sheetView zoomScale="202" zoomScaleNormal="202" workbookViewId="0">
       <selection activeCell="R6" sqref="M6:R6"/>
     </sheetView>
   </sheetViews>
@@ -1608,8 +1750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A10" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1786,11 +1928,11 @@
       <c r="A7">
         <v>40</v>
       </c>
-      <c r="B7">
-        <v>39</v>
-      </c>
-      <c r="C7">
-        <v>38</v>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
       </c>
       <c r="D7">
         <v>37</v>
@@ -1890,9 +2032,6 @@
       <c r="B11" t="s">
         <v>62</v>
       </c>
-      <c r="C11" t="s">
-        <v>62</v>
-      </c>
       <c r="D11" t="s">
         <v>61</v>
       </c>
@@ -1908,9 +2047,6 @@
       <c r="M11" t="s">
         <v>45</v>
       </c>
-      <c r="N11" t="s">
-        <v>44</v>
-      </c>
       <c r="O11" t="s">
         <v>43</v>
       </c>
@@ -1918,14 +2054,12 @@
         <v>42</v>
       </c>
       <c r="Q11" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="R11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="S11" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="S11" s="5"/>
       <c r="V11" s="7" t="s">
         <v>64</v>
       </c>
@@ -1937,12 +2071,6 @@
       <c r="A12" t="s">
         <v>57</v>
       </c>
-      <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
       <c r="D12" t="s">
         <v>54</v>
       </c>
@@ -1964,17 +2092,23 @@
       <c r="J12" t="s">
         <v>48</v>
       </c>
+      <c r="L12" t="s">
+        <v>44</v>
+      </c>
       <c r="M12" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="N12" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="O12" t="s">
         <v>47</v>
       </c>
       <c r="R12" t="s">
         <v>46</v>
+      </c>
+      <c r="T12" t="s">
+        <v>72</v>
       </c>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
@@ -2047,6 +2181,9 @@
       <c r="B16" t="s">
         <v>43</v>
       </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
       <c r="F16" t="s">
         <v>41</v>
       </c>
@@ -2061,9 +2198,6 @@
       <c r="Y16" s="7"/>
     </row>
     <row r="17" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L17" t="s">
-        <v>42</v>
-      </c>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
@@ -2135,8 +2269,8 @@
       <c r="B21">
         <v>19</v>
       </c>
-      <c r="C21" t="s">
-        <v>71</v>
+      <c r="C21">
+        <v>18</v>
       </c>
       <c r="F21">
         <v>15</v>
@@ -2152,9 +2286,6 @@
       <c r="Y21" s="7"/>
     </row>
     <row r="22" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L22">
-        <v>2</v>
-      </c>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
@@ -2452,4 +2583,721 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AE8" sqref="AE8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:30" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="AA1" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+    </row>
+    <row r="2" spans="1:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="9">
+        <v>0</v>
+      </c>
+      <c r="W2" s="10">
+        <v>1</v>
+      </c>
+      <c r="X2" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="11">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="10">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="V3" s="12">
+        <v>4</v>
+      </c>
+      <c r="W3" s="20"/>
+      <c r="X3" s="13">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="14">
+        <v>6</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>4</v>
+      </c>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="13">
+        <v>5</v>
+      </c>
+      <c r="AD3" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" ref="C4:T4" si="0">B4+1</f>
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="P4" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Q4" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="R4" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="S4" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="T4" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="V4" s="12">
+        <v>7</v>
+      </c>
+      <c r="W4" s="13">
+        <v>8</v>
+      </c>
+      <c r="X4" s="13">
+        <v>9</v>
+      </c>
+      <c r="Y4" s="14">
+        <f>Y3</f>
+        <v>6</v>
+      </c>
+      <c r="AA4" s="12">
+        <v>7</v>
+      </c>
+      <c r="AB4" s="13">
+        <v>8</v>
+      </c>
+      <c r="AC4" s="13">
+        <v>9</v>
+      </c>
+      <c r="AD4" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="V5" s="12">
+        <v>10</v>
+      </c>
+      <c r="W5" s="13">
+        <v>11</v>
+      </c>
+      <c r="X5" s="13">
+        <v>12</v>
+      </c>
+      <c r="Y5" s="14">
+        <v>13</v>
+      </c>
+      <c r="AA5" s="12">
+        <v>11</v>
+      </c>
+      <c r="AB5" s="13">
+        <v>12</v>
+      </c>
+      <c r="AC5" s="13">
+        <v>13</v>
+      </c>
+      <c r="AD5" s="14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1">
+        <f>A6-1</f>
+        <v>19</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" ref="C6:J7" si="1">B6-1</f>
+        <v>18</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="K6" s="1">
+        <v>21</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" ref="L6:T7" si="2">K6+1</f>
+        <v>22</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="V6" s="12">
+        <v>14</v>
+      </c>
+      <c r="W6" s="22">
+        <v>15</v>
+      </c>
+      <c r="X6" s="13">
+        <f>X3</f>
+        <v>5</v>
+      </c>
+      <c r="Y6" s="23">
+        <v>16</v>
+      </c>
+      <c r="AA6" s="12">
+        <v>15</v>
+      </c>
+      <c r="AB6" s="13">
+        <v>16</v>
+      </c>
+      <c r="AC6" s="13">
+        <v>17</v>
+      </c>
+      <c r="AD6" s="14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1">
+        <f>A7-1</f>
+        <v>39</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <f>K7+1</f>
+        <v>2</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="R7" s="3">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="S7" s="3">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="T7" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="V7" s="12">
+        <v>17</v>
+      </c>
+      <c r="W7" s="20"/>
+      <c r="X7" s="13">
+        <v>18</v>
+      </c>
+      <c r="Y7" s="23">
+        <f>Y6</f>
+        <v>16</v>
+      </c>
+      <c r="AA7" s="12">
+        <v>19</v>
+      </c>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="13">
+        <v>20</v>
+      </c>
+      <c r="AD7" s="14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="V8" s="15">
+        <v>19</v>
+      </c>
+      <c r="W8" s="21">
+        <f>V3</f>
+        <v>4</v>
+      </c>
+      <c r="X8" s="16">
+        <v>20</v>
+      </c>
+      <c r="Y8" s="17">
+        <v>21</v>
+      </c>
+      <c r="AA8" s="15">
+        <v>22</v>
+      </c>
+      <c r="AB8" s="16">
+        <v>23</v>
+      </c>
+      <c r="AC8" s="16">
+        <v>24</v>
+      </c>
+      <c r="AD8" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4">
+        <f>A9+1</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" ref="C9:T9" si="3">B9+1</f>
+        <v>3</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="P9" s="4">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="Q9" s="4">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="R9" s="4">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="S9" s="4">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="T9" s="4">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="AA1:AD1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/headr_pin_map.xlsx
+++ b/headr_pin_map.xlsx
@@ -474,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -493,7 +493,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2590,12 +2589,12 @@
   <dimension ref="A1:AD9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AE8" sqref="AE8"/>
+      <selection activeCell="AB3" sqref="AB3:AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2662,14 +2661,14 @@
       <c r="W1" s="18"/>
       <c r="X1" s="18"/>
       <c r="Y1" s="18"/>
-      <c r="AA1" s="19" t="s">
+      <c r="AA1" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-    </row>
-    <row r="2" spans="1:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+    </row>
+    <row r="2" spans="1:30" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2730,30 +2729,14 @@
       <c r="T2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="9">
-        <v>0</v>
-      </c>
-      <c r="W2" s="10">
-        <v>1</v>
-      </c>
-      <c r="X2" s="10">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="11">
-        <v>3</v>
-      </c>
-      <c r="AA2" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="10">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="10">
-        <v>2</v>
-      </c>
-      <c r="AD2" s="11">
-        <v>3</v>
-      </c>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
     </row>
     <row r="3" spans="1:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -2776,25 +2759,32 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="V3" s="12">
-        <v>4</v>
-      </c>
-      <c r="W3" s="20"/>
-      <c r="X3" s="13">
-        <v>5</v>
-      </c>
-      <c r="Y3" s="14">
-        <v>6</v>
-      </c>
-      <c r="AA3" s="12">
-        <v>4</v>
-      </c>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="13">
-        <v>5</v>
-      </c>
-      <c r="AD3" s="14">
-        <v>6</v>
+      <c r="V3" s="8">
+        <v>0</v>
+      </c>
+      <c r="W3" s="9">
+        <v>1</v>
+      </c>
+      <c r="X3" s="9">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="10">
+        <v>3</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="9">
+        <f>AA3+1</f>
+        <v>1</v>
+      </c>
+      <c r="AC3" s="9">
+        <f t="shared" ref="AC3:AD3" si="0">AB3+1</f>
+        <v>2</v>
+      </c>
+      <c r="AD3" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2806,101 +2796,102 @@
         <v>2</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" ref="C4:T4" si="0">B4+1</f>
+        <f t="shared" ref="C4:T4" si="1">B4+1</f>
         <v>3</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="L4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="M4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="N4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="O4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="P4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="Q4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="R4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="S4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="T4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="V4" s="12">
+      <c r="V4" s="11">
+        <v>4</v>
+      </c>
+      <c r="W4" s="19"/>
+      <c r="X4" s="12">
+        <v>5</v>
+      </c>
+      <c r="Y4" s="13">
+        <v>6</v>
+      </c>
+      <c r="AA4" s="11">
+        <f>AD3+1</f>
+        <v>4</v>
+      </c>
+      <c r="AB4" s="19">
+        <f>AA4+1</f>
+        <v>5</v>
+      </c>
+      <c r="AC4" s="12">
+        <f t="shared" ref="AC4:AD4" si="2">AB4+1</f>
+        <v>6</v>
+      </c>
+      <c r="AD4" s="13">
+        <f t="shared" si="2"/>
         <v>7</v>
-      </c>
-      <c r="W4" s="13">
-        <v>8</v>
-      </c>
-      <c r="X4" s="13">
-        <v>9</v>
-      </c>
-      <c r="Y4" s="14">
-        <f>Y3</f>
-        <v>6</v>
-      </c>
-      <c r="AA4" s="12">
-        <v>7</v>
-      </c>
-      <c r="AB4" s="13">
-        <v>8</v>
-      </c>
-      <c r="AC4" s="13">
-        <v>9</v>
-      </c>
-      <c r="AD4" s="14">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2924,29 +2915,34 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="V5" s="12">
+      <c r="V5" s="11">
+        <v>7</v>
+      </c>
+      <c r="W5" s="12">
+        <v>8</v>
+      </c>
+      <c r="X5" s="12">
+        <v>9</v>
+      </c>
+      <c r="Y5" s="13">
+        <f>Y4</f>
+        <v>6</v>
+      </c>
+      <c r="AA5" s="11">
+        <f t="shared" ref="AA5:AA9" si="3">AD4+1</f>
+        <v>8</v>
+      </c>
+      <c r="AB5" s="12">
+        <f t="shared" ref="AB5:AD9" si="4">AA5+1</f>
+        <v>9</v>
+      </c>
+      <c r="AC5" s="12">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="W5" s="13">
+      <c r="AD5" s="13">
+        <f t="shared" si="4"/>
         <v>11</v>
-      </c>
-      <c r="X5" s="13">
-        <v>12</v>
-      </c>
-      <c r="Y5" s="14">
-        <v>13</v>
-      </c>
-      <c r="AA5" s="12">
-        <v>11</v>
-      </c>
-      <c r="AB5" s="13">
-        <v>12</v>
-      </c>
-      <c r="AC5" s="13">
-        <v>13</v>
-      </c>
-      <c r="AD5" s="14">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2958,100 +2954,103 @@
         <v>19</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ref="C6:J7" si="1">B6-1</f>
+        <f t="shared" ref="C6:J7" si="5">B6-1</f>
         <v>18</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="K6" s="1">
         <v>21</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" ref="L6:T7" si="2">K6+1</f>
+        <f t="shared" ref="L6:T7" si="6">K6+1</f>
         <v>22</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="S6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="T6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="V6" s="12">
+      <c r="V6" s="11">
+        <v>10</v>
+      </c>
+      <c r="W6" s="12">
+        <v>11</v>
+      </c>
+      <c r="X6" s="12">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="13">
+        <v>13</v>
+      </c>
+      <c r="AA6" s="11">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AB6" s="12">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="AC6" s="12">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="W6" s="22">
+      <c r="AD6" s="13">
+        <f t="shared" si="4"/>
         <v>15</v>
-      </c>
-      <c r="X6" s="13">
-        <f>X3</f>
-        <v>5</v>
-      </c>
-      <c r="Y6" s="23">
-        <v>16</v>
-      </c>
-      <c r="AA6" s="12">
-        <v>15</v>
-      </c>
-      <c r="AB6" s="13">
-        <v>16</v>
-      </c>
-      <c r="AC6" s="13">
-        <v>17</v>
-      </c>
-      <c r="AD6" s="14">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3063,35 +3062,35 @@
         <v>39</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="K7" s="3">
@@ -3102,60 +3101,68 @@
         <v>2</v>
       </c>
       <c r="M7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="N7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="O7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="P7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="Q7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="R7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="S7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="T7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="V7" s="12">
+      <c r="V7" s="11">
+        <v>14</v>
+      </c>
+      <c r="W7" s="21">
+        <v>15</v>
+      </c>
+      <c r="X7" s="12">
+        <f>X4</f>
+        <v>5</v>
+      </c>
+      <c r="Y7" s="22">
+        <v>16</v>
+      </c>
+      <c r="AA7" s="11">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="AB7" s="12">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="W7" s="20"/>
-      <c r="X7" s="13">
+      <c r="AC7" s="12">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="Y7" s="23">
-        <f>Y6</f>
-        <v>16</v>
-      </c>
-      <c r="AA7" s="12">
+      <c r="AD7" s="13">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="13">
-        <v>20</v>
-      </c>
-      <c r="AD7" s="14">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3176,33 +3183,35 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="V8" s="15">
-        <v>19</v>
-      </c>
-      <c r="W8" s="21">
-        <f>V3</f>
-        <v>4</v>
-      </c>
-      <c r="X8" s="16">
+      <c r="V8" s="11">
+        <v>17</v>
+      </c>
+      <c r="W8" s="19"/>
+      <c r="X8" s="12">
+        <v>18</v>
+      </c>
+      <c r="Y8" s="22">
+        <f>Y7</f>
+        <v>16</v>
+      </c>
+      <c r="AA8" s="11">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="Y8" s="17">
+      <c r="AB8" s="19">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="AA8" s="15">
+      <c r="AC8" s="12">
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="AB8" s="16">
+      <c r="AD8" s="13">
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="AC8" s="16">
-        <v>24</v>
-      </c>
-      <c r="AD8" s="17">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:30" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3211,91 +3220,111 @@
         <v>2</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" ref="C9:T9" si="3">B9+1</f>
+        <f t="shared" ref="C9:T9" si="7">B9+1</f>
         <v>3</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="L9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="M9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="N9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="O9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="Q9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="R9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="S9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="T9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
+      <c r="V9" s="14">
+        <v>19</v>
+      </c>
+      <c r="W9" s="20">
+        <f>V4</f>
+        <v>4</v>
+      </c>
+      <c r="X9" s="15">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="16">
+        <v>21</v>
+      </c>
+      <c r="AA9" s="14">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="AB9" s="15">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="AC9" s="15">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="AD9" s="16">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="V1:Y2"/>
+    <mergeCell ref="AA1:AD2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/headr_pin_map.xlsx
+++ b/headr_pin_map.xlsx
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="95">
   <si>
     <t>B2</t>
   </si>
@@ -312,6 +312,66 @@
   </si>
   <si>
     <t>Zero-indexed            light number LRTB</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>seven</t>
+  </si>
+  <si>
+    <t>eight</t>
+  </si>
+  <si>
+    <t>nine</t>
+  </si>
+  <si>
+    <t>(B00000010 &lt;&lt; 24) + (B00100010 &lt;&lt; 16) + (B00100010 &lt;&lt; 8) + B00100010;</t>
+  </si>
+  <si>
+    <t>(B00000011 &lt;&lt; 24) + (B01001100 &lt;&lt; 16) + (B11001101 &lt;&lt; 8) + B10010110;</t>
+  </si>
+  <si>
+    <t>(B00001111 &lt;&lt; 24) + (B10000100 &lt;&lt; 16) + (B00100001 &lt;&lt; 8) + B10010110;</t>
+  </si>
+  <si>
+    <t>(B00000110 &lt;&lt; 24) + (B10010001 &lt;&lt; 16) + (B00100001 &lt;&lt; 8) + B10010110;</t>
+  </si>
+  <si>
+    <t>(B00000001 &lt;&lt; 24) + (B00011111 &lt;&lt; 16) + (B10010101 &lt;&lt; 8) + B00110001;</t>
+  </si>
+  <si>
+    <t>(B00000110 &lt;&lt; 24) + (B10010001 &lt;&lt; 16) + (B00011110 &lt;&lt; 8) + B10001111;</t>
+  </si>
+  <si>
+    <t>(B00000110 &lt;&lt; 24) + (B10011001 &lt;&lt; 16) + (B11101000 &lt;&lt; 8) + B10000110;</t>
+  </si>
+  <si>
+    <t>(B00001000 &lt;&lt; 24) + (B10000100 &lt;&lt; 16) + (B00100001 &lt;&lt; 8) + B00011111;</t>
+  </si>
+  <si>
+    <t>(B00000110 &lt;&lt; 24) + (B10011001 &lt;&lt; 16) + (B01101001 &lt;&lt; 8) + B10010110;</t>
+  </si>
+  <si>
+    <t>(B00000110 &lt;&lt; 24) + (B00010001 &lt;&lt; 16) + (B01111001 &lt;&lt; 8) + B10010110;</t>
   </si>
 </sst>
 </file>
@@ -474,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -493,6 +553,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -532,11 +593,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2586,15 +2661,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD9"/>
+  <dimension ref="A1:AF70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3:AD3"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="AG63" sqref="AG63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2655,20 +2734,20 @@
       <c r="T1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="V1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="AA1" s="18" t="s">
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="AA1" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-    </row>
-    <row r="2" spans="1:30" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+    </row>
+    <row r="2" spans="1:32" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2729,16 +2808,16 @@
       <c r="T2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-    </row>
-    <row r="3" spans="1:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+    </row>
+    <row r="3" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2759,35 +2838,35 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="V3" s="8">
-        <v>0</v>
-      </c>
-      <c r="W3" s="9">
-        <v>1</v>
-      </c>
-      <c r="X3" s="9">
+      <c r="V3" s="9">
+        <v>0</v>
+      </c>
+      <c r="W3" s="10">
+        <v>1</v>
+      </c>
+      <c r="X3" s="10">
         <v>2</v>
       </c>
-      <c r="Y3" s="10">
+      <c r="Y3" s="11">
         <v>3</v>
       </c>
-      <c r="AA3" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="9">
+      <c r="AA3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="10">
         <f>AA3+1</f>
         <v>1</v>
       </c>
-      <c r="AC3" s="9">
+      <c r="AC3" s="10">
         <f t="shared" ref="AC3:AD3" si="0">AB3+1</f>
         <v>2</v>
       </c>
-      <c r="AD3" s="9">
+      <c r="AD3" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -2867,34 +2946,34 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="V4" s="11">
+      <c r="V4" s="12">
         <v>4</v>
       </c>
-      <c r="W4" s="19"/>
-      <c r="X4" s="12">
+      <c r="W4" s="20"/>
+      <c r="X4" s="13">
         <v>5</v>
       </c>
-      <c r="Y4" s="13">
+      <c r="Y4" s="14">
         <v>6</v>
       </c>
-      <c r="AA4" s="11">
+      <c r="AA4" s="12">
         <f>AD3+1</f>
         <v>4</v>
       </c>
-      <c r="AB4" s="19">
+      <c r="AB4" s="20">
         <f>AA4+1</f>
         <v>5</v>
       </c>
-      <c r="AC4" s="12">
+      <c r="AC4" s="13">
         <f t="shared" ref="AC4:AD4" si="2">AB4+1</f>
         <v>6</v>
       </c>
-      <c r="AD4" s="13">
+      <c r="AD4" s="14">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2915,37 +2994,37 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="V5" s="11">
+      <c r="V5" s="12">
         <v>7</v>
       </c>
-      <c r="W5" s="12">
+      <c r="W5" s="13">
         <v>8</v>
       </c>
-      <c r="X5" s="12">
+      <c r="X5" s="13">
         <v>9</v>
       </c>
-      <c r="Y5" s="13">
+      <c r="Y5" s="14">
         <f>Y4</f>
         <v>6</v>
       </c>
-      <c r="AA5" s="11">
+      <c r="AA5" s="12">
         <f t="shared" ref="AA5:AA9" si="3">AD4+1</f>
         <v>8</v>
       </c>
-      <c r="AB5" s="12">
+      <c r="AB5" s="13">
         <f t="shared" ref="AB5:AD9" si="4">AA5+1</f>
         <v>9</v>
       </c>
-      <c r="AC5" s="12">
+      <c r="AC5" s="13">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="AD5" s="13">
+      <c r="AD5" s="14">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>20</v>
       </c>
@@ -3024,36 +3103,36 @@
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="V6" s="11">
+      <c r="V6" s="12">
         <v>10</v>
       </c>
-      <c r="W6" s="12">
+      <c r="W6" s="13">
         <v>11</v>
       </c>
-      <c r="X6" s="12">
+      <c r="X6" s="13">
         <v>12</v>
       </c>
-      <c r="Y6" s="13">
+      <c r="Y6" s="14">
         <v>13</v>
       </c>
-      <c r="AA6" s="11">
+      <c r="AA6" s="12">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="AB6" s="12">
+      <c r="AB6" s="13">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="AC6" s="12">
+      <c r="AC6" s="13">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="AD6" s="13">
+      <c r="AD6" s="14">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40</v>
       </c>
@@ -3132,37 +3211,37 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="V7" s="11">
+      <c r="V7" s="12">
         <v>14</v>
       </c>
-      <c r="W7" s="21">
+      <c r="W7" s="23">
         <v>15</v>
       </c>
-      <c r="X7" s="12">
+      <c r="X7" s="13">
         <f>X4</f>
         <v>5</v>
       </c>
-      <c r="Y7" s="22">
+      <c r="Y7" s="24">
         <v>16</v>
       </c>
-      <c r="AA7" s="11">
+      <c r="AA7" s="12">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="AB7" s="12">
+      <c r="AB7" s="13">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="AC7" s="12">
+      <c r="AC7" s="13">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="AD7" s="13">
+      <c r="AD7" s="14">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3183,35 +3262,35 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="V8" s="11">
+      <c r="V8" s="12">
         <v>17</v>
       </c>
-      <c r="W8" s="19"/>
-      <c r="X8" s="12">
+      <c r="W8" s="20"/>
+      <c r="X8" s="13">
         <v>18</v>
       </c>
-      <c r="Y8" s="22">
+      <c r="Y8" s="24">
         <f>Y7</f>
         <v>16</v>
       </c>
-      <c r="AA8" s="11">
+      <c r="AA8" s="12">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="AB8" s="19">
+      <c r="AB8" s="20">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="AC8" s="12">
+      <c r="AC8" s="13">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="AD8" s="13">
+      <c r="AD8" s="14">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3291,38 +3370,3624 @@
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="V9" s="14">
+      <c r="V9" s="15">
         <v>19</v>
       </c>
-      <c r="W9" s="20">
+      <c r="W9" s="21">
         <f>V4</f>
         <v>4</v>
       </c>
-      <c r="X9" s="15">
+      <c r="X9" s="16">
         <v>20</v>
       </c>
-      <c r="Y9" s="16">
+      <c r="Y9" s="17">
         <v>21</v>
       </c>
-      <c r="AA9" s="14">
+      <c r="AA9" s="15">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="AB9" s="15">
+      <c r="AB9" s="16">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="AC9" s="15">
+      <c r="AC9" s="16">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="AD9" s="16">
+      <c r="AD9" s="17">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
     </row>
+    <row r="11" spans="1:32" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1">
+        <f>A11-1</f>
+        <v>30</v>
+      </c>
+      <c r="C11" s="1">
+        <f>B11-1</f>
+        <v>29</v>
+      </c>
+      <c r="D11" s="1">
+        <f>C11-1</f>
+        <v>28</v>
+      </c>
+      <c r="E11" s="1">
+        <f>D11-1</f>
+        <v>27</v>
+      </c>
+      <c r="F11" s="1">
+        <f>E11-1</f>
+        <v>26</v>
+      </c>
+      <c r="G11" s="1">
+        <f>F11-1</f>
+        <v>25</v>
+      </c>
+      <c r="H11" s="1">
+        <f>G11-1</f>
+        <v>24</v>
+      </c>
+      <c r="I11" s="1">
+        <f>H11-1</f>
+        <v>23</v>
+      </c>
+      <c r="J11" s="1">
+        <f>I11-1</f>
+        <v>22</v>
+      </c>
+      <c r="K11" s="1">
+        <f>J11-1</f>
+        <v>21</v>
+      </c>
+      <c r="L11" s="1">
+        <f>K11-1</f>
+        <v>20</v>
+      </c>
+      <c r="M11" s="1">
+        <f>L11-1</f>
+        <v>19</v>
+      </c>
+      <c r="N11" s="1">
+        <f>M11-1</f>
+        <v>18</v>
+      </c>
+      <c r="O11" s="1">
+        <f>N11-1</f>
+        <v>17</v>
+      </c>
+      <c r="P11" s="1">
+        <f>O11-1</f>
+        <v>16</v>
+      </c>
+      <c r="Q11" s="1">
+        <f>P11-1</f>
+        <v>15</v>
+      </c>
+      <c r="R11" s="1">
+        <f>Q11-1</f>
+        <v>14</v>
+      </c>
+      <c r="S11" s="1">
+        <f>R11-1</f>
+        <v>13</v>
+      </c>
+      <c r="T11" s="1">
+        <f>S11-1</f>
+        <v>12</v>
+      </c>
+      <c r="U11" s="1">
+        <f>T11-1</f>
+        <v>11</v>
+      </c>
+      <c r="V11" s="1">
+        <f>U11-1</f>
+        <v>10</v>
+      </c>
+      <c r="W11" s="1">
+        <f>V11-1</f>
+        <v>9</v>
+      </c>
+      <c r="X11" s="1">
+        <f>W11-1</f>
+        <v>8</v>
+      </c>
+      <c r="Y11" s="1">
+        <f>X11-1</f>
+        <v>7</v>
+      </c>
+      <c r="Z11" s="1">
+        <f>Y11-1</f>
+        <v>6</v>
+      </c>
+      <c r="AA11" s="1">
+        <f>Z11-1</f>
+        <v>5</v>
+      </c>
+      <c r="AB11" s="1">
+        <f>AA11-1</f>
+        <v>4</v>
+      </c>
+      <c r="AC11" s="1">
+        <f>AB11-1</f>
+        <v>3</v>
+      </c>
+      <c r="AD11" s="1">
+        <f>AC11-1</f>
+        <v>2</v>
+      </c>
+      <c r="AE11" s="1">
+        <f>AD11-1</f>
+        <v>1</v>
+      </c>
+      <c r="AF11" s="1">
+        <f t="shared" ref="AF11" si="8">AE11-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <v>21</v>
+      </c>
+      <c r="F12" s="1">
+        <v>20</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1">
+        <v>19</v>
+      </c>
+      <c r="I12" s="1">
+        <v>16</v>
+      </c>
+      <c r="J12" s="1">
+        <v>18</v>
+      </c>
+      <c r="L12" s="1">
+        <v>17</v>
+      </c>
+      <c r="M12" s="1">
+        <v>16</v>
+      </c>
+      <c r="N12" s="1">
+        <v>5</v>
+      </c>
+      <c r="O12" s="1">
+        <v>15</v>
+      </c>
+      <c r="P12" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>13</v>
+      </c>
+      <c r="R12" s="1">
+        <v>12</v>
+      </c>
+      <c r="S12" s="1">
+        <v>11</v>
+      </c>
+      <c r="T12" s="1">
+        <v>10</v>
+      </c>
+      <c r="U12" s="1">
+        <v>6</v>
+      </c>
+      <c r="V12" s="1">
+        <v>9</v>
+      </c>
+      <c r="W12" s="1">
+        <v>8</v>
+      </c>
+      <c r="X12" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1">
+        <f>A14-1</f>
+        <v>30</v>
+      </c>
+      <c r="C14" s="1">
+        <f>B14-1</f>
+        <v>29</v>
+      </c>
+      <c r="D14" s="1">
+        <f>C14-1</f>
+        <v>28</v>
+      </c>
+      <c r="E14" s="1">
+        <f>D14-1</f>
+        <v>27</v>
+      </c>
+      <c r="F14" s="1">
+        <f>E14-1</f>
+        <v>26</v>
+      </c>
+      <c r="G14" s="1">
+        <f>F14-1</f>
+        <v>25</v>
+      </c>
+      <c r="H14" s="1">
+        <f>G14-1</f>
+        <v>24</v>
+      </c>
+      <c r="I14" s="1">
+        <f>H14-1</f>
+        <v>23</v>
+      </c>
+      <c r="J14" s="1">
+        <f>I14-1</f>
+        <v>22</v>
+      </c>
+      <c r="K14" s="1">
+        <f>J14-1</f>
+        <v>21</v>
+      </c>
+      <c r="L14" s="1">
+        <f>K14-1</f>
+        <v>20</v>
+      </c>
+      <c r="M14" s="1">
+        <f>L14-1</f>
+        <v>19</v>
+      </c>
+      <c r="N14" s="1">
+        <f>M14-1</f>
+        <v>18</v>
+      </c>
+      <c r="O14" s="1">
+        <f>N14-1</f>
+        <v>17</v>
+      </c>
+      <c r="P14" s="1">
+        <f>O14-1</f>
+        <v>16</v>
+      </c>
+      <c r="Q14" s="1">
+        <f>P14-1</f>
+        <v>15</v>
+      </c>
+      <c r="R14" s="1">
+        <f>Q14-1</f>
+        <v>14</v>
+      </c>
+      <c r="S14" s="1">
+        <f>R14-1</f>
+        <v>13</v>
+      </c>
+      <c r="T14" s="1">
+        <f>S14-1</f>
+        <v>12</v>
+      </c>
+      <c r="U14" s="1">
+        <f>T14-1</f>
+        <v>11</v>
+      </c>
+      <c r="V14" s="1">
+        <f>U14-1</f>
+        <v>10</v>
+      </c>
+      <c r="W14" s="1">
+        <f>V14-1</f>
+        <v>9</v>
+      </c>
+      <c r="X14" s="1">
+        <f>W14-1</f>
+        <v>8</v>
+      </c>
+      <c r="Y14" s="1">
+        <f>X14-1</f>
+        <v>7</v>
+      </c>
+      <c r="Z14" s="1">
+        <f>Y14-1</f>
+        <v>6</v>
+      </c>
+      <c r="AA14" s="1">
+        <f>Z14-1</f>
+        <v>5</v>
+      </c>
+      <c r="AB14" s="1">
+        <f>AA14-1</f>
+        <v>4</v>
+      </c>
+      <c r="AC14" s="1">
+        <f>AB14-1</f>
+        <v>3</v>
+      </c>
+      <c r="AD14" s="1">
+        <f>AC14-1</f>
+        <v>2</v>
+      </c>
+      <c r="AE14" s="1">
+        <f>AD14-1</f>
+        <v>1</v>
+      </c>
+      <c r="AF14" s="1">
+        <f t="shared" ref="AF14" si="9">AE14-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <f>E14</f>
+        <v>27</v>
+      </c>
+      <c r="L15" s="1">
+        <f>F14</f>
+        <v>26</v>
+      </c>
+      <c r="M15" s="1">
+        <f>G14</f>
+        <v>25</v>
+      </c>
+      <c r="N15" s="1">
+        <f>J14</f>
+        <v>22</v>
+      </c>
+      <c r="O15" s="1">
+        <f>L14</f>
+        <v>20</v>
+      </c>
+      <c r="P15" s="1">
+        <f>M14</f>
+        <v>19</v>
+      </c>
+      <c r="Q15" s="1">
+        <f>O14</f>
+        <v>17</v>
+      </c>
+      <c r="R15" s="1">
+        <f>P14</f>
+        <v>16</v>
+      </c>
+      <c r="S15" s="1">
+        <f>Q14</f>
+        <v>15</v>
+      </c>
+      <c r="T15" s="1">
+        <f>R14</f>
+        <v>14</v>
+      </c>
+      <c r="U15" s="1">
+        <f>S14</f>
+        <v>13</v>
+      </c>
+      <c r="V15" s="1">
+        <f>T14</f>
+        <v>12</v>
+      </c>
+      <c r="W15" s="1">
+        <f>V14</f>
+        <v>10</v>
+      </c>
+      <c r="X15" s="1">
+        <f>W14</f>
+        <v>9</v>
+      </c>
+      <c r="Y15" s="1">
+        <f>X14</f>
+        <v>8</v>
+      </c>
+      <c r="Z15" s="1">
+        <f>Y14</f>
+        <v>7</v>
+      </c>
+      <c r="AA15" s="1">
+        <f>Z14</f>
+        <v>6</v>
+      </c>
+      <c r="AB15" s="1">
+        <f t="shared" ref="AB15:AE15" si="10">AB14</f>
+        <v>4</v>
+      </c>
+      <c r="AC15" s="1">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AD15" s="1">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AE15" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AF15" s="1">
+        <f>AF14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+    </row>
+    <row r="17" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+    </row>
+    <row r="18" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>1</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>1</v>
+      </c>
+      <c r="V18" s="1">
+        <v>1</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="B19" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <f>E18</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <f>F18</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <f>G18</f>
+        <v>1</v>
+      </c>
+      <c r="N19" s="1">
+        <f>J18</f>
+        <v>1</v>
+      </c>
+      <c r="O19" s="1">
+        <f>L18</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <f>M18</f>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="1">
+        <f>O18</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <f>P18</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <f>Q18</f>
+        <v>1</v>
+      </c>
+      <c r="T19" s="1">
+        <f>R18</f>
+        <v>1</v>
+      </c>
+      <c r="U19" s="1">
+        <f>S18</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="1">
+        <f>T18</f>
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <f>V18</f>
+        <v>1</v>
+      </c>
+      <c r="X19" s="1">
+        <f>W18</f>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1">
+        <f>X18</f>
+        <v>1</v>
+      </c>
+      <c r="Z19" s="1">
+        <f>Y18</f>
+        <v>1</v>
+      </c>
+      <c r="AA19" s="1">
+        <f>Z18</f>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="1">
+        <f t="shared" ref="AB19" si="11">AB18</f>
+        <v>1</v>
+      </c>
+      <c r="AC19" s="1">
+        <f t="shared" ref="AC19" si="12">AC18</f>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="1">
+        <f t="shared" ref="AD19" si="13">AD18</f>
+        <v>1</v>
+      </c>
+      <c r="AE19" s="1">
+        <f t="shared" ref="AE19" si="14">AE18</f>
+        <v>1</v>
+      </c>
+      <c r="AF19" s="1">
+        <f>AF18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="25" t="str">
+        <f>CONCATENATE("uint32_t ",A20," = (B",A19,B19,C19,D19,E19,F19,G19,H19," &lt;&lt; 24) + (B",I19,J19,K19,L19,M19,N19,O19,P19," &lt;&lt; 24) + (B",Q19,R19,S19,T19,U19,V19,W19,X19," &lt;&lt; 24) + B",Y19,Z19,AA19,AB19,AC19,AD19,AE19,AF19,";")</f>
+        <v>uint32_t zero = (B00000000 &lt;&lt; 24) + (B00001101 &lt;&lt; 24) + (B00110010 &lt;&lt; 24) + B11010110;</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+    </row>
+    <row r="21" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+    </row>
+    <row r="22" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+    </row>
+    <row r="23" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>1</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>1</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="B24" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <f>E23</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <f>F23</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <f>G23</f>
+        <v>1</v>
+      </c>
+      <c r="N24" s="1">
+        <f>J23</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <f>L23</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <f>M23</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <f>O23</f>
+        <v>1</v>
+      </c>
+      <c r="R24" s="1">
+        <f>P23</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="1">
+        <f>Q23</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <f>R23</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
+        <f>S23</f>
+        <v>1</v>
+      </c>
+      <c r="V24" s="1">
+        <f>T23</f>
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <f>V23</f>
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <f>W23</f>
+        <v>1</v>
+      </c>
+      <c r="Y24" s="1">
+        <f>X23</f>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1">
+        <f>Y23</f>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="1">
+        <f>Z23</f>
+        <v>0</v>
+      </c>
+      <c r="AB24" s="1">
+        <f t="shared" ref="AB24" si="15">AB23</f>
+        <v>0</v>
+      </c>
+      <c r="AC24" s="1">
+        <f t="shared" ref="AC24" si="16">AC23</f>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="1">
+        <f t="shared" ref="AD24" si="17">AD23</f>
+        <v>0</v>
+      </c>
+      <c r="AE24" s="1">
+        <f t="shared" ref="AE24" si="18">AE23</f>
+        <v>1</v>
+      </c>
+      <c r="AF24" s="1">
+        <f>AF23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="28"/>
+      <c r="C25" s="25" t="str">
+        <f>CONCATENATE("uint32_t ",A25," = (B",A24,B24,C24,D24,E24,F24,G24,H24," &lt;&lt; 24) + (B",I24,J24,K24,L24,M24,N24,O24,P24," &lt;&lt; 24) + (B",Q24,R24,S24,T24,U24,V24,W24,X24," &lt;&lt; 24) + B",Y24,Z24,AA24,AB24,AC24,AD24,AE24,AF24,";")</f>
+        <v>uint32_t one = (B00000000 &lt;&lt; 24) + (B00001000 &lt;&lt; 24) + (B10001001 &lt;&lt; 24) + B00000010;</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+    </row>
+    <row r="26" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+    </row>
+    <row r="27" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+    </row>
+    <row r="28" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0</v>
+      </c>
+      <c r="S28" s="1">
+        <v>1</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="B29" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <f>E28</f>
+        <v>1</v>
+      </c>
+      <c r="L29" s="1">
+        <f>F28</f>
+        <v>1</v>
+      </c>
+      <c r="M29" s="1">
+        <f>G28</f>
+        <v>1</v>
+      </c>
+      <c r="N29" s="1">
+        <f>J28</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <f>L28</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <f>M28</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <f>O28</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="1">
+        <f>P28</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="1">
+        <f>Q28</f>
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
+        <f>R28</f>
+        <v>0</v>
+      </c>
+      <c r="U29" s="1">
+        <f>S28</f>
+        <v>1</v>
+      </c>
+      <c r="V29" s="1">
+        <f>T28</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="1">
+        <f>V28</f>
+        <v>0</v>
+      </c>
+      <c r="X29" s="1">
+        <f>W28</f>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="1">
+        <f>X28</f>
+        <v>1</v>
+      </c>
+      <c r="Z29" s="1">
+        <f>Y28</f>
+        <v>1</v>
+      </c>
+      <c r="AA29" s="1">
+        <f>Z28</f>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="1">
+        <f t="shared" ref="AB29" si="19">AB28</f>
+        <v>1</v>
+      </c>
+      <c r="AC29" s="1">
+        <f t="shared" ref="AC29" si="20">AC28</f>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="1">
+        <f t="shared" ref="AD29" si="21">AD28</f>
+        <v>1</v>
+      </c>
+      <c r="AE29" s="1">
+        <f t="shared" ref="AE29" si="22">AE28</f>
+        <v>1</v>
+      </c>
+      <c r="AF29" s="1">
+        <f>AF28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="25" t="str">
+        <f>CONCATENATE("uint32_t ",A30," = (B",A29,B29,C29,D29,E29,F29,G29,H29," &lt;&lt; 24) + (B",I29,J29,K29,L29,M29,N29,O29,P29," &lt;&lt; 24) + (B",Q29,R29,S29,T29,U29,V29,W29,X29," &lt;&lt; 24) + B",Y29,Z29,AA29,AB29,AC29,AD29,AE29,AF29,";")</f>
+        <v>uint32_t two = (B00000000 &lt;&lt; 24) + (B00111000 &lt;&lt; 24) + (B00001000 &lt;&lt; 24) + B11010110;</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+    </row>
+    <row r="32" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+    </row>
+    <row r="33" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0</v>
+      </c>
+      <c r="S33" s="1">
+        <v>1</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1">
+        <v>0</v>
+      </c>
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="B34" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <f>E33</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <f>F33</f>
+        <v>1</v>
+      </c>
+      <c r="M34" s="1">
+        <f>G33</f>
+        <v>1</v>
+      </c>
+      <c r="N34" s="1">
+        <f>J33</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <f>L33</f>
+        <v>1</v>
+      </c>
+      <c r="P34" s="1">
+        <f>M33</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1">
+        <f>O33</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="1">
+        <f>P33</f>
+        <v>1</v>
+      </c>
+      <c r="S34" s="1">
+        <f>Q33</f>
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <f>R33</f>
+        <v>0</v>
+      </c>
+      <c r="U34" s="1">
+        <f>S33</f>
+        <v>1</v>
+      </c>
+      <c r="V34" s="1">
+        <f>T33</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="1">
+        <f>V33</f>
+        <v>0</v>
+      </c>
+      <c r="X34" s="1">
+        <f>W33</f>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="1">
+        <f>X33</f>
+        <v>1</v>
+      </c>
+      <c r="Z34" s="1">
+        <f>Y33</f>
+        <v>1</v>
+      </c>
+      <c r="AA34" s="1">
+        <f>Z33</f>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="1">
+        <f t="shared" ref="AB34" si="23">AB33</f>
+        <v>1</v>
+      </c>
+      <c r="AC34" s="1">
+        <f t="shared" ref="AC34" si="24">AC33</f>
+        <v>0</v>
+      </c>
+      <c r="AD34" s="1">
+        <f t="shared" ref="AD34" si="25">AD33</f>
+        <v>1</v>
+      </c>
+      <c r="AE34" s="1">
+        <f t="shared" ref="AE34" si="26">AE33</f>
+        <v>1</v>
+      </c>
+      <c r="AF34" s="1">
+        <f>AF33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="28"/>
+      <c r="C35" s="25" t="str">
+        <f>CONCATENATE("uint32_t ",A35," = (B",A34,B34,C34,D34,E34,F34,G34,H34," &lt;&lt; 24) + (B",I34,J34,K34,L34,M34,N34,O34,P34," &lt;&lt; 24) + (B",Q34,R34,S34,T34,U34,V34,W34,X34," &lt;&lt; 24) + B",Y34,Z34,AA34,AB34,AC34,AD34,AE34,AF34,";")</f>
+        <v>uint32_t three = (B00000000 &lt;&lt; 24) + (B00011010 &lt;&lt; 24) + (B01001000 &lt;&lt; 24) + B11010110;</v>
+      </c>
+      <c r="D35" s="22"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+    </row>
+    <row r="37" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+    </row>
+    <row r="38" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>1</v>
+      </c>
+      <c r="M38" s="1">
+        <v>1</v>
+      </c>
+      <c r="N38" s="1">
+        <v>1</v>
+      </c>
+      <c r="O38" s="1">
+        <v>1</v>
+      </c>
+      <c r="P38" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>1</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
+        <v>1</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1">
+        <v>1</v>
+      </c>
+      <c r="W38" s="1">
+        <v>0</v>
+      </c>
+      <c r="X38" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="B39" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <f>E38</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <f>F38</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <f>G38</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <f>J38</f>
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <f>L38</f>
+        <v>1</v>
+      </c>
+      <c r="P39" s="1">
+        <f>M38</f>
+        <v>1</v>
+      </c>
+      <c r="Q39" s="1">
+        <f>O38</f>
+        <v>1</v>
+      </c>
+      <c r="R39" s="1">
+        <f>P38</f>
+        <v>1</v>
+      </c>
+      <c r="S39" s="1">
+        <f>Q38</f>
+        <v>1</v>
+      </c>
+      <c r="T39" s="1">
+        <f>R38</f>
+        <v>0</v>
+      </c>
+      <c r="U39" s="1">
+        <f>S38</f>
+        <v>0</v>
+      </c>
+      <c r="V39" s="1">
+        <f>T38</f>
+        <v>1</v>
+      </c>
+      <c r="W39" s="1">
+        <f>V38</f>
+        <v>1</v>
+      </c>
+      <c r="X39" s="1">
+        <f>W38</f>
+        <v>0</v>
+      </c>
+      <c r="Y39" s="1">
+        <f>X38</f>
+        <v>1</v>
+      </c>
+      <c r="Z39" s="1">
+        <f>Y38</f>
+        <v>0</v>
+      </c>
+      <c r="AA39" s="1">
+        <f>Z38</f>
+        <v>0</v>
+      </c>
+      <c r="AB39" s="1">
+        <f t="shared" ref="AB39" si="27">AB38</f>
+        <v>1</v>
+      </c>
+      <c r="AC39" s="1">
+        <f t="shared" ref="AC39" si="28">AC38</f>
+        <v>0</v>
+      </c>
+      <c r="AD39" s="1">
+        <f t="shared" ref="AD39" si="29">AD38</f>
+        <v>0</v>
+      </c>
+      <c r="AE39" s="1">
+        <f t="shared" ref="AE39" si="30">AE38</f>
+        <v>0</v>
+      </c>
+      <c r="AF39" s="1">
+        <f>AF38</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="28"/>
+      <c r="C40" s="25" t="str">
+        <f>CONCATENATE("uint32_t ",A40," = (B",A39,B39,C39,D39,E39,F39,G39,H39," &lt;&lt; 24) + (B",I39,J39,K39,L39,M39,N39,O39,P39," &lt;&lt; 24) + (B",Q39,R39,S39,T39,U39,V39,W39,X39," &lt;&lt; 24) + B",Y39,Z39,AA39,AB39,AC39,AD39,AE39,AF39,";")</f>
+        <v>uint32_t four = (B00000000 &lt;&lt; 24) + (B00000011 &lt;&lt; 24) + (B11100110 &lt;&lt; 24) + B10010001;</v>
+      </c>
+      <c r="D40" s="22"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+    </row>
+    <row r="42" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="27"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+    </row>
+    <row r="43" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>0</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>1</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0</v>
+      </c>
+      <c r="P43" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
+      <c r="T43" s="1">
+        <v>1</v>
+      </c>
+      <c r="U43" s="1">
+        <v>1</v>
+      </c>
+      <c r="V43" s="1">
+        <v>1</v>
+      </c>
+      <c r="W43" s="1">
+        <v>1</v>
+      </c>
+      <c r="X43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="B44" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <f>E43</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <f>F43</f>
+        <v>1</v>
+      </c>
+      <c r="M44" s="1">
+        <f>G43</f>
+        <v>1</v>
+      </c>
+      <c r="N44" s="1">
+        <f>J43</f>
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
+        <f>L43</f>
+        <v>1</v>
+      </c>
+      <c r="P44" s="1">
+        <f>M43</f>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="1">
+        <f>O43</f>
+        <v>0</v>
+      </c>
+      <c r="R44" s="1">
+        <f>P43</f>
+        <v>1</v>
+      </c>
+      <c r="S44" s="1">
+        <f>Q43</f>
+        <v>0</v>
+      </c>
+      <c r="T44" s="1">
+        <f>R43</f>
+        <v>0</v>
+      </c>
+      <c r="U44" s="1">
+        <f>S43</f>
+        <v>0</v>
+      </c>
+      <c r="V44" s="1">
+        <f>T43</f>
+        <v>1</v>
+      </c>
+      <c r="W44" s="1">
+        <f>V43</f>
+        <v>1</v>
+      </c>
+      <c r="X44" s="1">
+        <f>W43</f>
+        <v>1</v>
+      </c>
+      <c r="Y44" s="1">
+        <f>X43</f>
+        <v>0</v>
+      </c>
+      <c r="Z44" s="1">
+        <f>Y43</f>
+        <v>1</v>
+      </c>
+      <c r="AA44" s="1">
+        <f>Z43</f>
+        <v>0</v>
+      </c>
+      <c r="AB44" s="1">
+        <f t="shared" ref="AB44" si="31">AB43</f>
+        <v>0</v>
+      </c>
+      <c r="AC44" s="1">
+        <f t="shared" ref="AC44" si="32">AC43</f>
+        <v>1</v>
+      </c>
+      <c r="AD44" s="1">
+        <f t="shared" ref="AD44" si="33">AD43</f>
+        <v>1</v>
+      </c>
+      <c r="AE44" s="1">
+        <f t="shared" ref="AE44" si="34">AE43</f>
+        <v>1</v>
+      </c>
+      <c r="AF44" s="1">
+        <f>AF43</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="28"/>
+      <c r="C45" s="25" t="str">
+        <f>CONCATENATE("uint32_t ",A45," = (B",A44,B44,C44,D44,E44,F44,G44,H44," &lt;&lt; 24) + (B",I44,J44,K44,L44,M44,N44,O44,P44," &lt;&lt; 24) + (B",Q44,R44,S44,T44,U44,V44,W44,X44," &lt;&lt; 24) + B",Y44,Z44,AA44,AB44,AC44,AD44,AE44,AF44,";")</f>
+        <v>uint32_t five = (B00000000 &lt;&lt; 24) + (B00011010 &lt;&lt; 24) + (B01000111 &lt;&lt; 24) + B01001111;</v>
+      </c>
+      <c r="D45" s="22"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="22"/>
+      <c r="S45" s="22"/>
+      <c r="T45" s="22"/>
+    </row>
+    <row r="47" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="27"/>
+      <c r="T47" s="27"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+    </row>
+    <row r="48" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>0</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>1</v>
+      </c>
+      <c r="M48" s="1">
+        <v>1</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
+        <v>0</v>
+      </c>
+      <c r="P48" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>1</v>
+      </c>
+      <c r="R48" s="1">
+        <v>1</v>
+      </c>
+      <c r="S48" s="1">
+        <v>1</v>
+      </c>
+      <c r="T48" s="1">
+        <v>0</v>
+      </c>
+      <c r="U48" s="1">
+        <v>1</v>
+      </c>
+      <c r="V48" s="1">
+        <v>0</v>
+      </c>
+      <c r="W48" s="1">
+        <v>0</v>
+      </c>
+      <c r="X48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="B49" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <f>E48</f>
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <f>F48</f>
+        <v>1</v>
+      </c>
+      <c r="M49" s="1">
+        <f>G48</f>
+        <v>1</v>
+      </c>
+      <c r="N49" s="1">
+        <f>J48</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
+        <f>L48</f>
+        <v>1</v>
+      </c>
+      <c r="P49" s="1">
+        <f>M48</f>
+        <v>1</v>
+      </c>
+      <c r="Q49" s="1">
+        <f>O48</f>
+        <v>0</v>
+      </c>
+      <c r="R49" s="1">
+        <f>P48</f>
+        <v>1</v>
+      </c>
+      <c r="S49" s="1">
+        <f>Q48</f>
+        <v>1</v>
+      </c>
+      <c r="T49" s="1">
+        <f>R48</f>
+        <v>1</v>
+      </c>
+      <c r="U49" s="1">
+        <f>S48</f>
+        <v>1</v>
+      </c>
+      <c r="V49" s="1">
+        <f>T48</f>
+        <v>0</v>
+      </c>
+      <c r="W49" s="1">
+        <f>V48</f>
+        <v>0</v>
+      </c>
+      <c r="X49" s="1">
+        <f>W48</f>
+        <v>0</v>
+      </c>
+      <c r="Y49" s="1">
+        <f>X48</f>
+        <v>0</v>
+      </c>
+      <c r="Z49" s="1">
+        <f>Y48</f>
+        <v>1</v>
+      </c>
+      <c r="AA49" s="1">
+        <f>Z48</f>
+        <v>0</v>
+      </c>
+      <c r="AB49" s="1">
+        <f t="shared" ref="AB49" si="35">AB48</f>
+        <v>0</v>
+      </c>
+      <c r="AC49" s="1">
+        <f t="shared" ref="AC49" si="36">AC48</f>
+        <v>0</v>
+      </c>
+      <c r="AD49" s="1">
+        <f t="shared" ref="AD49" si="37">AD48</f>
+        <v>1</v>
+      </c>
+      <c r="AE49" s="1">
+        <f t="shared" ref="AE49" si="38">AE48</f>
+        <v>1</v>
+      </c>
+      <c r="AF49" s="1">
+        <f>AF48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="28"/>
+      <c r="C50" s="25" t="str">
+        <f>CONCATENATE("uint32_t ",A50," = (B",A49,B49,C49,D49,E49,F49,G49,H49," &lt;&lt; 24) + (B",I49,J49,K49,L49,M49,N49,O49,P49," &lt;&lt; 24) + (B",Q49,R49,S49,T49,U49,V49,W49,X49," &lt;&lt; 24) + B",Y49,Z49,AA49,AB49,AC49,AD49,AE49,AF49,";")</f>
+        <v>uint32_t six = (B00000000 &lt;&lt; 24) + (B00011011 &lt;&lt; 24) + (B01111000 &lt;&lt; 24) + B01000110;</v>
+      </c>
+      <c r="D50" s="22"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="22"/>
+      <c r="T50" s="22"/>
+    </row>
+    <row r="52" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="27"/>
+      <c r="S52" s="27"/>
+      <c r="T52" s="27"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+    </row>
+    <row r="53" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>0</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>1</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1">
+        <v>1</v>
+      </c>
+      <c r="O53" s="1">
+        <v>0</v>
+      </c>
+      <c r="P53" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>0</v>
+      </c>
+      <c r="R53" s="1">
+        <v>0</v>
+      </c>
+      <c r="S53" s="1">
+        <v>1</v>
+      </c>
+      <c r="T53" s="1">
+        <v>0</v>
+      </c>
+      <c r="U53" s="1">
+        <v>0</v>
+      </c>
+      <c r="V53" s="1">
+        <v>0</v>
+      </c>
+      <c r="W53" s="1">
+        <v>0</v>
+      </c>
+      <c r="X53" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="B54" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C54" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J54" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K54" s="1">
+        <f>E53</f>
+        <v>1</v>
+      </c>
+      <c r="L54" s="1">
+        <f>F53</f>
+        <v>0</v>
+      </c>
+      <c r="M54" s="1">
+        <f>G53</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="1">
+        <f>J53</f>
+        <v>0</v>
+      </c>
+      <c r="O54" s="1">
+        <f>L53</f>
+        <v>0</v>
+      </c>
+      <c r="P54" s="1">
+        <f>M53</f>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="1">
+        <f>O53</f>
+        <v>0</v>
+      </c>
+      <c r="R54" s="1">
+        <f>P53</f>
+        <v>0</v>
+      </c>
+      <c r="S54" s="1">
+        <f>Q53</f>
+        <v>0</v>
+      </c>
+      <c r="T54" s="1">
+        <f>R53</f>
+        <v>0</v>
+      </c>
+      <c r="U54" s="1">
+        <f>S53</f>
+        <v>1</v>
+      </c>
+      <c r="V54" s="1">
+        <f>T53</f>
+        <v>0</v>
+      </c>
+      <c r="W54" s="1">
+        <f>V53</f>
+        <v>0</v>
+      </c>
+      <c r="X54" s="1">
+        <f>W53</f>
+        <v>0</v>
+      </c>
+      <c r="Y54" s="1">
+        <f>X53</f>
+        <v>1</v>
+      </c>
+      <c r="Z54" s="1">
+        <f>Y53</f>
+        <v>0</v>
+      </c>
+      <c r="AA54" s="1">
+        <f>Z53</f>
+        <v>0</v>
+      </c>
+      <c r="AB54" s="1">
+        <f t="shared" ref="AB54" si="39">AB53</f>
+        <v>1</v>
+      </c>
+      <c r="AC54" s="1">
+        <f t="shared" ref="AC54" si="40">AC53</f>
+        <v>1</v>
+      </c>
+      <c r="AD54" s="1">
+        <f t="shared" ref="AD54" si="41">AD53</f>
+        <v>1</v>
+      </c>
+      <c r="AE54" s="1">
+        <f t="shared" ref="AE54" si="42">AE53</f>
+        <v>1</v>
+      </c>
+      <c r="AF54" s="1">
+        <f>AF53</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" s="28"/>
+      <c r="C55" s="25" t="str">
+        <f>CONCATENATE("uint32_t ",A55," = (B",A54,B54,C54,D54,E54,F54,G54,H54," &lt;&lt; 24) + (B",I54,J54,K54,L54,M54,N54,O54,P54," &lt;&lt; 24) + (B",Q54,R54,S54,T54,U54,V54,W54,X54," &lt;&lt; 24) + B",Y54,Z54,AA54,AB54,AC54,AD54,AE54,AF54,";")</f>
+        <v>uint32_t seven = (B00000000 &lt;&lt; 24) + (B00100000 &lt;&lt; 24) + (B00001000 &lt;&lt; 24) + B10011111;</v>
+      </c>
+      <c r="D55" s="22"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="26"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="22"/>
+      <c r="T55" s="22"/>
+    </row>
+    <row r="57" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="27"/>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="27"/>
+      <c r="S57" s="27"/>
+      <c r="T57" s="27"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
+      <c r="AF57" s="1"/>
+    </row>
+    <row r="58" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>0</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0</v>
+      </c>
+      <c r="L58" s="1">
+        <v>1</v>
+      </c>
+      <c r="M58" s="1">
+        <v>1</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0</v>
+      </c>
+      <c r="O58" s="1">
+        <v>0</v>
+      </c>
+      <c r="P58" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>0</v>
+      </c>
+      <c r="R58" s="1">
+        <v>1</v>
+      </c>
+      <c r="S58" s="1">
+        <v>1</v>
+      </c>
+      <c r="T58" s="1">
+        <v>0</v>
+      </c>
+      <c r="U58" s="1">
+        <v>1</v>
+      </c>
+      <c r="V58" s="1">
+        <v>0</v>
+      </c>
+      <c r="W58" s="1">
+        <v>0</v>
+      </c>
+      <c r="X58" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y58" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="B59" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C59" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K59" s="1">
+        <f>E58</f>
+        <v>0</v>
+      </c>
+      <c r="L59" s="1">
+        <f>F58</f>
+        <v>1</v>
+      </c>
+      <c r="M59" s="1">
+        <f>G58</f>
+        <v>1</v>
+      </c>
+      <c r="N59" s="1">
+        <f>J58</f>
+        <v>0</v>
+      </c>
+      <c r="O59" s="1">
+        <f>L58</f>
+        <v>1</v>
+      </c>
+      <c r="P59" s="1">
+        <f>M58</f>
+        <v>1</v>
+      </c>
+      <c r="Q59" s="1">
+        <f>O58</f>
+        <v>0</v>
+      </c>
+      <c r="R59" s="1">
+        <f>P58</f>
+        <v>1</v>
+      </c>
+      <c r="S59" s="1">
+        <f>Q58</f>
+        <v>0</v>
+      </c>
+      <c r="T59" s="1">
+        <f>R58</f>
+        <v>1</v>
+      </c>
+      <c r="U59" s="1">
+        <f>S58</f>
+        <v>1</v>
+      </c>
+      <c r="V59" s="1">
+        <f>T58</f>
+        <v>0</v>
+      </c>
+      <c r="W59" s="1">
+        <f>V58</f>
+        <v>0</v>
+      </c>
+      <c r="X59" s="1">
+        <f>W58</f>
+        <v>0</v>
+      </c>
+      <c r="Y59" s="1">
+        <f>X58</f>
+        <v>1</v>
+      </c>
+      <c r="Z59" s="1">
+        <f>Y58</f>
+        <v>1</v>
+      </c>
+      <c r="AA59" s="1">
+        <f>Z58</f>
+        <v>0</v>
+      </c>
+      <c r="AB59" s="1">
+        <f t="shared" ref="AB59" si="43">AB58</f>
+        <v>1</v>
+      </c>
+      <c r="AC59" s="1">
+        <f t="shared" ref="AC59" si="44">AC58</f>
+        <v>0</v>
+      </c>
+      <c r="AD59" s="1">
+        <f t="shared" ref="AD59" si="45">AD58</f>
+        <v>1</v>
+      </c>
+      <c r="AE59" s="1">
+        <f t="shared" ref="AE59" si="46">AE58</f>
+        <v>1</v>
+      </c>
+      <c r="AF59" s="1">
+        <f>AF58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" s="28"/>
+      <c r="C60" s="25" t="str">
+        <f>CONCATENATE("uint32_t ",A60," = (B",A59,B59,C59,D59,E59,F59,G59,H59," &lt;&lt; 24) + (B",I59,J59,K59,L59,M59,N59,O59,P59," &lt;&lt; 24) + (B",Q59,R59,S59,T59,U59,V59,W59,X59," &lt;&lt; 24) + B",Y59,Z59,AA59,AB59,AC59,AD59,AE59,AF59,";")</f>
+        <v>uint32_t eight = (B00000000 &lt;&lt; 24) + (B00011011 &lt;&lt; 24) + (B01011000 &lt;&lt; 24) + B11010110;</v>
+      </c>
+      <c r="D60" s="22"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="22"/>
+      <c r="P60" s="26"/>
+      <c r="Q60" s="22"/>
+      <c r="R60" s="22"/>
+      <c r="S60" s="22"/>
+      <c r="T60" s="22"/>
+    </row>
+    <row r="62" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="27"/>
+      <c r="M62" s="27"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="27"/>
+      <c r="P62" s="27"/>
+      <c r="Q62" s="27"/>
+      <c r="R62" s="27"/>
+      <c r="S62" s="27"/>
+      <c r="T62" s="27"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="1"/>
+      <c r="AC62" s="1"/>
+      <c r="AD62" s="1"/>
+      <c r="AE62" s="1"/>
+      <c r="AF62" s="1"/>
+    </row>
+    <row r="63" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>0</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1">
+        <v>1</v>
+      </c>
+      <c r="M63" s="1">
+        <v>0</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0</v>
+      </c>
+      <c r="O63" s="1">
+        <v>0</v>
+      </c>
+      <c r="P63" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>0</v>
+      </c>
+      <c r="R63" s="1">
+        <v>1</v>
+      </c>
+      <c r="S63" s="1">
+        <v>1</v>
+      </c>
+      <c r="T63" s="1">
+        <v>1</v>
+      </c>
+      <c r="U63" s="1">
+        <v>1</v>
+      </c>
+      <c r="V63" s="1">
+        <v>0</v>
+      </c>
+      <c r="W63" s="1">
+        <v>0</v>
+      </c>
+      <c r="X63" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y63" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE63" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="B64" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C64" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K64" s="1">
+        <f>E63</f>
+        <v>0</v>
+      </c>
+      <c r="L64" s="1">
+        <f>F63</f>
+        <v>1</v>
+      </c>
+      <c r="M64" s="1">
+        <f>G63</f>
+        <v>1</v>
+      </c>
+      <c r="N64" s="1">
+        <f>J63</f>
+        <v>0</v>
+      </c>
+      <c r="O64" s="1">
+        <f>L63</f>
+        <v>1</v>
+      </c>
+      <c r="P64" s="1">
+        <f>M63</f>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="1">
+        <f>O63</f>
+        <v>0</v>
+      </c>
+      <c r="R64" s="1">
+        <f>P63</f>
+        <v>1</v>
+      </c>
+      <c r="S64" s="1">
+        <f>Q63</f>
+        <v>0</v>
+      </c>
+      <c r="T64" s="1">
+        <f>R63</f>
+        <v>1</v>
+      </c>
+      <c r="U64" s="1">
+        <f>S63</f>
+        <v>1</v>
+      </c>
+      <c r="V64" s="1">
+        <f>T63</f>
+        <v>1</v>
+      </c>
+      <c r="W64" s="1">
+        <f>V63</f>
+        <v>0</v>
+      </c>
+      <c r="X64" s="1">
+        <f>W63</f>
+        <v>0</v>
+      </c>
+      <c r="Y64" s="1">
+        <f>X63</f>
+        <v>1</v>
+      </c>
+      <c r="Z64" s="1">
+        <f>Y63</f>
+        <v>1</v>
+      </c>
+      <c r="AA64" s="1">
+        <f>Z63</f>
+        <v>0</v>
+      </c>
+      <c r="AB64" s="1">
+        <f t="shared" ref="AB64" si="47">AB63</f>
+        <v>1</v>
+      </c>
+      <c r="AC64" s="1">
+        <f t="shared" ref="AC64" si="48">AC63</f>
+        <v>0</v>
+      </c>
+      <c r="AD64" s="1">
+        <f t="shared" ref="AD64" si="49">AD63</f>
+        <v>1</v>
+      </c>
+      <c r="AE64" s="1">
+        <f t="shared" ref="AE64" si="50">AE63</f>
+        <v>1</v>
+      </c>
+      <c r="AF64" s="1">
+        <f>AF63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65" s="28"/>
+      <c r="C65" s="25" t="str">
+        <f>CONCATENATE("uint32_t ",A65," = (B",A64,B64,C64,D64,E64,F64,G64,H64," &lt;&lt; 24) + (B",I64,J64,K64,L64,M64,N64,O64,P64," &lt;&lt; 24) + (B",Q64,R64,S64,T64,U64,V64,W64,X64," &lt;&lt; 24) + B",Y64,Z64,AA64,AB64,AC64,AD64,AE64,AF64,";")</f>
+        <v>uint32_t nine = (B00000000 &lt;&lt; 24) + (B00011010 &lt;&lt; 24) + (B01011100 &lt;&lt; 24) + B11010110;</v>
+      </c>
+      <c r="D65" s="22"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="22"/>
+      <c r="P65" s="26"/>
+      <c r="Q65" s="22"/>
+      <c r="R65" s="22"/>
+      <c r="S65" s="22"/>
+      <c r="T65" s="22"/>
+    </row>
+    <row r="67" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="27"/>
+      <c r="M67" s="27"/>
+      <c r="N67" s="27"/>
+      <c r="O67" s="27"/>
+      <c r="P67" s="27"/>
+      <c r="Q67" s="27"/>
+      <c r="R67" s="27"/>
+      <c r="S67" s="27"/>
+      <c r="T67" s="27"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
+      <c r="AF67" s="1"/>
+    </row>
+    <row r="68" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1"/>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1"/>
+      <c r="AF68" s="1"/>
+    </row>
+    <row r="69" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
+      <c r="AF69" s="1"/>
+    </row>
+    <row r="70" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="29"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="22"/>
+      <c r="O70" s="22"/>
+      <c r="P70" s="26"/>
+      <c r="Q70" s="22"/>
+      <c r="R70" s="22"/>
+      <c r="S70" s="22"/>
+      <c r="T70" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="12">
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A45:B45"/>
     <mergeCell ref="V1:Y2"/>
     <mergeCell ref="AA1:AD2"/>
   </mergeCells>

--- a/headr_pin_map.xlsx
+++ b/headr_pin_map.xlsx
@@ -9,14 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="7140" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="7140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Px_y" sheetId="1" r:id="rId1"/>
     <sheet name="P##" sheetId="2" r:id="rId2"/>
     <sheet name="Pixels" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
+    <sheet name="packedGlyphs" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -87,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="93">
   <si>
     <t>B2</t>
   </si>
@@ -293,15 +292,6 @@
     <t xml:space="preserve"> Row pin candidates</t>
   </si>
   <si>
-    <t>0,1,3</t>
-  </si>
-  <si>
-    <t>1,3</t>
-  </si>
-  <si>
-    <t>1,2,3</t>
-  </si>
-  <si>
     <t>NG</t>
   </si>
   <si>
@@ -372,6 +362,9 @@
   </si>
   <si>
     <t>(B00000110 &lt;&lt; 24) + (B00010001 &lt;&lt; 16) + (B01111001 &lt;&lt; 8) + B10010110;</t>
+  </si>
+  <si>
+    <t>(B00000110 &lt;&lt; 24) + (B01100110 &lt;&lt; 16) + (B01100110 &lt;&lt; 8) + B01100110;</t>
   </si>
 </sst>
 </file>
@@ -534,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -553,7 +546,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -602,6 +594,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -611,13 +606,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1824,8 +1839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:T14"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2003,10 +2018,10 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D7">
         <v>37</v>
@@ -2182,7 +2197,7 @@
         <v>46</v>
       </c>
       <c r="T12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
@@ -2629,42 +2644,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:AO106"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF70"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="AG63" sqref="AG63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2734,18 +2717,18 @@
       <c r="T1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="AA1" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
+      <c r="V1" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="AA1" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
     </row>
     <row r="2" spans="1:32" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2808,14 +2791,14 @@
       <c r="T2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
     </row>
     <row r="3" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -2838,30 +2821,30 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="V3" s="9">
-        <v>0</v>
-      </c>
-      <c r="W3" s="10">
-        <v>1</v>
-      </c>
-      <c r="X3" s="10">
+      <c r="V3" s="8">
+        <v>0</v>
+      </c>
+      <c r="W3" s="9">
+        <v>1</v>
+      </c>
+      <c r="X3" s="9">
         <v>2</v>
       </c>
-      <c r="Y3" s="11">
+      <c r="Y3" s="10">
         <v>3</v>
       </c>
-      <c r="AA3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="10">
+      <c r="AA3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="9">
         <f>AA3+1</f>
         <v>1</v>
       </c>
-      <c r="AC3" s="10">
+      <c r="AC3" s="9">
         <f t="shared" ref="AC3:AD3" si="0">AB3+1</f>
         <v>2</v>
       </c>
-      <c r="AD3" s="10">
+      <c r="AD3" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -2946,29 +2929,29 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="V4" s="12">
+      <c r="V4" s="11">
         <v>4</v>
       </c>
-      <c r="W4" s="20"/>
-      <c r="X4" s="13">
+      <c r="W4" s="19"/>
+      <c r="X4" s="12">
         <v>5</v>
       </c>
-      <c r="Y4" s="14">
+      <c r="Y4" s="13">
         <v>6</v>
       </c>
-      <c r="AA4" s="12">
+      <c r="AA4" s="11">
         <f>AD3+1</f>
         <v>4</v>
       </c>
-      <c r="AB4" s="20">
+      <c r="AB4" s="19">
         <f>AA4+1</f>
         <v>5</v>
       </c>
-      <c r="AC4" s="13">
+      <c r="AC4" s="12">
         <f t="shared" ref="AC4:AD4" si="2">AB4+1</f>
         <v>6</v>
       </c>
-      <c r="AD4" s="14">
+      <c r="AD4" s="13">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -2994,32 +2977,32 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="V5" s="12">
+      <c r="V5" s="11">
         <v>7</v>
       </c>
-      <c r="W5" s="13">
+      <c r="W5" s="12">
         <v>8</v>
       </c>
-      <c r="X5" s="13">
+      <c r="X5" s="12">
         <v>9</v>
       </c>
-      <c r="Y5" s="14">
+      <c r="Y5" s="13">
         <f>Y4</f>
         <v>6</v>
       </c>
-      <c r="AA5" s="12">
+      <c r="AA5" s="11">
         <f t="shared" ref="AA5:AA9" si="3">AD4+1</f>
         <v>8</v>
       </c>
-      <c r="AB5" s="13">
+      <c r="AB5" s="12">
         <f t="shared" ref="AB5:AD9" si="4">AA5+1</f>
         <v>9</v>
       </c>
-      <c r="AC5" s="13">
+      <c r="AC5" s="12">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="AD5" s="14">
+      <c r="AD5" s="13">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
@@ -3103,31 +3086,31 @@
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="V6" s="12">
+      <c r="V6" s="11">
         <v>10</v>
       </c>
-      <c r="W6" s="13">
+      <c r="W6" s="12">
         <v>11</v>
       </c>
-      <c r="X6" s="13">
+      <c r="X6" s="12">
         <v>12</v>
       </c>
-      <c r="Y6" s="14">
+      <c r="Y6" s="13">
         <v>13</v>
       </c>
-      <c r="AA6" s="12">
+      <c r="AA6" s="11">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="AB6" s="13">
+      <c r="AB6" s="12">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="AC6" s="13">
+      <c r="AC6" s="12">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="AD6" s="14">
+      <c r="AD6" s="13">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
@@ -3211,32 +3194,32 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="V7" s="12">
+      <c r="V7" s="11">
         <v>14</v>
       </c>
-      <c r="W7" s="23">
+      <c r="W7" s="22">
         <v>15</v>
       </c>
-      <c r="X7" s="13">
+      <c r="X7" s="12">
         <f>X4</f>
         <v>5</v>
       </c>
-      <c r="Y7" s="24">
+      <c r="Y7" s="23">
         <v>16</v>
       </c>
-      <c r="AA7" s="12">
+      <c r="AA7" s="11">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="AB7" s="13">
+      <c r="AB7" s="12">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="AC7" s="13">
+      <c r="AC7" s="12">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="AD7" s="14">
+      <c r="AD7" s="13">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
@@ -3262,30 +3245,30 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="V8" s="12">
+      <c r="V8" s="11">
         <v>17</v>
       </c>
-      <c r="W8" s="20"/>
-      <c r="X8" s="13">
+      <c r="W8" s="19"/>
+      <c r="X8" s="12">
         <v>18</v>
       </c>
-      <c r="Y8" s="24">
+      <c r="Y8" s="23">
         <f>Y7</f>
         <v>16</v>
       </c>
-      <c r="AA8" s="12">
+      <c r="AA8" s="11">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="AB8" s="20">
+      <c r="AB8" s="19">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="AC8" s="13">
+      <c r="AC8" s="12">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="AD8" s="14">
+      <c r="AD8" s="13">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
@@ -3370,32 +3353,32 @@
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="V9" s="15">
+      <c r="V9" s="14">
         <v>19</v>
       </c>
-      <c r="W9" s="21">
+      <c r="W9" s="20">
         <f>V4</f>
         <v>4</v>
       </c>
-      <c r="X9" s="16">
+      <c r="X9" s="15">
         <v>20</v>
       </c>
-      <c r="Y9" s="17">
+      <c r="Y9" s="16">
         <v>21</v>
       </c>
-      <c r="AA9" s="15">
+      <c r="AA9" s="14">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="AB9" s="16">
+      <c r="AB9" s="15">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="AC9" s="16">
+      <c r="AC9" s="15">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="AD9" s="17">
+      <c r="AD9" s="16">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
@@ -3869,6 +3852,9 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -3898,9 +3884,9 @@
       <c r="AE16" s="6"/>
       <c r="AF16" s="6"/>
     </row>
-    <row r="17" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
@@ -3910,31 +3896,109 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-    </row>
-    <row r="18" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="21"/>
+      <c r="K17" s="1">
+        <f t="shared" ref="K17:AD17" si="11">L17+1</f>
+        <v>21</v>
+      </c>
+      <c r="L17" s="1">
+        <f>M17+1</f>
+        <v>20</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="U17" s="1">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="V17" s="1">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="W17" s="1">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="X17" s="1">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="Y17" s="1">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="Z17" s="1">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="AA17" s="1">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="AB17" s="1">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AC17" s="1">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AD17" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AE17" s="1">
+        <f>AF17+1</f>
+        <v>1</v>
+      </c>
+      <c r="AF17" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH17" s="18"/>
+      <c r="AI17" s="18"/>
+      <c r="AJ17" s="18"/>
+      <c r="AL17" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM17" s="18"/>
+      <c r="AN17" s="18"/>
+      <c r="AO17" s="18"/>
+    </row>
+    <row r="18" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -3951,55 +4015,55 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
       </c>
       <c r="L18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="1">
         <v>1</v>
       </c>
       <c r="N18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="1">
         <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="1">
         <v>1</v>
       </c>
       <c r="R18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" s="1">
         <v>0</v>
       </c>
       <c r="T18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" s="1">
         <v>1</v>
       </c>
       <c r="V18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" s="1">
         <v>0</v>
@@ -4031,8 +4095,16 @@
       <c r="AF18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="17"/>
+      <c r="AL18" s="17"/>
+      <c r="AM18" s="17"/>
+      <c r="AN18" s="17"/>
+      <c r="AO18" s="17"/>
+    </row>
+    <row r="19" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f>0</f>
         <v>0</v>
@@ -4079,19 +4151,19 @@
       </c>
       <c r="L19" s="1">
         <f>F18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="1">
         <f>G18</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="1">
         <f>J18</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="1">
         <f>L18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" s="1">
         <f>M18</f>
@@ -4103,7 +4175,7 @@
       </c>
       <c r="R19" s="1">
         <f>P18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="1">
         <f>Q18</f>
@@ -4111,7 +4183,7 @@
       </c>
       <c r="T19" s="1">
         <f>R18</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <f>S18</f>
@@ -4119,11 +4191,11 @@
       </c>
       <c r="V19" s="1">
         <f>T18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" s="1">
         <f>V18</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" s="1">
         <f>W18</f>
@@ -4142,2466 +4214,3148 @@
         <v>0</v>
       </c>
       <c r="AB19" s="1">
-        <f t="shared" ref="AB19" si="11">AB18</f>
+        <f t="shared" ref="AB19" si="12">AB18</f>
         <v>1</v>
       </c>
       <c r="AC19" s="1">
-        <f t="shared" ref="AC19" si="12">AC18</f>
+        <f t="shared" ref="AC19" si="13">AC18</f>
         <v>0</v>
       </c>
       <c r="AD19" s="1">
-        <f t="shared" ref="AD19" si="13">AD18</f>
+        <f t="shared" ref="AD19" si="14">AD18</f>
         <v>1</v>
       </c>
       <c r="AE19" s="1">
-        <f t="shared" ref="AE19" si="14">AE18</f>
+        <f t="shared" ref="AE19" si="15">AE18</f>
         <v>1</v>
       </c>
       <c r="AF19" s="1">
         <f>AF18</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="28"/>
+      <c r="AG19" s="8">
+        <f>AF19</f>
+        <v>0</v>
+      </c>
+      <c r="AH19" s="9">
+        <f>AE19</f>
+        <v>1</v>
+      </c>
+      <c r="AI19" s="9">
+        <f>AD19</f>
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="10">
+        <f>AC19</f>
+        <v>0</v>
+      </c>
+      <c r="AL19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="9">
+        <v>2</v>
+      </c>
+      <c r="AO19" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="29"/>
       <c r="C20" s="25" t="str">
-        <f>CONCATENATE("uint32_t ",A20," = (B",A19,B19,C19,D19,E19,F19,G19,H19," &lt;&lt; 24) + (B",I19,J19,K19,L19,M19,N19,O19,P19," &lt;&lt; 24) + (B",Q19,R19,S19,T19,U19,V19,W19,X19," &lt;&lt; 24) + B",Y19,Z19,AA19,AB19,AC19,AD19,AE19,AF19,";")</f>
-        <v>uint32_t zero = (B00000000 &lt;&lt; 24) + (B00001101 &lt;&lt; 24) + (B00110010 &lt;&lt; 24) + B11010110;</v>
-      </c>
-      <c r="D20" s="22"/>
+        <f>CONCATENATE("uint32_t ",A20," = (B",A19,B19,C19,D19,E19,F19,G19,H19," &lt;&lt; 24) + (B",I19,J19,K19,L19,M19,N19,O19,P19," &lt;&lt; 16) + (B",Q19,R19,S19,T19,U19,V19,W19,X19," &lt;&lt; 8) + B",Y19,Z19,AA19,AB19,AC19,AD19,AE19,AF19,";")</f>
+        <v>uint32_t zero = (B00000000 &lt;&lt; 24) + (B00010011 &lt;&lt; 16) + (B01100100 &lt;&lt; 8) + B11010110;</v>
+      </c>
+      <c r="D20" s="21"/>
       <c r="E20" s="26"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
       <c r="J20" s="26"/>
       <c r="K20" s="26"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
       <c r="P20" s="26"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-    </row>
-    <row r="21" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="AG20" s="11">
+        <f>AB19</f>
+        <v>1</v>
+      </c>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="12">
+        <f>AA19</f>
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="13">
+        <f>Z19</f>
+        <v>1</v>
+      </c>
+      <c r="AL20" s="11">
+        <v>4</v>
+      </c>
+      <c r="AM20" s="19"/>
+      <c r="AN20" s="12">
+        <v>5</v>
+      </c>
+      <c r="AO20" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="26"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
       <c r="J21" s="26"/>
       <c r="K21" s="26"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
       <c r="P21" s="26"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-    </row>
-    <row r="22" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
-    </row>
-    <row r="23" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1">
-        <v>1</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0</v>
-      </c>
-      <c r="N23" s="1">
-        <v>0</v>
-      </c>
-      <c r="O23" s="1">
-        <v>1</v>
-      </c>
-      <c r="P23" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>0</v>
-      </c>
-      <c r="R23" s="1">
-        <v>0</v>
-      </c>
-      <c r="S23" s="1">
-        <v>1</v>
-      </c>
-      <c r="T23" s="1">
-        <v>0</v>
-      </c>
-      <c r="U23" s="1">
-        <v>0</v>
-      </c>
-      <c r="V23" s="1">
-        <v>0</v>
-      </c>
-      <c r="W23" s="1">
-        <v>1</v>
-      </c>
-      <c r="X23" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="B24" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="1">
-        <f>E23</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="1">
-        <f>F23</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="1">
-        <f>G23</f>
-        <v>1</v>
-      </c>
-      <c r="N24" s="1">
-        <f>J23</f>
-        <v>0</v>
-      </c>
-      <c r="O24" s="1">
-        <f>L23</f>
-        <v>0</v>
-      </c>
-      <c r="P24" s="1">
-        <f>M23</f>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="1">
-        <f>O23</f>
-        <v>1</v>
-      </c>
-      <c r="R24" s="1">
-        <f>P23</f>
-        <v>0</v>
-      </c>
-      <c r="S24" s="1">
-        <f>Q23</f>
-        <v>0</v>
-      </c>
-      <c r="T24" s="1">
-        <f>R23</f>
-        <v>0</v>
-      </c>
-      <c r="U24" s="1">
-        <f>S23</f>
-        <v>1</v>
-      </c>
-      <c r="V24" s="1">
-        <f>T23</f>
-        <v>0</v>
-      </c>
-      <c r="W24" s="1">
-        <f>V23</f>
-        <v>0</v>
-      </c>
-      <c r="X24" s="1">
-        <f>W23</f>
-        <v>1</v>
-      </c>
-      <c r="Y24" s="1">
-        <f>X23</f>
-        <v>0</v>
-      </c>
-      <c r="Z24" s="1">
-        <f>Y23</f>
-        <v>0</v>
-      </c>
-      <c r="AA24" s="1">
-        <f>Z23</f>
-        <v>0</v>
-      </c>
-      <c r="AB24" s="1">
-        <f t="shared" ref="AB24" si="15">AB23</f>
-        <v>0</v>
-      </c>
-      <c r="AC24" s="1">
-        <f t="shared" ref="AC24" si="16">AC23</f>
-        <v>0</v>
-      </c>
-      <c r="AD24" s="1">
-        <f t="shared" ref="AD24" si="17">AD23</f>
-        <v>0</v>
-      </c>
-      <c r="AE24" s="1">
-        <f t="shared" ref="AE24" si="18">AE23</f>
-        <v>1</v>
-      </c>
-      <c r="AF24" s="1">
-        <f>AF23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="25" t="str">
-        <f>CONCATENATE("uint32_t ",A25," = (B",A24,B24,C24,D24,E24,F24,G24,H24," &lt;&lt; 24) + (B",I24,J24,K24,L24,M24,N24,O24,P24," &lt;&lt; 24) + (B",Q24,R24,S24,T24,U24,V24,W24,X24," &lt;&lt; 24) + B",Y24,Z24,AA24,AB24,AC24,AD24,AE24,AF24,";")</f>
-        <v>uint32_t one = (B00000000 &lt;&lt; 24) + (B00001000 &lt;&lt; 24) + (B10001001 &lt;&lt; 24) + B00000010;</v>
-      </c>
-      <c r="D25" s="22"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="AG21" s="11">
+        <f>Y19</f>
+        <v>1</v>
+      </c>
+      <c r="AH21" s="12">
+        <f>X19</f>
+        <v>0</v>
+      </c>
+      <c r="AI21" s="12">
+        <f>W19</f>
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="13">
+        <f>Z19</f>
+        <v>1</v>
+      </c>
+      <c r="AL21" s="11">
+        <v>7</v>
+      </c>
+      <c r="AM21" s="12">
+        <v>8</v>
+      </c>
+      <c r="AN21" s="12">
+        <v>9</v>
+      </c>
+      <c r="AO21" s="13">
+        <f>AO20</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="AG22" s="11">
+        <f>V19</f>
+        <v>1</v>
+      </c>
+      <c r="AH22" s="12">
+        <f>U19</f>
+        <v>0</v>
+      </c>
+      <c r="AI22" s="12">
+        <f>T19</f>
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="13">
+        <f>S19</f>
+        <v>1</v>
+      </c>
+      <c r="AL22" s="11">
+        <v>10</v>
+      </c>
+      <c r="AM22" s="12">
+        <v>11</v>
+      </c>
+      <c r="AN22" s="12">
+        <v>12</v>
+      </c>
+      <c r="AO22" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="AG23" s="11">
+        <f>R19</f>
+        <v>1</v>
+      </c>
+      <c r="AH23" s="22">
+        <f>Q19</f>
+        <v>0</v>
+      </c>
+      <c r="AI23" s="12">
+        <f>AA19</f>
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="23">
+        <f>P19</f>
+        <v>1</v>
+      </c>
+      <c r="AL23" s="11">
+        <v>14</v>
+      </c>
+      <c r="AM23" s="22">
+        <v>15</v>
+      </c>
+      <c r="AN23" s="12">
+        <f>AN20</f>
+        <v>5</v>
+      </c>
+      <c r="AO23" s="23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="AG24" s="11">
+        <f>O19</f>
+        <v>1</v>
+      </c>
+      <c r="AH24" s="19"/>
+      <c r="AI24" s="12">
+        <f>N19</f>
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="23">
+        <f>P19</f>
+        <v>1</v>
+      </c>
+      <c r="AL24" s="11">
+        <v>17</v>
+      </c>
+      <c r="AM24" s="19"/>
+      <c r="AN24" s="12">
+        <v>18</v>
+      </c>
+      <c r="AO24" s="23">
+        <f>AO23</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="26"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
       <c r="J25" s="26"/>
       <c r="K25" s="26"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
       <c r="P25" s="26"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-    </row>
-    <row r="26" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-    </row>
-    <row r="27" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
-    </row>
-    <row r="28" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="AG25" s="14">
+        <f>M19</f>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="20">
+        <f>AB19</f>
+        <v>1</v>
+      </c>
+      <c r="AI25" s="15">
+        <f>L19</f>
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="16">
+        <f>K19</f>
+        <v>0</v>
+      </c>
+      <c r="AL25" s="14">
+        <v>19</v>
+      </c>
+      <c r="AM25" s="20">
+        <f>AL20</f>
+        <v>4</v>
+      </c>
+      <c r="AN25" s="15">
+        <v>20</v>
+      </c>
+      <c r="AO25" s="16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="1">
+        <f t="shared" ref="K26:AD26" si="16">L26+1</f>
+        <v>21</v>
+      </c>
+      <c r="L26" s="1">
+        <f>M26+1</f>
+        <v>20</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" ref="M26:AF26" si="17">N26+1</f>
+        <v>19</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="17"/>
+        <v>18</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="17"/>
+        <v>17</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="17"/>
+        <v>16</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" si="17"/>
+        <v>14</v>
+      </c>
+      <c r="S26" s="1">
+        <f t="shared" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="U26" s="1">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="V26" s="1">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="W26" s="1">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="X26" s="1">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="Y26" s="1">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="Z26" s="1">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="AA26" s="1">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="AB26" s="1">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="AC26" s="1">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="AD26" s="1">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AE26" s="1">
+        <f>AF26+1</f>
+        <v>1</v>
+      </c>
+      <c r="AF26" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH26" s="18"/>
+      <c r="AI26" s="18"/>
+      <c r="AJ26" s="18"/>
+      <c r="AL26" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM26" s="18"/>
+      <c r="AN26" s="18"/>
+      <c r="AO26" s="18"/>
+    </row>
+    <row r="27" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0</v>
+      </c>
+      <c r="R27" s="1">
+        <v>1</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0</v>
+      </c>
+      <c r="V27" s="1">
+        <v>1</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="17"/>
+      <c r="AH27" s="17"/>
+      <c r="AI27" s="17"/>
+      <c r="AJ27" s="17"/>
+      <c r="AL27" s="17"/>
+      <c r="AM27" s="17"/>
+      <c r="AN27" s="17"/>
+      <c r="AO27" s="17"/>
+    </row>
+    <row r="28" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="B28" s="1">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="C28" s="1">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D28" s="1">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>1</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="F28" s="1">
-        <v>1</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="G28" s="1">
-        <v>1</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>1</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="I28" s="1">
-        <v>1</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="J28" s="1">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="K28" s="1">
+        <f>E27</f>
         <v>0</v>
       </c>
       <c r="L28" s="1">
-        <v>0</v>
+        <f>F27</f>
+        <v>1</v>
       </c>
       <c r="M28" s="1">
+        <f>G27</f>
         <v>0</v>
       </c>
       <c r="N28" s="1">
+        <f>J27</f>
         <v>1</v>
       </c>
       <c r="O28" s="1">
+        <f>L27</f>
         <v>0</v>
       </c>
       <c r="P28" s="1">
+        <f>M27</f>
         <v>0</v>
       </c>
       <c r="Q28" s="1">
+        <f>O27</f>
         <v>0</v>
       </c>
       <c r="R28" s="1">
+        <f>P27</f>
         <v>0</v>
       </c>
       <c r="S28" s="1">
-        <v>1</v>
+        <f>Q27</f>
+        <v>0</v>
       </c>
       <c r="T28" s="1">
-        <v>0</v>
+        <f>R27</f>
+        <v>1</v>
       </c>
       <c r="U28" s="1">
+        <f>S27</f>
         <v>0</v>
       </c>
       <c r="V28" s="1">
+        <f>T27</f>
         <v>0</v>
       </c>
       <c r="W28" s="1">
-        <v>0</v>
+        <f>V27</f>
+        <v>1</v>
       </c>
       <c r="X28" s="1">
-        <v>1</v>
+        <f>W27</f>
+        <v>0</v>
       </c>
       <c r="Y28" s="1">
-        <v>1</v>
+        <f>X27</f>
+        <v>0</v>
       </c>
       <c r="Z28" s="1">
+        <f>Y27</f>
         <v>0</v>
       </c>
       <c r="AA28" s="1">
-        <v>0</v>
+        <f>Z27</f>
+        <v>1</v>
       </c>
       <c r="AB28" s="1">
-        <v>1</v>
+        <f t="shared" ref="AB28" si="18">AB27</f>
+        <v>0</v>
       </c>
       <c r="AC28" s="1">
+        <f t="shared" ref="AC28" si="19">AC27</f>
         <v>0</v>
       </c>
       <c r="AD28" s="1">
+        <f t="shared" ref="AD28" si="20">AD27</f>
         <v>1</v>
       </c>
       <c r="AE28" s="1">
-        <v>1</v>
+        <f t="shared" ref="AE28" si="21">AE27</f>
+        <v>0</v>
       </c>
       <c r="AF28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="B29" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="1">
-        <f>E28</f>
-        <v>1</v>
-      </c>
-      <c r="L29" s="1">
-        <f>F28</f>
-        <v>1</v>
-      </c>
-      <c r="M29" s="1">
-        <f>G28</f>
-        <v>1</v>
-      </c>
-      <c r="N29" s="1">
-        <f>J28</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="1">
-        <f>L28</f>
-        <v>0</v>
-      </c>
-      <c r="P29" s="1">
-        <f>M28</f>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="1">
-        <f>O28</f>
-        <v>0</v>
-      </c>
-      <c r="R29" s="1">
-        <f>P28</f>
-        <v>0</v>
-      </c>
-      <c r="S29" s="1">
-        <f>Q28</f>
-        <v>0</v>
-      </c>
-      <c r="T29" s="1">
-        <f>R28</f>
-        <v>0</v>
-      </c>
-      <c r="U29" s="1">
-        <f>S28</f>
-        <v>1</v>
-      </c>
-      <c r="V29" s="1">
-        <f>T28</f>
-        <v>0</v>
-      </c>
-      <c r="W29" s="1">
-        <f>V28</f>
-        <v>0</v>
-      </c>
-      <c r="X29" s="1">
-        <f>W28</f>
-        <v>0</v>
-      </c>
-      <c r="Y29" s="1">
-        <f>X28</f>
-        <v>1</v>
-      </c>
-      <c r="Z29" s="1">
-        <f>Y28</f>
-        <v>1</v>
-      </c>
-      <c r="AA29" s="1">
+        <f>AF27</f>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="8">
+        <f>AF28</f>
+        <v>0</v>
+      </c>
+      <c r="AH28" s="9">
+        <f>AE28</f>
+        <v>0</v>
+      </c>
+      <c r="AI28" s="9">
+        <f>AD28</f>
+        <v>1</v>
+      </c>
+      <c r="AJ28" s="10">
+        <f>AC28</f>
+        <v>0</v>
+      </c>
+      <c r="AL28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN28" s="9">
+        <v>2</v>
+      </c>
+      <c r="AO28" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="25" t="str">
+        <f>CONCATENATE("uint32_t ",A29," = (B",A28,B28,C28,D28,E28,F28,G28,H28," &lt;&lt; 24) + (B",I28,J28,K28,L28,M28,N28,O28,P28," &lt;&lt; 16) + (B",Q28,R28,S28,T28,U28,V28,W28,X28," &lt;&lt; 8) + B",Y28,Z28,AA28,AB28,AC28,AD28,AE28,AF28,";")</f>
+        <v>uint32_t one = (B00000000 &lt;&lt; 24) + (B00010100 &lt;&lt; 16) + (B00010010 &lt;&lt; 8) + B00100100;</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="AG29" s="11">
+        <f>AB28</f>
+        <v>0</v>
+      </c>
+      <c r="AH29" s="19"/>
+      <c r="AI29" s="12">
+        <f>AA28</f>
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="13">
         <f>Z28</f>
         <v>0</v>
       </c>
-      <c r="AB29" s="1">
-        <f t="shared" ref="AB29" si="19">AB28</f>
-        <v>1</v>
-      </c>
-      <c r="AC29" s="1">
-        <f t="shared" ref="AC29" si="20">AC28</f>
-        <v>0</v>
-      </c>
-      <c r="AD29" s="1">
-        <f t="shared" ref="AD29" si="21">AD28</f>
-        <v>1</v>
-      </c>
-      <c r="AE29" s="1">
-        <f t="shared" ref="AE29" si="22">AE28</f>
-        <v>1</v>
-      </c>
-      <c r="AF29" s="1">
-        <f>AF28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
-        <v>77</v>
-      </c>
+      <c r="AL29" s="11">
+        <v>4</v>
+      </c>
+      <c r="AM29" s="19"/>
+      <c r="AN29" s="12">
+        <v>5</v>
+      </c>
+      <c r="AO29" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="28"/>
       <c r="B30" s="28"/>
-      <c r="C30" s="25" t="str">
-        <f>CONCATENATE("uint32_t ",A30," = (B",A29,B29,C29,D29,E29,F29,G29,H29," &lt;&lt; 24) + (B",I29,J29,K29,L29,M29,N29,O29,P29," &lt;&lt; 24) + (B",Q29,R29,S29,T29,U29,V29,W29,X29," &lt;&lt; 24) + B",Y29,Z29,AA29,AB29,AC29,AD29,AE29,AF29,";")</f>
-        <v>uint32_t two = (B00000000 &lt;&lt; 24) + (B00111000 &lt;&lt; 24) + (B00001000 &lt;&lt; 24) + B11010110;</v>
-      </c>
-      <c r="D30" s="22"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="21"/>
       <c r="E30" s="26"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
       <c r="P30" s="26"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-    </row>
-    <row r="32" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="1"/>
-      <c r="AF32" s="1"/>
-    </row>
-    <row r="33" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>0</v>
-      </c>
-      <c r="B33" s="1">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1">
-        <v>1</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0</v>
-      </c>
-      <c r="L33" s="1">
-        <v>1</v>
-      </c>
-      <c r="M33" s="1">
-        <v>0</v>
-      </c>
-      <c r="N33" s="1">
-        <v>0</v>
-      </c>
-      <c r="O33" s="1">
-        <v>0</v>
-      </c>
-      <c r="P33" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>0</v>
-      </c>
-      <c r="R33" s="1">
-        <v>0</v>
-      </c>
-      <c r="S33" s="1">
-        <v>1</v>
-      </c>
-      <c r="T33" s="1">
-        <v>0</v>
-      </c>
-      <c r="U33" s="1">
-        <v>0</v>
-      </c>
-      <c r="V33" s="1">
-        <v>0</v>
-      </c>
-      <c r="W33" s="1">
-        <v>0</v>
-      </c>
-      <c r="X33" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y33" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE33" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="B34" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="C34" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="1">
-        <f>E33</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="1">
-        <f>F33</f>
-        <v>1</v>
-      </c>
-      <c r="M34" s="1">
-        <f>G33</f>
-        <v>1</v>
-      </c>
-      <c r="N34" s="1">
-        <f>J33</f>
-        <v>0</v>
-      </c>
-      <c r="O34" s="1">
-        <f>L33</f>
-        <v>1</v>
-      </c>
-      <c r="P34" s="1">
-        <f>M33</f>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="1">
-        <f>O33</f>
-        <v>0</v>
-      </c>
-      <c r="R34" s="1">
-        <f>P33</f>
-        <v>1</v>
-      </c>
-      <c r="S34" s="1">
-        <f>Q33</f>
-        <v>0</v>
-      </c>
-      <c r="T34" s="1">
-        <f>R33</f>
-        <v>0</v>
-      </c>
-      <c r="U34" s="1">
-        <f>S33</f>
-        <v>1</v>
-      </c>
-      <c r="V34" s="1">
-        <f>T33</f>
-        <v>0</v>
-      </c>
-      <c r="W34" s="1">
-        <f>V33</f>
-        <v>0</v>
-      </c>
-      <c r="X34" s="1">
-        <f>W33</f>
-        <v>0</v>
-      </c>
-      <c r="Y34" s="1">
-        <f>X33</f>
-        <v>1</v>
-      </c>
-      <c r="Z34" s="1">
-        <f>Y33</f>
-        <v>1</v>
-      </c>
-      <c r="AA34" s="1">
-        <f>Z33</f>
-        <v>0</v>
-      </c>
-      <c r="AB34" s="1">
-        <f t="shared" ref="AB34" si="23">AB33</f>
-        <v>1</v>
-      </c>
-      <c r="AC34" s="1">
-        <f t="shared" ref="AC34" si="24">AC33</f>
-        <v>0</v>
-      </c>
-      <c r="AD34" s="1">
-        <f t="shared" ref="AD34" si="25">AD33</f>
-        <v>1</v>
-      </c>
-      <c r="AE34" s="1">
-        <f t="shared" ref="AE34" si="26">AE33</f>
-        <v>1</v>
-      </c>
-      <c r="AF34" s="1">
-        <f>AF33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="25" t="str">
-        <f>CONCATENATE("uint32_t ",A35," = (B",A34,B34,C34,D34,E34,F34,G34,H34," &lt;&lt; 24) + (B",I34,J34,K34,L34,M34,N34,O34,P34," &lt;&lt; 24) + (B",Q34,R34,S34,T34,U34,V34,W34,X34," &lt;&lt; 24) + B",Y34,Z34,AA34,AB34,AC34,AD34,AE34,AF34,";")</f>
-        <v>uint32_t three = (B00000000 &lt;&lt; 24) + (B00011010 &lt;&lt; 24) + (B01001000 &lt;&lt; 24) + B11010110;</v>
-      </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-    </row>
-    <row r="37" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="27"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="27"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
-      <c r="AA37" s="1"/>
-      <c r="AB37" s="1"/>
-      <c r="AC37" s="1"/>
-      <c r="AD37" s="1"/>
-      <c r="AE37" s="1"/>
-      <c r="AF37" s="1"/>
-    </row>
-    <row r="38" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>0</v>
-      </c>
-      <c r="B38" s="1">
-        <v>0</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0</v>
-      </c>
-      <c r="H38" s="1">
-        <v>1</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
-      <c r="J38" s="1">
-        <v>0</v>
-      </c>
-      <c r="K38" s="1">
-        <v>0</v>
-      </c>
-      <c r="L38" s="1">
-        <v>1</v>
-      </c>
-      <c r="M38" s="1">
-        <v>1</v>
-      </c>
-      <c r="N38" s="1">
-        <v>1</v>
-      </c>
-      <c r="O38" s="1">
-        <v>1</v>
-      </c>
-      <c r="P38" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="1">
-        <v>1</v>
-      </c>
-      <c r="R38" s="1">
-        <v>0</v>
-      </c>
-      <c r="S38" s="1">
-        <v>0</v>
-      </c>
-      <c r="T38" s="1">
-        <v>1</v>
-      </c>
-      <c r="U38" s="1">
-        <v>0</v>
-      </c>
-      <c r="V38" s="1">
-        <v>1</v>
-      </c>
-      <c r="W38" s="1">
-        <v>0</v>
-      </c>
-      <c r="X38" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y38" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB38" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="B39" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="C39" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="G39" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="K39" s="1">
-        <f>E38</f>
-        <v>0</v>
-      </c>
-      <c r="L39" s="1">
-        <f>F38</f>
-        <v>0</v>
-      </c>
-      <c r="M39" s="1">
-        <f>G38</f>
-        <v>0</v>
-      </c>
-      <c r="N39" s="1">
-        <f>J38</f>
-        <v>0</v>
-      </c>
-      <c r="O39" s="1">
-        <f>L38</f>
-        <v>1</v>
-      </c>
-      <c r="P39" s="1">
-        <f>M38</f>
-        <v>1</v>
-      </c>
-      <c r="Q39" s="1">
-        <f>O38</f>
-        <v>1</v>
-      </c>
-      <c r="R39" s="1">
-        <f>P38</f>
-        <v>1</v>
-      </c>
-      <c r="S39" s="1">
-        <f>Q38</f>
-        <v>1</v>
-      </c>
-      <c r="T39" s="1">
-        <f>R38</f>
-        <v>0</v>
-      </c>
-      <c r="U39" s="1">
-        <f>S38</f>
-        <v>0</v>
-      </c>
-      <c r="V39" s="1">
-        <f>T38</f>
-        <v>1</v>
-      </c>
-      <c r="W39" s="1">
-        <f>V38</f>
-        <v>1</v>
-      </c>
-      <c r="X39" s="1">
-        <f>W38</f>
-        <v>0</v>
-      </c>
-      <c r="Y39" s="1">
-        <f>X38</f>
-        <v>1</v>
-      </c>
-      <c r="Z39" s="1">
-        <f>Y38</f>
-        <v>0</v>
-      </c>
-      <c r="AA39" s="1">
-        <f>Z38</f>
-        <v>0</v>
-      </c>
-      <c r="AB39" s="1">
-        <f t="shared" ref="AB39" si="27">AB38</f>
-        <v>1</v>
-      </c>
-      <c r="AC39" s="1">
-        <f t="shared" ref="AC39" si="28">AC38</f>
-        <v>0</v>
-      </c>
-      <c r="AD39" s="1">
-        <f t="shared" ref="AD39" si="29">AD38</f>
-        <v>0</v>
-      </c>
-      <c r="AE39" s="1">
-        <f t="shared" ref="AE39" si="30">AE38</f>
-        <v>0</v>
-      </c>
-      <c r="AF39" s="1">
-        <f>AF38</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="25" t="str">
-        <f>CONCATENATE("uint32_t ",A40," = (B",A39,B39,C39,D39,E39,F39,G39,H39," &lt;&lt; 24) + (B",I39,J39,K39,L39,M39,N39,O39,P39," &lt;&lt; 24) + (B",Q39,R39,S39,T39,U39,V39,W39,X39," &lt;&lt; 24) + B",Y39,Z39,AA39,AB39,AC39,AD39,AE39,AF39,";")</f>
-        <v>uint32_t four = (B00000000 &lt;&lt; 24) + (B00000011 &lt;&lt; 24) + (B11100110 &lt;&lt; 24) + B10010001;</v>
-      </c>
-      <c r="D40" s="22"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="AG30" s="11">
+        <f>Y28</f>
+        <v>0</v>
+      </c>
+      <c r="AH30" s="12">
+        <f>X28</f>
+        <v>0</v>
+      </c>
+      <c r="AI30" s="12">
+        <f>W28</f>
+        <v>1</v>
+      </c>
+      <c r="AJ30" s="13">
+        <f>Z28</f>
+        <v>0</v>
+      </c>
+      <c r="AL30" s="11">
+        <v>7</v>
+      </c>
+      <c r="AM30" s="12">
+        <v>8</v>
+      </c>
+      <c r="AN30" s="12">
+        <v>9</v>
+      </c>
+      <c r="AO30" s="13">
+        <f>AO29</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="AG31" s="11">
+        <f>V28</f>
+        <v>0</v>
+      </c>
+      <c r="AH31" s="12">
+        <f>U28</f>
+        <v>0</v>
+      </c>
+      <c r="AI31" s="12">
+        <f>T28</f>
+        <v>1</v>
+      </c>
+      <c r="AJ31" s="13">
+        <f>S28</f>
+        <v>0</v>
+      </c>
+      <c r="AL31" s="11">
+        <v>10</v>
+      </c>
+      <c r="AM31" s="12">
+        <v>11</v>
+      </c>
+      <c r="AN31" s="12">
+        <v>12</v>
+      </c>
+      <c r="AO31" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="AG32" s="11">
+        <f>R28</f>
+        <v>0</v>
+      </c>
+      <c r="AH32" s="22">
+        <f>Q28</f>
+        <v>0</v>
+      </c>
+      <c r="AI32" s="12">
+        <f>AA28</f>
+        <v>1</v>
+      </c>
+      <c r="AJ32" s="23">
+        <f>P28</f>
+        <v>0</v>
+      </c>
+      <c r="AL32" s="11">
+        <v>14</v>
+      </c>
+      <c r="AM32" s="22">
+        <v>15</v>
+      </c>
+      <c r="AN32" s="12">
+        <f>AN29</f>
+        <v>5</v>
+      </c>
+      <c r="AO32" s="23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="AG33" s="11">
+        <f>O28</f>
+        <v>0</v>
+      </c>
+      <c r="AH33" s="19"/>
+      <c r="AI33" s="12">
+        <f>N28</f>
+        <v>1</v>
+      </c>
+      <c r="AJ33" s="23">
+        <f>P28</f>
+        <v>0</v>
+      </c>
+      <c r="AL33" s="11">
+        <v>17</v>
+      </c>
+      <c r="AM33" s="19"/>
+      <c r="AN33" s="12">
+        <v>18</v>
+      </c>
+      <c r="AO33" s="23">
+        <f>AO32</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="AG34" s="14">
+        <f>M28</f>
+        <v>0</v>
+      </c>
+      <c r="AH34" s="20">
+        <f>AB28</f>
+        <v>0</v>
+      </c>
+      <c r="AI34" s="15">
+        <f>L28</f>
+        <v>1</v>
+      </c>
+      <c r="AJ34" s="16">
+        <f>K28</f>
+        <v>0</v>
+      </c>
+      <c r="AL34" s="14">
+        <v>19</v>
+      </c>
+      <c r="AM34" s="20">
+        <f>AL29</f>
+        <v>4</v>
+      </c>
+      <c r="AN34" s="15">
+        <v>20</v>
+      </c>
+      <c r="AO34" s="16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="1">
+        <f t="shared" ref="K35:AD35" si="22">L35+1</f>
+        <v>21</v>
+      </c>
+      <c r="L35" s="1">
+        <f>M35+1</f>
+        <v>20</v>
+      </c>
+      <c r="M35" s="1">
+        <f t="shared" ref="M35:AF35" si="23">N35+1</f>
+        <v>19</v>
+      </c>
+      <c r="N35" s="1">
+        <f t="shared" si="23"/>
+        <v>18</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" si="23"/>
+        <v>17</v>
+      </c>
+      <c r="P35" s="1">
+        <f t="shared" si="23"/>
+        <v>16</v>
+      </c>
+      <c r="Q35" s="1">
+        <f t="shared" si="23"/>
+        <v>15</v>
+      </c>
+      <c r="R35" s="1">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="S35" s="1">
+        <f t="shared" si="23"/>
+        <v>13</v>
+      </c>
+      <c r="T35" s="1">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="U35" s="1">
+        <f t="shared" si="23"/>
+        <v>11</v>
+      </c>
+      <c r="V35" s="1">
+        <f t="shared" si="23"/>
+        <v>10</v>
+      </c>
+      <c r="W35" s="1">
+        <f t="shared" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="X35" s="1">
+        <f t="shared" si="23"/>
+        <v>8</v>
+      </c>
+      <c r="Y35" s="1">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="Z35" s="1">
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
+      <c r="AA35" s="1">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="AB35" s="1">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="AC35" s="1">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="AD35" s="1">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="AE35" s="1">
+        <f>AF35+1</f>
+        <v>1</v>
+      </c>
+      <c r="AF35" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH35" s="18"/>
+      <c r="AI35" s="18"/>
+      <c r="AJ35" s="18"/>
+      <c r="AL35" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM35" s="18"/>
+      <c r="AN35" s="18"/>
+      <c r="AO35" s="18"/>
+    </row>
+    <row r="36" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="24">
+        <v>0</v>
+      </c>
+      <c r="B36" s="24">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>1</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
+        <v>1</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0</v>
+      </c>
+      <c r="U36" s="1">
+        <v>0</v>
+      </c>
+      <c r="V36" s="1">
+        <v>0</v>
+      </c>
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="17"/>
+      <c r="AH36" s="17"/>
+      <c r="AI36" s="17"/>
+      <c r="AJ36" s="17"/>
+      <c r="AL36" s="17"/>
+      <c r="AM36" s="17"/>
+      <c r="AN36" s="17"/>
+      <c r="AO36" s="17"/>
+    </row>
+    <row r="37" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="B37" s="24">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <f>E36</f>
+        <v>1</v>
+      </c>
+      <c r="L37" s="1">
+        <f>F36</f>
+        <v>1</v>
+      </c>
+      <c r="M37" s="1">
+        <f>G36</f>
+        <v>1</v>
+      </c>
+      <c r="N37" s="1">
+        <f>J36</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <f>L36</f>
+        <v>1</v>
+      </c>
+      <c r="P37" s="1">
+        <f>M36</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <f>O36</f>
+        <v>1</v>
+      </c>
+      <c r="R37" s="1">
+        <f>P36</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="1">
+        <f>Q36</f>
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <f>R36</f>
+        <v>1</v>
+      </c>
+      <c r="U37" s="1">
+        <f>S36</f>
+        <v>0</v>
+      </c>
+      <c r="V37" s="1">
+        <f>T36</f>
+        <v>0</v>
+      </c>
+      <c r="W37" s="1">
+        <f>V36</f>
+        <v>0</v>
+      </c>
+      <c r="X37" s="1">
+        <f>W36</f>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="1">
+        <f>X36</f>
+        <v>0</v>
+      </c>
+      <c r="Z37" s="1">
+        <f>Y36</f>
+        <v>1</v>
+      </c>
+      <c r="AA37" s="1">
+        <f>Z36</f>
+        <v>0</v>
+      </c>
+      <c r="AB37" s="1">
+        <f>AB36</f>
+        <v>1</v>
+      </c>
+      <c r="AC37" s="1">
+        <f t="shared" ref="AC37" si="24">AC36</f>
+        <v>0</v>
+      </c>
+      <c r="AD37" s="1">
+        <f t="shared" ref="AD37" si="25">AD36</f>
+        <v>1</v>
+      </c>
+      <c r="AE37" s="1">
+        <f t="shared" ref="AE37" si="26">AE36</f>
+        <v>1</v>
+      </c>
+      <c r="AF37" s="1">
+        <f>AF36</f>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="8">
+        <f>AF37</f>
+        <v>0</v>
+      </c>
+      <c r="AH37" s="9">
+        <f>AE37</f>
+        <v>1</v>
+      </c>
+      <c r="AI37" s="9">
+        <f>AD37</f>
+        <v>1</v>
+      </c>
+      <c r="AJ37" s="10">
+        <f>AC37</f>
+        <v>0</v>
+      </c>
+      <c r="AL37" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN37" s="9">
+        <v>2</v>
+      </c>
+      <c r="AO37" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="30"/>
+      <c r="C38" s="25" t="str">
+        <f>CONCATENATE("uint32_t ",A38," = (B",A37,B37,C37,D37,E37,F37,G37,H37," &lt;&lt; 24) + (B",I37,J37,K37,L37,M37,N37,O37,P37," &lt;&lt; 16) + (B",Q37,R37,S37,T37,U37,V37,W37,X37," &lt;&lt; 8) + B",Y37,Z37,AA37,AB37,AC37,AD37,AE37,AF37,";")</f>
+        <v>uint32_t two = (B00000000 &lt;&lt; 24) + (B00111010 &lt;&lt; 16) + (B10010000 &lt;&lt; 8) + B01010110;</v>
+      </c>
+      <c r="D38" s="21"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="AG38" s="11">
+        <f>AB37</f>
+        <v>1</v>
+      </c>
+      <c r="AH38" s="19"/>
+      <c r="AI38" s="12">
+        <f>AA37</f>
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="13">
+        <f>Z37</f>
+        <v>1</v>
+      </c>
+      <c r="AL38" s="11">
+        <v>4</v>
+      </c>
+      <c r="AM38" s="19"/>
+      <c r="AN38" s="12">
+        <v>5</v>
+      </c>
+      <c r="AO38" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="AG39" s="11">
+        <f>Y37</f>
+        <v>0</v>
+      </c>
+      <c r="AH39" s="12">
+        <f>X37</f>
+        <v>0</v>
+      </c>
+      <c r="AI39" s="12">
+        <f>W37</f>
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="13">
+        <f>Z37</f>
+        <v>1</v>
+      </c>
+      <c r="AL39" s="11">
+        <v>7</v>
+      </c>
+      <c r="AM39" s="12">
+        <v>8</v>
+      </c>
+      <c r="AN39" s="12">
+        <v>9</v>
+      </c>
+      <c r="AO39" s="13">
+        <f>AO38</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="21"/>
       <c r="E40" s="26"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
       <c r="P40" s="26"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="22"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="22"/>
-    </row>
-    <row r="42" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="27"/>
-      <c r="S42" s="27"/>
-      <c r="T42" s="27"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-      <c r="X42" s="1"/>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
-      <c r="AA42" s="1"/>
-      <c r="AB42" s="1"/>
-      <c r="AC42" s="1"/>
-      <c r="AD42" s="1"/>
-      <c r="AE42" s="1"/>
-      <c r="AF42" s="1"/>
-    </row>
-    <row r="43" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>0</v>
-      </c>
-      <c r="B43" s="1">
-        <v>0</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0</v>
-      </c>
-      <c r="D43" s="1">
-        <v>0</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0</v>
-      </c>
-      <c r="F43" s="1">
-        <v>1</v>
-      </c>
-      <c r="G43" s="1">
-        <v>1</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0</v>
-      </c>
-      <c r="I43" s="1">
-        <v>1</v>
-      </c>
-      <c r="J43" s="1">
-        <v>0</v>
-      </c>
-      <c r="K43" s="1">
-        <v>0</v>
-      </c>
-      <c r="L43" s="1">
-        <v>1</v>
-      </c>
-      <c r="M43" s="1">
-        <v>0</v>
-      </c>
-      <c r="N43" s="1">
-        <v>0</v>
-      </c>
-      <c r="O43" s="1">
-        <v>0</v>
-      </c>
-      <c r="P43" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="1">
-        <v>0</v>
-      </c>
-      <c r="R43" s="1">
-        <v>0</v>
-      </c>
-      <c r="S43" s="1">
-        <v>0</v>
-      </c>
-      <c r="T43" s="1">
-        <v>1</v>
-      </c>
-      <c r="U43" s="1">
-        <v>1</v>
-      </c>
-      <c r="V43" s="1">
-        <v>1</v>
-      </c>
-      <c r="W43" s="1">
-        <v>1</v>
-      </c>
-      <c r="X43" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD43" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE43" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="B44" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="C44" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D44" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="AG40" s="11">
+        <f>V37</f>
+        <v>0</v>
+      </c>
+      <c r="AH40" s="12">
+        <f>U37</f>
+        <v>0</v>
+      </c>
+      <c r="AI40" s="12">
+        <f>T37</f>
+        <v>1</v>
+      </c>
+      <c r="AJ40" s="13">
+        <f>S37</f>
+        <v>0</v>
+      </c>
+      <c r="AL40" s="11">
+        <v>10</v>
+      </c>
+      <c r="AM40" s="12">
+        <v>11</v>
+      </c>
+      <c r="AN40" s="12">
+        <v>12</v>
+      </c>
+      <c r="AO40" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+      <c r="AG41" s="11">
+        <f>R37</f>
+        <v>0</v>
+      </c>
+      <c r="AH41" s="22">
+        <f>Q37</f>
+        <v>1</v>
+      </c>
+      <c r="AI41" s="12">
+        <f>AA37</f>
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="23">
+        <f>P37</f>
+        <v>0</v>
+      </c>
+      <c r="AL41" s="11">
+        <v>14</v>
+      </c>
+      <c r="AM41" s="22">
+        <v>15</v>
+      </c>
+      <c r="AN41" s="12">
+        <f>AN38</f>
+        <v>5</v>
+      </c>
+      <c r="AO41" s="23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
+      <c r="AG42" s="11">
+        <f>O37</f>
+        <v>1</v>
+      </c>
+      <c r="AH42" s="19"/>
+      <c r="AI42" s="12">
+        <f>N37</f>
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="23">
+        <f>P37</f>
+        <v>0</v>
+      </c>
+      <c r="AL42" s="11">
+        <v>17</v>
+      </c>
+      <c r="AM42" s="19"/>
+      <c r="AN42" s="12">
+        <v>18</v>
+      </c>
+      <c r="AO42" s="23">
+        <f>AO41</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="32"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="AG43" s="14">
+        <f>M37</f>
+        <v>1</v>
+      </c>
+      <c r="AH43" s="20">
+        <f>AB37</f>
+        <v>1</v>
+      </c>
+      <c r="AI43" s="15">
+        <f>L37</f>
+        <v>1</v>
+      </c>
+      <c r="AJ43" s="16">
+        <f>K37</f>
+        <v>1</v>
+      </c>
+      <c r="AL43" s="14">
+        <v>19</v>
+      </c>
+      <c r="AM43" s="20">
+        <f>AL38</f>
+        <v>4</v>
+      </c>
+      <c r="AN43" s="15">
+        <v>20</v>
+      </c>
+      <c r="AO43" s="16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
       <c r="E44" s="1">
-        <f>0</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F44" s="1">
-        <f>0</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G44" s="1">
-        <f>0</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H44" s="1">
-        <f>0</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I44" s="1">
-        <f>0</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J44" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="K44" s="1">
-        <f>E43</f>
-        <v>0</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="K44" s="1"/>
       <c r="L44" s="1">
-        <f>F43</f>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="M44" s="1">
-        <f>G43</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="N44" s="1">
-        <f>J43</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O44" s="1">
-        <f>L43</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="P44" s="1">
-        <f>M43</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q44" s="1">
-        <f>O43</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R44" s="1">
-        <f>P43</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="S44" s="1">
-        <f>Q43</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T44" s="1">
-        <f>R43</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U44" s="1">
-        <f>S43</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V44" s="1">
-        <f>T43</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="W44" s="1">
-        <f>V43</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="X44" s="1">
-        <f>W43</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Y44" s="1">
-        <f>X43</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z44" s="1">
-        <f>Y43</f>
-        <v>1</v>
-      </c>
-      <c r="AA44" s="1">
-        <f>Z43</f>
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="AA44" s="1"/>
       <c r="AB44" s="1">
-        <f t="shared" ref="AB44" si="31">AB43</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC44" s="1">
-        <f t="shared" ref="AC44" si="32">AC43</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD44" s="1">
-        <f t="shared" ref="AD44" si="33">AD43</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE44" s="1">
-        <f t="shared" ref="AE44" si="34">AE43</f>
         <v>1</v>
       </c>
       <c r="AF44" s="1">
-        <f>AF43</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="25" t="str">
-        <f>CONCATENATE("uint32_t ",A45," = (B",A44,B44,C44,D44,E44,F44,G44,H44," &lt;&lt; 24) + (B",I44,J44,K44,L44,M44,N44,O44,P44," &lt;&lt; 24) + (B",Q44,R44,S44,T44,U44,V44,W44,X44," &lt;&lt; 24) + B",Y44,Z44,AA44,AB44,AC44,AD44,AE44,AF44,";")</f>
-        <v>uint32_t five = (B00000000 &lt;&lt; 24) + (B00011010 &lt;&lt; 24) + (B01000111 &lt;&lt; 24) + B01001111;</v>
-      </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="26"/>
-      <c r="Q45" s="22"/>
-      <c r="R45" s="22"/>
-      <c r="S45" s="22"/>
-      <c r="T45" s="22"/>
-    </row>
-    <row r="47" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="27"/>
-      <c r="S47" s="27"/>
-      <c r="T47" s="27"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-      <c r="X47" s="1"/>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="1"/>
-      <c r="AA47" s="1"/>
-      <c r="AB47" s="1"/>
-      <c r="AC47" s="1"/>
-      <c r="AD47" s="1"/>
-      <c r="AE47" s="1"/>
-      <c r="AF47" s="1"/>
-    </row>
-    <row r="48" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>0</v>
-      </c>
-      <c r="B48" s="1">
-        <v>0</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0</v>
-      </c>
-      <c r="F48" s="1">
-        <v>1</v>
-      </c>
-      <c r="G48" s="1">
-        <v>1</v>
-      </c>
-      <c r="H48" s="1">
-        <v>0</v>
-      </c>
-      <c r="I48" s="1">
-        <v>1</v>
-      </c>
-      <c r="J48" s="1">
-        <v>0</v>
-      </c>
-      <c r="K48" s="1">
-        <v>0</v>
-      </c>
-      <c r="L48" s="1">
-        <v>1</v>
-      </c>
-      <c r="M48" s="1">
-        <v>1</v>
-      </c>
-      <c r="N48" s="1">
-        <v>0</v>
-      </c>
-      <c r="O48" s="1">
-        <v>0</v>
-      </c>
-      <c r="P48" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="1">
-        <v>1</v>
-      </c>
-      <c r="R48" s="1">
-        <v>1</v>
-      </c>
-      <c r="S48" s="1">
-        <v>1</v>
-      </c>
-      <c r="T48" s="1">
-        <v>0</v>
-      </c>
-      <c r="U48" s="1">
-        <v>1</v>
-      </c>
-      <c r="V48" s="1">
-        <v>0</v>
-      </c>
-      <c r="W48" s="1">
-        <v>0</v>
-      </c>
-      <c r="X48" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE48" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF48" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="B49" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="C49" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="F49" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="G49" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H49" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I49" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="K49" s="1">
-        <f>E48</f>
-        <v>0</v>
-      </c>
-      <c r="L49" s="1">
-        <f>F48</f>
-        <v>1</v>
-      </c>
-      <c r="M49" s="1">
-        <f>G48</f>
-        <v>1</v>
-      </c>
-      <c r="N49" s="1">
-        <f>J48</f>
-        <v>0</v>
-      </c>
-      <c r="O49" s="1">
-        <f>L48</f>
-        <v>1</v>
-      </c>
-      <c r="P49" s="1">
-        <f>M48</f>
-        <v>1</v>
-      </c>
-      <c r="Q49" s="1">
-        <f>O48</f>
-        <v>0</v>
-      </c>
-      <c r="R49" s="1">
-        <f>P48</f>
-        <v>1</v>
-      </c>
-      <c r="S49" s="1">
-        <f>Q48</f>
-        <v>1</v>
-      </c>
-      <c r="T49" s="1">
-        <f>R48</f>
-        <v>1</v>
-      </c>
-      <c r="U49" s="1">
-        <f>S48</f>
-        <v>1</v>
-      </c>
-      <c r="V49" s="1">
-        <f>T48</f>
-        <v>0</v>
-      </c>
-      <c r="W49" s="1">
-        <f>V48</f>
-        <v>0</v>
-      </c>
-      <c r="X49" s="1">
-        <f>W48</f>
-        <v>0</v>
-      </c>
-      <c r="Y49" s="1">
-        <f>X48</f>
-        <v>0</v>
-      </c>
-      <c r="Z49" s="1">
-        <f>Y48</f>
-        <v>1</v>
-      </c>
-      <c r="AA49" s="1">
-        <f>Z48</f>
-        <v>0</v>
-      </c>
-      <c r="AB49" s="1">
-        <f t="shared" ref="AB49" si="35">AB48</f>
-        <v>0</v>
-      </c>
-      <c r="AC49" s="1">
-        <f t="shared" ref="AC49" si="36">AC48</f>
-        <v>0</v>
-      </c>
-      <c r="AD49" s="1">
-        <f t="shared" ref="AD49" si="37">AD48</f>
-        <v>1</v>
-      </c>
-      <c r="AE49" s="1">
-        <f t="shared" ref="AE49" si="38">AE48</f>
-        <v>1</v>
-      </c>
-      <c r="AF49" s="1">
-        <f>AF48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="B50" s="28"/>
-      <c r="C50" s="25" t="str">
-        <f>CONCATENATE("uint32_t ",A50," = (B",A49,B49,C49,D49,E49,F49,G49,H49," &lt;&lt; 24) + (B",I49,J49,K49,L49,M49,N49,O49,P49," &lt;&lt; 24) + (B",Q49,R49,S49,T49,U49,V49,W49,X49," &lt;&lt; 24) + B",Y49,Z49,AA49,AB49,AC49,AD49,AE49,AF49,";")</f>
-        <v>uint32_t six = (B00000000 &lt;&lt; 24) + (B00011011 &lt;&lt; 24) + (B01111000 &lt;&lt; 24) + B01000110;</v>
-      </c>
-      <c r="D50" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="AG44" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH44" s="18"/>
+      <c r="AI44" s="18"/>
+      <c r="AJ44" s="18"/>
+      <c r="AL44" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM44" s="18"/>
+      <c r="AN44" s="18"/>
+      <c r="AO44" s="18"/>
+    </row>
+    <row r="45" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="24">
+        <v>0</v>
+      </c>
+      <c r="B45" s="24">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1</v>
+      </c>
+      <c r="L45" s="1">
+        <v>1</v>
+      </c>
+      <c r="M45" s="1">
+        <v>1</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
+        <v>0</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>0</v>
+      </c>
+      <c r="R45" s="1">
+        <v>1</v>
+      </c>
+      <c r="S45" s="1">
+        <v>0</v>
+      </c>
+      <c r="T45" s="1">
+        <v>0</v>
+      </c>
+      <c r="U45" s="1">
+        <v>0</v>
+      </c>
+      <c r="V45" s="1">
+        <v>0</v>
+      </c>
+      <c r="W45" s="1">
+        <v>0</v>
+      </c>
+      <c r="X45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="17"/>
+      <c r="AH45" s="17"/>
+      <c r="AI45" s="17"/>
+      <c r="AJ45" s="17"/>
+      <c r="AL45" s="17"/>
+      <c r="AM45" s="17"/>
+      <c r="AN45" s="17"/>
+      <c r="AO45" s="17"/>
+    </row>
+    <row r="46" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="24">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="B46" s="24">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <f>E45</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <f>F45</f>
+        <v>1</v>
+      </c>
+      <c r="M46" s="1">
+        <f>G45</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="1">
+        <f>J45</f>
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
+        <f>L45</f>
+        <v>1</v>
+      </c>
+      <c r="P46" s="1">
+        <f>M45</f>
+        <v>1</v>
+      </c>
+      <c r="Q46" s="1">
+        <f>O45</f>
+        <v>0</v>
+      </c>
+      <c r="R46" s="1">
+        <f>P45</f>
+        <v>0</v>
+      </c>
+      <c r="S46" s="1">
+        <f>Q45</f>
+        <v>0</v>
+      </c>
+      <c r="T46" s="1">
+        <f>R45</f>
+        <v>1</v>
+      </c>
+      <c r="U46" s="1">
+        <f>S45</f>
+        <v>0</v>
+      </c>
+      <c r="V46" s="1">
+        <f>T45</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="1">
+        <f>V45</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="1">
+        <f>W45</f>
+        <v>0</v>
+      </c>
+      <c r="Y46" s="1">
+        <f>X45</f>
+        <v>0</v>
+      </c>
+      <c r="Z46" s="1">
+        <f>Y45</f>
+        <v>1</v>
+      </c>
+      <c r="AA46" s="1">
+        <f>Z45</f>
+        <v>0</v>
+      </c>
+      <c r="AB46" s="1">
+        <f>AB45</f>
+        <v>1</v>
+      </c>
+      <c r="AC46" s="1">
+        <f t="shared" ref="AC46" si="27">AC45</f>
+        <v>0</v>
+      </c>
+      <c r="AD46" s="1">
+        <f t="shared" ref="AD46" si="28">AD45</f>
+        <v>1</v>
+      </c>
+      <c r="AE46" s="1">
+        <f>AE45</f>
+        <v>1</v>
+      </c>
+      <c r="AF46" s="1">
+        <f>AF45</f>
+        <v>0</v>
+      </c>
+      <c r="AG46" s="8">
+        <f>AF46</f>
+        <v>0</v>
+      </c>
+      <c r="AH46" s="9">
+        <f>AE46</f>
+        <v>1</v>
+      </c>
+      <c r="AI46" s="9">
+        <f>AD46</f>
+        <v>1</v>
+      </c>
+      <c r="AJ46" s="10">
+        <f>AC46</f>
+        <v>0</v>
+      </c>
+      <c r="AL46" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM46" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN46" s="9">
+        <v>2</v>
+      </c>
+      <c r="AO46" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="30"/>
+      <c r="C47" s="25" t="str">
+        <f>CONCATENATE("uint32_t ",A47," = (B",A46,B46,C46,D46,E46,F46,G46,H46," &lt;&lt; 24) + (B",I46,J46,K46,L46,M46,N46,O46,P46," &lt;&lt; 16) + (B",Q46,R46,S46,T46,U46,V46,W46,X46," &lt;&lt; 8) + B",Y46,Z46,AA46,AB46,AC46,AD46,AE46,AF46,";")</f>
+        <v>uint32_t three = (B00000000 &lt;&lt; 24) + (B00010011 &lt;&lt; 16) + (B00010000 &lt;&lt; 8) + B01010110;</v>
+      </c>
+      <c r="D47" s="21"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="21"/>
+      <c r="AG47" s="11">
+        <f>AB46</f>
+        <v>1</v>
+      </c>
+      <c r="AH47" s="19"/>
+      <c r="AI47" s="12">
+        <f>AA46</f>
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="13">
+        <f>Z46</f>
+        <v>1</v>
+      </c>
+      <c r="AL47" s="11">
+        <v>4</v>
+      </c>
+      <c r="AM47" s="19"/>
+      <c r="AN47" s="12">
+        <v>5</v>
+      </c>
+      <c r="AO47" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="31"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="21"/>
+      <c r="AG48" s="11">
+        <f>Y46</f>
+        <v>0</v>
+      </c>
+      <c r="AH48" s="12">
+        <f>X46</f>
+        <v>0</v>
+      </c>
+      <c r="AI48" s="12">
+        <f>W46</f>
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="13">
+        <f>Z46</f>
+        <v>1</v>
+      </c>
+      <c r="AL48" s="11">
+        <v>7</v>
+      </c>
+      <c r="AM48" s="12">
+        <v>8</v>
+      </c>
+      <c r="AN48" s="12">
+        <v>9</v>
+      </c>
+      <c r="AO48" s="13">
+        <f>AO47</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="31"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="21"/>
+      <c r="AG49" s="11">
+        <f>V46</f>
+        <v>0</v>
+      </c>
+      <c r="AH49" s="12">
+        <f>U46</f>
+        <v>0</v>
+      </c>
+      <c r="AI49" s="12">
+        <f>T46</f>
+        <v>1</v>
+      </c>
+      <c r="AJ49" s="13">
+        <f>S46</f>
+        <v>0</v>
+      </c>
+      <c r="AL49" s="11">
+        <v>10</v>
+      </c>
+      <c r="AM49" s="12">
+        <v>11</v>
+      </c>
+      <c r="AN49" s="12">
+        <v>12</v>
+      </c>
+      <c r="AO49" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="31"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="21"/>
       <c r="E50" s="26"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
       <c r="J50" s="26"/>
       <c r="K50" s="26"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
       <c r="P50" s="26"/>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="22"/>
-      <c r="S50" s="22"/>
-      <c r="T50" s="22"/>
-    </row>
-    <row r="52" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="27"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="27"/>
-      <c r="R52" s="27"/>
-      <c r="S52" s="27"/>
-      <c r="T52" s="27"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
-      <c r="W52" s="1"/>
-      <c r="X52" s="1"/>
-      <c r="Y52" s="1"/>
-      <c r="Z52" s="1"/>
-      <c r="AA52" s="1"/>
-      <c r="AB52" s="1"/>
-      <c r="AC52" s="1"/>
-      <c r="AD52" s="1"/>
-      <c r="AE52" s="1"/>
-      <c r="AF52" s="1"/>
-    </row>
-    <row r="53" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>0</v>
-      </c>
-      <c r="B53" s="1">
-        <v>0</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0</v>
-      </c>
-      <c r="D53" s="1">
-        <v>0</v>
-      </c>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="21"/>
+      <c r="AG50" s="11">
+        <f>R46</f>
+        <v>0</v>
+      </c>
+      <c r="AH50" s="22">
+        <f>Q46</f>
+        <v>0</v>
+      </c>
+      <c r="AI50" s="12">
+        <f>AA46</f>
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="23">
+        <f>P46</f>
+        <v>1</v>
+      </c>
+      <c r="AL50" s="11">
+        <v>14</v>
+      </c>
+      <c r="AM50" s="22">
+        <v>15</v>
+      </c>
+      <c r="AN50" s="12">
+        <f>AN47</f>
+        <v>5</v>
+      </c>
+      <c r="AO50" s="23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="21"/>
+      <c r="T51" s="21"/>
+      <c r="AG51" s="11">
+        <f>O46</f>
+        <v>1</v>
+      </c>
+      <c r="AH51" s="19"/>
+      <c r="AI51" s="12">
+        <f>N46</f>
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="23">
+        <f>P46</f>
+        <v>1</v>
+      </c>
+      <c r="AL51" s="11">
+        <v>17</v>
+      </c>
+      <c r="AM51" s="19"/>
+      <c r="AN51" s="12">
+        <v>18</v>
+      </c>
+      <c r="AO51" s="23">
+        <f>AO50</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="32"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="21"/>
+      <c r="AG52" s="14">
+        <f>M46</f>
+        <v>0</v>
+      </c>
+      <c r="AH52" s="20">
+        <f>AB46</f>
+        <v>1</v>
+      </c>
+      <c r="AI52" s="15">
+        <f>L46</f>
+        <v>1</v>
+      </c>
+      <c r="AJ52" s="16">
+        <f>K46</f>
+        <v>0</v>
+      </c>
+      <c r="AL52" s="14">
+        <v>19</v>
+      </c>
+      <c r="AM52" s="20">
+        <f>AL47</f>
+        <v>4</v>
+      </c>
+      <c r="AN52" s="15">
+        <v>20</v>
+      </c>
+      <c r="AO52" s="16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
       <c r="E53" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F53" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G53" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H53" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I53" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J53" s="1">
-        <v>0</v>
-      </c>
-      <c r="K53" s="1">
-        <v>0</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="K53" s="1"/>
       <c r="L53" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M53" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N53" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O53" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P53" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q53" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R53" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S53" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="T53" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U53" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V53" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W53" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X53" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Y53" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z53" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA53" s="1">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="AA53" s="1"/>
       <c r="AB53" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC53" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE53" s="1">
         <v>1</v>
       </c>
       <c r="AF53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="B54" s="1">
-        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AG53" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH53" s="18"/>
+      <c r="AI53" s="18"/>
+      <c r="AJ53" s="18"/>
+      <c r="AL53" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM53" s="18"/>
+      <c r="AN53" s="18"/>
+      <c r="AO53" s="18"/>
+    </row>
+    <row r="54" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="24">
+        <v>0</v>
+      </c>
+      <c r="B54" s="24">
         <v>0</v>
       </c>
       <c r="C54" s="1">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="D54" s="1">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <f>0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="1">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="G54" s="1">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="H54" s="1">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="I54" s="1">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="J54" s="1">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="K54" s="1">
-        <f>E53</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" s="1">
-        <f>F53</f>
         <v>0</v>
       </c>
       <c r="M54" s="1">
-        <f>G53</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54" s="1">
-        <f>J53</f>
         <v>0</v>
       </c>
       <c r="O54" s="1">
-        <f>L53</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" s="1">
-        <f>M53</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54" s="1">
-        <f>O53</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" s="1">
-        <f>P53</f>
         <v>0</v>
       </c>
       <c r="S54" s="1">
-        <f>Q53</f>
         <v>0</v>
       </c>
       <c r="T54" s="1">
-        <f>R53</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U54" s="1">
-        <f>S53</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V54" s="1">
-        <f>T53</f>
         <v>0</v>
       </c>
       <c r="W54" s="1">
-        <f>V53</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X54" s="1">
-        <f>W53</f>
         <v>0</v>
       </c>
       <c r="Y54" s="1">
-        <f>X53</f>
         <v>1</v>
       </c>
       <c r="Z54" s="1">
-        <f>Y53</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA54" s="1">
-        <f>Z53</f>
         <v>0</v>
       </c>
       <c r="AB54" s="1">
-        <f t="shared" ref="AB54" si="39">AB53</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC54" s="1">
-        <f t="shared" ref="AC54" si="40">AC53</f>
         <v>1</v>
       </c>
       <c r="AD54" s="1">
-        <f t="shared" ref="AD54" si="41">AD53</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE54" s="1">
-        <f t="shared" ref="AE54" si="42">AE53</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF54" s="1">
-        <f>AF53</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B55" s="28"/>
-      <c r="C55" s="25" t="str">
-        <f>CONCATENATE("uint32_t ",A55," = (B",A54,B54,C54,D54,E54,F54,G54,H54," &lt;&lt; 24) + (B",I54,J54,K54,L54,M54,N54,O54,P54," &lt;&lt; 24) + (B",Q54,R54,S54,T54,U54,V54,W54,X54," &lt;&lt; 24) + B",Y54,Z54,AA54,AB54,AC54,AD54,AE54,AF54,";")</f>
-        <v>uint32_t seven = (B00000000 &lt;&lt; 24) + (B00100000 &lt;&lt; 24) + (B00001000 &lt;&lt; 24) + B10011111;</v>
-      </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="22"/>
-      <c r="P55" s="26"/>
-      <c r="Q55" s="22"/>
-      <c r="R55" s="22"/>
-      <c r="S55" s="22"/>
-      <c r="T55" s="22"/>
-    </row>
-    <row r="57" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="27"/>
-      <c r="Q57" s="27"/>
-      <c r="R57" s="27"/>
-      <c r="S57" s="27"/>
-      <c r="T57" s="27"/>
-      <c r="U57" s="1"/>
-      <c r="V57" s="1"/>
-      <c r="W57" s="1"/>
-      <c r="X57" s="1"/>
-      <c r="Y57" s="1"/>
-      <c r="Z57" s="1"/>
-      <c r="AA57" s="1"/>
-      <c r="AB57" s="1"/>
-      <c r="AC57" s="1"/>
-      <c r="AD57" s="1"/>
-      <c r="AE57" s="1"/>
-      <c r="AF57" s="1"/>
-    </row>
-    <row r="58" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>0</v>
-      </c>
-      <c r="B58" s="1">
-        <v>0</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1">
-        <v>0</v>
-      </c>
-      <c r="E58" s="1">
-        <v>0</v>
-      </c>
-      <c r="F58" s="1">
-        <v>1</v>
-      </c>
-      <c r="G58" s="1">
-        <v>1</v>
-      </c>
-      <c r="H58" s="1">
-        <v>0</v>
-      </c>
-      <c r="I58" s="1">
-        <v>1</v>
-      </c>
-      <c r="J58" s="1">
-        <v>0</v>
-      </c>
-      <c r="K58" s="1">
-        <v>0</v>
-      </c>
-      <c r="L58" s="1">
-        <v>1</v>
-      </c>
-      <c r="M58" s="1">
-        <v>1</v>
-      </c>
-      <c r="N58" s="1">
-        <v>0</v>
-      </c>
-      <c r="O58" s="1">
-        <v>0</v>
-      </c>
-      <c r="P58" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="1">
-        <v>0</v>
-      </c>
-      <c r="R58" s="1">
-        <v>1</v>
-      </c>
-      <c r="S58" s="1">
-        <v>1</v>
-      </c>
-      <c r="T58" s="1">
-        <v>0</v>
-      </c>
-      <c r="U58" s="1">
-        <v>1</v>
-      </c>
-      <c r="V58" s="1">
-        <v>0</v>
-      </c>
-      <c r="W58" s="1">
-        <v>0</v>
-      </c>
-      <c r="X58" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y58" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB58" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD58" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE58" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF58" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="B59" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="C59" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D59" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="E59" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="F59" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H59" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I59" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="J59" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="K59" s="1">
-        <f>E58</f>
-        <v>0</v>
-      </c>
-      <c r="L59" s="1">
-        <f>F58</f>
-        <v>1</v>
-      </c>
-      <c r="M59" s="1">
-        <f>G58</f>
-        <v>1</v>
-      </c>
-      <c r="N59" s="1">
-        <f>J58</f>
-        <v>0</v>
-      </c>
-      <c r="O59" s="1">
-        <f>L58</f>
-        <v>1</v>
-      </c>
-      <c r="P59" s="1">
-        <f>M58</f>
-        <v>1</v>
-      </c>
-      <c r="Q59" s="1">
-        <f>O58</f>
-        <v>0</v>
-      </c>
-      <c r="R59" s="1">
-        <f>P58</f>
-        <v>1</v>
-      </c>
-      <c r="S59" s="1">
-        <f>Q58</f>
-        <v>0</v>
-      </c>
-      <c r="T59" s="1">
-        <f>R58</f>
-        <v>1</v>
-      </c>
-      <c r="U59" s="1">
-        <f>S58</f>
-        <v>1</v>
-      </c>
-      <c r="V59" s="1">
-        <f>T58</f>
-        <v>0</v>
-      </c>
-      <c r="W59" s="1">
-        <f>V58</f>
-        <v>0</v>
-      </c>
-      <c r="X59" s="1">
-        <f>W58</f>
-        <v>0</v>
-      </c>
-      <c r="Y59" s="1">
-        <f>X58</f>
-        <v>1</v>
-      </c>
-      <c r="Z59" s="1">
-        <f>Y58</f>
-        <v>1</v>
-      </c>
-      <c r="AA59" s="1">
-        <f>Z58</f>
-        <v>0</v>
-      </c>
-      <c r="AB59" s="1">
-        <f t="shared" ref="AB59" si="43">AB58</f>
-        <v>1</v>
-      </c>
-      <c r="AC59" s="1">
-        <f t="shared" ref="AC59" si="44">AC58</f>
-        <v>0</v>
-      </c>
-      <c r="AD59" s="1">
-        <f t="shared" ref="AD59" si="45">AD58</f>
-        <v>1</v>
-      </c>
-      <c r="AE59" s="1">
-        <f t="shared" ref="AE59" si="46">AE58</f>
-        <v>1</v>
-      </c>
-      <c r="AF59" s="1">
-        <f>AF58</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="B60" s="28"/>
-      <c r="C60" s="25" t="str">
-        <f>CONCATENATE("uint32_t ",A60," = (B",A59,B59,C59,D59,E59,F59,G59,H59," &lt;&lt; 24) + (B",I59,J59,K59,L59,M59,N59,O59,P59," &lt;&lt; 24) + (B",Q59,R59,S59,T59,U59,V59,W59,X59," &lt;&lt; 24) + B",Y59,Z59,AA59,AB59,AC59,AD59,AE59,AF59,";")</f>
-        <v>uint32_t eight = (B00000000 &lt;&lt; 24) + (B00011011 &lt;&lt; 24) + (B01011000 &lt;&lt; 24) + B11010110;</v>
-      </c>
-      <c r="D60" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="AG54" s="17"/>
+      <c r="AH54" s="17"/>
+      <c r="AI54" s="17"/>
+      <c r="AJ54" s="17"/>
+      <c r="AL54" s="17"/>
+      <c r="AM54" s="17"/>
+      <c r="AN54" s="17"/>
+      <c r="AO54" s="17"/>
+    </row>
+    <row r="55" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="24">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="B55" s="24">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <f>E54</f>
+        <v>1</v>
+      </c>
+      <c r="L55" s="1">
+        <f>F54</f>
+        <v>0</v>
+      </c>
+      <c r="M55" s="1">
+        <f>G54</f>
+        <v>0</v>
+      </c>
+      <c r="N55" s="1">
+        <f>J54</f>
+        <v>0</v>
+      </c>
+      <c r="O55" s="1">
+        <f>L54</f>
+        <v>0</v>
+      </c>
+      <c r="P55" s="1">
+        <f>M54</f>
+        <v>1</v>
+      </c>
+      <c r="Q55" s="1">
+        <f>O54</f>
+        <v>1</v>
+      </c>
+      <c r="R55" s="1">
+        <f>P54</f>
+        <v>1</v>
+      </c>
+      <c r="S55" s="1">
+        <f>Q54</f>
+        <v>1</v>
+      </c>
+      <c r="T55" s="1">
+        <f>R54</f>
+        <v>0</v>
+      </c>
+      <c r="U55" s="1">
+        <f>S54</f>
+        <v>0</v>
+      </c>
+      <c r="V55" s="1">
+        <f>T54</f>
+        <v>1</v>
+      </c>
+      <c r="W55" s="1">
+        <f>V54</f>
+        <v>0</v>
+      </c>
+      <c r="X55" s="1">
+        <f>W54</f>
+        <v>1</v>
+      </c>
+      <c r="Y55" s="1">
+        <f>X54</f>
+        <v>0</v>
+      </c>
+      <c r="Z55" s="1">
+        <f>Y54</f>
+        <v>1</v>
+      </c>
+      <c r="AA55" s="1">
+        <f>Z54</f>
+        <v>1</v>
+      </c>
+      <c r="AB55" s="1">
+        <f t="shared" ref="AB55" si="29">AB54</f>
+        <v>0</v>
+      </c>
+      <c r="AC55" s="1">
+        <f t="shared" ref="AC55" si="30">AC54</f>
+        <v>1</v>
+      </c>
+      <c r="AD55" s="1">
+        <f t="shared" ref="AD55" si="31">AD54</f>
+        <v>0</v>
+      </c>
+      <c r="AE55" s="1">
+        <f t="shared" ref="AE55" si="32">AE54</f>
+        <v>0</v>
+      </c>
+      <c r="AF55" s="1">
+        <f>AF54</f>
+        <v>0</v>
+      </c>
+      <c r="AG55" s="8">
+        <f>AF55</f>
+        <v>0</v>
+      </c>
+      <c r="AH55" s="9">
+        <f>AE55</f>
+        <v>0</v>
+      </c>
+      <c r="AI55" s="9">
+        <f>AD55</f>
+        <v>0</v>
+      </c>
+      <c r="AJ55" s="10">
+        <f>AC55</f>
+        <v>1</v>
+      </c>
+      <c r="AL55" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM55" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN55" s="9">
+        <v>2</v>
+      </c>
+      <c r="AO55" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="30"/>
+      <c r="C56" s="25" t="str">
+        <f>CONCATENATE("uint32_t ",A56," = (B",A55,B55,C55,D55,E55,F55,G55,H55," &lt;&lt; 24) + (B",I55,J55,K55,L55,M55,N55,O55,P55," &lt;&lt; 16) + (B",Q55,R55,S55,T55,U55,V55,W55,X55," &lt;&lt; 8) + B",Y55,Z55,AA55,AB55,AC55,AD55,AE55,AF55,";")</f>
+        <v>uint32_t four = (B00000000 &lt;&lt; 24) + (B00100001 &lt;&lt; 16) + (B11100101 &lt;&lt; 8) + B01101000;</v>
+      </c>
+      <c r="D56" s="21"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="26"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="21"/>
+      <c r="AG56" s="11">
+        <f>AB55</f>
+        <v>0</v>
+      </c>
+      <c r="AH56" s="19"/>
+      <c r="AI56" s="12">
+        <f>AA55</f>
+        <v>1</v>
+      </c>
+      <c r="AJ56" s="13">
+        <f>Z55</f>
+        <v>1</v>
+      </c>
+      <c r="AL56" s="11">
+        <v>4</v>
+      </c>
+      <c r="AM56" s="19"/>
+      <c r="AN56" s="12">
+        <v>5</v>
+      </c>
+      <c r="AO56" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="31"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="26"/>
+      <c r="Q57" s="21"/>
+      <c r="R57" s="21"/>
+      <c r="S57" s="21"/>
+      <c r="T57" s="21"/>
+      <c r="AG57" s="11">
+        <f>Y55</f>
+        <v>0</v>
+      </c>
+      <c r="AH57" s="12">
+        <f>X55</f>
+        <v>1</v>
+      </c>
+      <c r="AI57" s="12">
+        <f>W55</f>
+        <v>0</v>
+      </c>
+      <c r="AJ57" s="13">
+        <f>Z55</f>
+        <v>1</v>
+      </c>
+      <c r="AL57" s="11">
+        <v>7</v>
+      </c>
+      <c r="AM57" s="12">
+        <v>8</v>
+      </c>
+      <c r="AN57" s="12">
+        <v>9</v>
+      </c>
+      <c r="AO57" s="13">
+        <f>AO56</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="31"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="26"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="21"/>
+      <c r="AG58" s="11">
+        <f>V55</f>
+        <v>1</v>
+      </c>
+      <c r="AH58" s="12">
+        <f>U55</f>
+        <v>0</v>
+      </c>
+      <c r="AI58" s="12">
+        <f>T55</f>
+        <v>0</v>
+      </c>
+      <c r="AJ58" s="13">
+        <f>S55</f>
+        <v>1</v>
+      </c>
+      <c r="AL58" s="11">
+        <v>10</v>
+      </c>
+      <c r="AM58" s="12">
+        <v>11</v>
+      </c>
+      <c r="AN58" s="12">
+        <v>12</v>
+      </c>
+      <c r="AO58" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="26"/>
+      <c r="Q59" s="21"/>
+      <c r="R59" s="21"/>
+      <c r="S59" s="21"/>
+      <c r="T59" s="21"/>
+      <c r="AG59" s="11">
+        <f>R55</f>
+        <v>1</v>
+      </c>
+      <c r="AH59" s="22">
+        <f>Q55</f>
+        <v>1</v>
+      </c>
+      <c r="AI59" s="12">
+        <f>AA55</f>
+        <v>1</v>
+      </c>
+      <c r="AJ59" s="23">
+        <f>P55</f>
+        <v>1</v>
+      </c>
+      <c r="AL59" s="11">
+        <v>14</v>
+      </c>
+      <c r="AM59" s="22">
+        <v>15</v>
+      </c>
+      <c r="AN59" s="12">
+        <f>AN56</f>
+        <v>5</v>
+      </c>
+      <c r="AO59" s="23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="32"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
       <c r="E60" s="26"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
       <c r="J60" s="26"/>
       <c r="K60" s="26"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="22"/>
-      <c r="O60" s="22"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
       <c r="P60" s="26"/>
-      <c r="Q60" s="22"/>
-      <c r="R60" s="22"/>
-      <c r="S60" s="22"/>
-      <c r="T60" s="22"/>
-    </row>
-    <row r="62" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q60" s="21"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="21"/>
+      <c r="T60" s="21"/>
+      <c r="AG60" s="11">
+        <f>O55</f>
+        <v>0</v>
+      </c>
+      <c r="AH60" s="19"/>
+      <c r="AI60" s="12">
+        <f>N55</f>
+        <v>0</v>
+      </c>
+      <c r="AJ60" s="23">
+        <f>P55</f>
+        <v>1</v>
+      </c>
+      <c r="AL60" s="11">
+        <v>17</v>
+      </c>
+      <c r="AM60" s="19"/>
+      <c r="AN60" s="12">
+        <v>18</v>
+      </c>
+      <c r="AO60" s="23">
+        <f>AO59</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" s="32"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="26"/>
+      <c r="Q61" s="21"/>
+      <c r="R61" s="21"/>
+      <c r="S61" s="21"/>
+      <c r="T61" s="21"/>
+      <c r="AG61" s="14">
+        <f>M55</f>
+        <v>0</v>
+      </c>
+      <c r="AH61" s="20">
+        <f>AB55</f>
+        <v>0</v>
+      </c>
+      <c r="AI61" s="15">
+        <f>L55</f>
+        <v>0</v>
+      </c>
+      <c r="AJ61" s="16">
+        <f>K55</f>
+        <v>1</v>
+      </c>
+      <c r="AL61" s="14">
+        <v>19</v>
+      </c>
+      <c r="AM61" s="20">
+        <f>AL56</f>
+        <v>4</v>
+      </c>
+      <c r="AN61" s="15">
+        <v>20</v>
+      </c>
+      <c r="AO61" s="16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="27" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B62" s="27"/>
       <c r="C62" s="27"/>
       <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="27"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="27"/>
-      <c r="P62" s="27"/>
-      <c r="Q62" s="27"/>
-      <c r="R62" s="27"/>
-      <c r="S62" s="27"/>
-      <c r="T62" s="27"/>
-      <c r="U62" s="1"/>
-      <c r="V62" s="1"/>
-      <c r="W62" s="1"/>
-      <c r="X62" s="1"/>
-      <c r="Y62" s="1"/>
-      <c r="Z62" s="1"/>
+      <c r="E62" s="1">
+        <v>21</v>
+      </c>
+      <c r="F62" s="1">
+        <v>20</v>
+      </c>
+      <c r="G62" s="1">
+        <v>4</v>
+      </c>
+      <c r="H62" s="1">
+        <v>19</v>
+      </c>
+      <c r="I62" s="1">
+        <v>16</v>
+      </c>
+      <c r="J62" s="1">
+        <v>18</v>
+      </c>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1">
+        <v>17</v>
+      </c>
+      <c r="M62" s="1">
+        <v>16</v>
+      </c>
+      <c r="N62" s="1">
+        <v>5</v>
+      </c>
+      <c r="O62" s="1">
+        <v>15</v>
+      </c>
+      <c r="P62" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>13</v>
+      </c>
+      <c r="R62" s="1">
+        <v>12</v>
+      </c>
+      <c r="S62" s="1">
+        <v>11</v>
+      </c>
+      <c r="T62" s="1">
+        <v>10</v>
+      </c>
+      <c r="U62" s="1">
+        <v>6</v>
+      </c>
+      <c r="V62" s="1">
+        <v>9</v>
+      </c>
+      <c r="W62" s="1">
+        <v>8</v>
+      </c>
+      <c r="X62" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y62" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z62" s="1">
+        <v>5</v>
+      </c>
       <c r="AA62" s="1"/>
-      <c r="AB62" s="1"/>
-      <c r="AC62" s="1"/>
-      <c r="AD62" s="1"/>
-      <c r="AE62" s="1"/>
-      <c r="AF62" s="1"/>
-    </row>
-    <row r="63" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>0</v>
-      </c>
-      <c r="B63" s="1">
+      <c r="AB62" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC62" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD62" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH62" s="18"/>
+      <c r="AI62" s="18"/>
+      <c r="AJ62" s="18"/>
+      <c r="AL62" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM62" s="18"/>
+      <c r="AN62" s="18"/>
+      <c r="AO62" s="18"/>
+    </row>
+    <row r="63" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="24">
+        <v>0</v>
+      </c>
+      <c r="B63" s="24">
         <v>0</v>
       </c>
       <c r="C63" s="1">
@@ -6617,7 +7371,7 @@
         <v>1</v>
       </c>
       <c r="G63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="1">
         <v>0</v>
@@ -6635,7 +7389,7 @@
         <v>1</v>
       </c>
       <c r="M63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" s="1">
         <v>0</v>
@@ -6644,34 +7398,34 @@
         <v>0</v>
       </c>
       <c r="P63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X63" s="1">
         <v>1</v>
       </c>
       <c r="Y63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z63" s="1">
         <v>0</v>
@@ -6683,7 +7437,7 @@
         <v>1</v>
       </c>
       <c r="AC63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD63" s="1">
         <v>1</v>
@@ -6692,15 +7446,23 @@
         <v>1</v>
       </c>
       <c r="AF63" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="B64" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG63" s="17"/>
+      <c r="AH63" s="17"/>
+      <c r="AI63" s="17"/>
+      <c r="AJ63" s="17"/>
+      <c r="AL63" s="17"/>
+      <c r="AM63" s="17"/>
+      <c r="AN63" s="17"/>
+      <c r="AO63" s="17"/>
+    </row>
+    <row r="64" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="24">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="B64" s="24">
         <f>0</f>
         <v>0</v>
       </c>
@@ -6746,7 +7508,7 @@
       </c>
       <c r="M64" s="1">
         <f>G63</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64" s="1">
         <f>J63</f>
@@ -6758,7 +7520,7 @@
       </c>
       <c r="P64" s="1">
         <f>M63</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64" s="1">
         <f>O63</f>
@@ -6766,31 +7528,31 @@
       </c>
       <c r="R64" s="1">
         <f>P63</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S64" s="1">
         <f>Q63</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T64" s="1">
         <f>R63</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U64" s="1">
         <f>S63</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V64" s="1">
         <f>T63</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W64" s="1">
         <f>V63</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X64" s="1">
         <f>W63</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y64" s="1">
         <f>X63</f>
@@ -6798,199 +7560,3060 @@
       </c>
       <c r="Z64" s="1">
         <f>Y63</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA64" s="1">
         <f>Z63</f>
         <v>0</v>
       </c>
       <c r="AB64" s="1">
-        <f t="shared" ref="AB64" si="47">AB63</f>
+        <f t="shared" ref="AB64" si="33">AB63</f>
         <v>1</v>
       </c>
       <c r="AC64" s="1">
-        <f t="shared" ref="AC64" si="48">AC63</f>
-        <v>0</v>
+        <f t="shared" ref="AC64" si="34">AC63</f>
+        <v>1</v>
       </c>
       <c r="AD64" s="1">
-        <f t="shared" ref="AD64" si="49">AD63</f>
+        <f t="shared" ref="AD64" si="35">AD63</f>
         <v>1</v>
       </c>
       <c r="AE64" s="1">
-        <f t="shared" ref="AE64" si="50">AE63</f>
+        <f t="shared" ref="AE64" si="36">AE63</f>
         <v>1</v>
       </c>
       <c r="AF64" s="1">
         <f>AF63</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B65" s="28"/>
+        <v>1</v>
+      </c>
+      <c r="AG64" s="8">
+        <f>AF64</f>
+        <v>1</v>
+      </c>
+      <c r="AH64" s="9">
+        <f>AE64</f>
+        <v>1</v>
+      </c>
+      <c r="AI64" s="9">
+        <f>AD64</f>
+        <v>1</v>
+      </c>
+      <c r="AJ64" s="10">
+        <f>AC64</f>
+        <v>1</v>
+      </c>
+      <c r="AL64" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM64" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN64" s="9">
+        <v>2</v>
+      </c>
+      <c r="AO64" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" s="30"/>
       <c r="C65" s="25" t="str">
-        <f>CONCATENATE("uint32_t ",A65," = (B",A64,B64,C64,D64,E64,F64,G64,H64," &lt;&lt; 24) + (B",I64,J64,K64,L64,M64,N64,O64,P64," &lt;&lt; 24) + (B",Q64,R64,S64,T64,U64,V64,W64,X64," &lt;&lt; 24) + B",Y64,Z64,AA64,AB64,AC64,AD64,AE64,AF64,";")</f>
-        <v>uint32_t nine = (B00000000 &lt;&lt; 24) + (B00011010 &lt;&lt; 24) + (B01011100 &lt;&lt; 24) + B11010110;</v>
-      </c>
-      <c r="D65" s="22"/>
+        <f>CONCATENATE("uint32_t ",A65," = (B",A64,B64,C64,D64,E64,F64,G64,H64," &lt;&lt; 24) + (B",I64,J64,K64,L64,M64,N64,O64,P64," &lt;&lt; 16) + (B",Q64,R64,S64,T64,U64,V64,W64,X64," &lt;&lt; 8) + B",Y64,Z64,AA64,AB64,AC64,AD64,AE64,AF64,";")</f>
+        <v>uint32_t five = (B00000000 &lt;&lt; 24) + (B00010011 &lt;&lt; 16) + (B00100011 &lt;&lt; 8) + B10011111;</v>
+      </c>
+      <c r="D65" s="21"/>
       <c r="E65" s="26"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
       <c r="J65" s="26"/>
       <c r="K65" s="26"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="22"/>
-      <c r="N65" s="22"/>
-      <c r="O65" s="22"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
       <c r="P65" s="26"/>
-      <c r="Q65" s="22"/>
-      <c r="R65" s="22"/>
-      <c r="S65" s="22"/>
-      <c r="T65" s="22"/>
-    </row>
-    <row r="67" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="27"/>
-      <c r="M67" s="27"/>
-      <c r="N67" s="27"/>
-      <c r="O67" s="27"/>
-      <c r="P67" s="27"/>
-      <c r="Q67" s="27"/>
-      <c r="R67" s="27"/>
-      <c r="S67" s="27"/>
-      <c r="T67" s="27"/>
-      <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
-      <c r="X67" s="1"/>
-      <c r="Y67" s="1"/>
-      <c r="Z67" s="1"/>
-      <c r="AA67" s="1"/>
-      <c r="AB67" s="1"/>
-      <c r="AC67" s="1"/>
-      <c r="AD67" s="1"/>
-      <c r="AE67" s="1"/>
-      <c r="AF67" s="1"/>
-    </row>
-    <row r="68" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
-      <c r="U68" s="1"/>
-      <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
-      <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
-      <c r="Z68" s="1"/>
-      <c r="AA68" s="1"/>
-      <c r="AB68" s="1"/>
-      <c r="AC68" s="1"/>
-      <c r="AD68" s="1"/>
-      <c r="AE68" s="1"/>
-      <c r="AF68" s="1"/>
-    </row>
-    <row r="69" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
-      <c r="T69" s="1"/>
-      <c r="U69" s="1"/>
-      <c r="V69" s="1"/>
-      <c r="W69" s="1"/>
-      <c r="X69" s="1"/>
-      <c r="Y69" s="1"/>
-      <c r="Z69" s="1"/>
-      <c r="AA69" s="1"/>
-      <c r="AB69" s="1"/>
-      <c r="AC69" s="1"/>
-      <c r="AD69" s="1"/>
-      <c r="AE69" s="1"/>
-      <c r="AF69" s="1"/>
-    </row>
-    <row r="70" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="29"/>
-      <c r="B70" s="29"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="22"/>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="21"/>
+      <c r="S65" s="21"/>
+      <c r="T65" s="21"/>
+      <c r="AG65" s="11">
+        <f>AB64</f>
+        <v>1</v>
+      </c>
+      <c r="AH65" s="19"/>
+      <c r="AI65" s="12">
+        <f>AA64</f>
+        <v>0</v>
+      </c>
+      <c r="AJ65" s="13">
+        <f>Z64</f>
+        <v>0</v>
+      </c>
+      <c r="AL65" s="11">
+        <v>4</v>
+      </c>
+      <c r="AM65" s="19"/>
+      <c r="AN65" s="12">
+        <v>5</v>
+      </c>
+      <c r="AO65" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="31"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="26"/>
+      <c r="Q66" s="21"/>
+      <c r="R66" s="21"/>
+      <c r="S66" s="21"/>
+      <c r="T66" s="21"/>
+      <c r="AG66" s="11">
+        <f>Y64</f>
+        <v>1</v>
+      </c>
+      <c r="AH66" s="12">
+        <f>X64</f>
+        <v>1</v>
+      </c>
+      <c r="AI66" s="12">
+        <f>W64</f>
+        <v>1</v>
+      </c>
+      <c r="AJ66" s="13">
+        <f>Z64</f>
+        <v>0</v>
+      </c>
+      <c r="AL66" s="11">
+        <v>7</v>
+      </c>
+      <c r="AM66" s="12">
+        <v>8</v>
+      </c>
+      <c r="AN66" s="12">
+        <v>9</v>
+      </c>
+      <c r="AO66" s="13">
+        <f>AO65</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="31"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="26"/>
+      <c r="Q67" s="21"/>
+      <c r="R67" s="21"/>
+      <c r="S67" s="21"/>
+      <c r="T67" s="21"/>
+      <c r="AG67" s="11">
+        <f>V64</f>
+        <v>0</v>
+      </c>
+      <c r="AH67" s="12">
+        <f>U64</f>
+        <v>0</v>
+      </c>
+      <c r="AI67" s="12">
+        <f>T64</f>
+        <v>0</v>
+      </c>
+      <c r="AJ67" s="13">
+        <f>S64</f>
+        <v>1</v>
+      </c>
+      <c r="AL67" s="11">
+        <v>10</v>
+      </c>
+      <c r="AM67" s="12">
+        <v>11</v>
+      </c>
+      <c r="AN67" s="12">
+        <v>12</v>
+      </c>
+      <c r="AO67" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="31"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="26"/>
+      <c r="Q68" s="21"/>
+      <c r="R68" s="21"/>
+      <c r="S68" s="21"/>
+      <c r="T68" s="21"/>
+      <c r="AG68" s="11">
+        <f>R64</f>
+        <v>0</v>
+      </c>
+      <c r="AH68" s="22">
+        <f>Q64</f>
+        <v>0</v>
+      </c>
+      <c r="AI68" s="12">
+        <f>AA64</f>
+        <v>0</v>
+      </c>
+      <c r="AJ68" s="23">
+        <f>P64</f>
+        <v>1</v>
+      </c>
+      <c r="AL68" s="11">
+        <v>14</v>
+      </c>
+      <c r="AM68" s="22">
+        <v>15</v>
+      </c>
+      <c r="AN68" s="12">
+        <f>AN65</f>
+        <v>5</v>
+      </c>
+      <c r="AO68" s="23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="32"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="26"/>
+      <c r="Q69" s="21"/>
+      <c r="R69" s="21"/>
+      <c r="S69" s="21"/>
+      <c r="T69" s="21"/>
+      <c r="AG69" s="11">
+        <f>O64</f>
+        <v>1</v>
+      </c>
+      <c r="AH69" s="19"/>
+      <c r="AI69" s="12">
+        <f>N64</f>
+        <v>0</v>
+      </c>
+      <c r="AJ69" s="23">
+        <f>P64</f>
+        <v>1</v>
+      </c>
+      <c r="AL69" s="11">
+        <v>17</v>
+      </c>
+      <c r="AM69" s="19"/>
+      <c r="AN69" s="12">
+        <v>18</v>
+      </c>
+      <c r="AO69" s="23">
+        <f>AO68</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="32"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
       <c r="E70" s="26"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
       <c r="J70" s="26"/>
       <c r="K70" s="26"/>
-      <c r="L70" s="22"/>
-      <c r="M70" s="22"/>
-      <c r="N70" s="22"/>
-      <c r="O70" s="22"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
       <c r="P70" s="26"/>
-      <c r="Q70" s="22"/>
-      <c r="R70" s="22"/>
-      <c r="S70" s="22"/>
-      <c r="T70" s="22"/>
+      <c r="Q70" s="21"/>
+      <c r="R70" s="21"/>
+      <c r="S70" s="21"/>
+      <c r="T70" s="21"/>
+      <c r="AG70" s="14">
+        <f>M64</f>
+        <v>0</v>
+      </c>
+      <c r="AH70" s="20">
+        <f>AB64</f>
+        <v>1</v>
+      </c>
+      <c r="AI70" s="15">
+        <f>L64</f>
+        <v>1</v>
+      </c>
+      <c r="AJ70" s="16">
+        <f>K64</f>
+        <v>0</v>
+      </c>
+      <c r="AL70" s="14">
+        <v>19</v>
+      </c>
+      <c r="AM70" s="20">
+        <f>AL65</f>
+        <v>4</v>
+      </c>
+      <c r="AN70" s="15">
+        <v>20</v>
+      </c>
+      <c r="AO70" s="16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="1">
+        <v>21</v>
+      </c>
+      <c r="F71" s="1">
+        <v>20</v>
+      </c>
+      <c r="G71" s="1">
+        <v>4</v>
+      </c>
+      <c r="H71" s="1">
+        <v>19</v>
+      </c>
+      <c r="I71" s="1">
+        <v>16</v>
+      </c>
+      <c r="J71" s="1">
+        <v>18</v>
+      </c>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1">
+        <v>17</v>
+      </c>
+      <c r="M71" s="1">
+        <v>16</v>
+      </c>
+      <c r="N71" s="1">
+        <v>5</v>
+      </c>
+      <c r="O71" s="1">
+        <v>15</v>
+      </c>
+      <c r="P71" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>13</v>
+      </c>
+      <c r="R71" s="1">
+        <v>12</v>
+      </c>
+      <c r="S71" s="1">
+        <v>11</v>
+      </c>
+      <c r="T71" s="1">
+        <v>10</v>
+      </c>
+      <c r="U71" s="1">
+        <v>6</v>
+      </c>
+      <c r="V71" s="1">
+        <v>9</v>
+      </c>
+      <c r="W71" s="1">
+        <v>8</v>
+      </c>
+      <c r="X71" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y71" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z71" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC71" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD71" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG71" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH71" s="18"/>
+      <c r="AI71" s="18"/>
+      <c r="AJ71" s="18"/>
+      <c r="AL71" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM71" s="18"/>
+      <c r="AN71" s="18"/>
+      <c r="AO71" s="18"/>
+    </row>
+    <row r="72" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="24">
+        <v>0</v>
+      </c>
+      <c r="B72" s="24">
+        <v>0</v>
+      </c>
+      <c r="C72" s="24">
+        <v>0</v>
+      </c>
+      <c r="D72" s="24">
+        <v>0</v>
+      </c>
+      <c r="E72" s="24">
+        <v>0</v>
+      </c>
+      <c r="F72" s="24">
+        <v>1</v>
+      </c>
+      <c r="G72" s="24">
+        <v>0</v>
+      </c>
+      <c r="H72" s="24">
+        <v>0</v>
+      </c>
+      <c r="I72" s="24">
+        <v>0</v>
+      </c>
+      <c r="J72" s="24">
+        <v>0</v>
+      </c>
+      <c r="K72" s="24">
+        <v>0</v>
+      </c>
+      <c r="L72" s="24">
+        <v>1</v>
+      </c>
+      <c r="M72" s="24">
+        <v>1</v>
+      </c>
+      <c r="N72" s="24">
+        <v>0</v>
+      </c>
+      <c r="O72" s="24">
+        <v>0</v>
+      </c>
+      <c r="P72" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="24">
+        <v>0</v>
+      </c>
+      <c r="R72" s="24">
+        <v>1</v>
+      </c>
+      <c r="S72" s="24">
+        <v>1</v>
+      </c>
+      <c r="T72" s="24">
+        <v>1</v>
+      </c>
+      <c r="U72" s="24">
+        <v>0</v>
+      </c>
+      <c r="V72" s="24">
+        <v>0</v>
+      </c>
+      <c r="W72" s="24">
+        <v>0</v>
+      </c>
+      <c r="X72" s="24">
+        <v>1</v>
+      </c>
+      <c r="Y72" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="24">
+        <v>1</v>
+      </c>
+      <c r="AC72" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="24">
+        <v>1</v>
+      </c>
+      <c r="AE72" s="24">
+        <v>1</v>
+      </c>
+      <c r="AF72" s="24">
+        <v>0</v>
+      </c>
+      <c r="AG72" s="17"/>
+      <c r="AH72" s="17"/>
+      <c r="AI72" s="17"/>
+      <c r="AJ72" s="17"/>
+      <c r="AL72" s="17"/>
+      <c r="AM72" s="17"/>
+      <c r="AN72" s="17"/>
+      <c r="AO72" s="17"/>
+    </row>
+    <row r="73" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="24">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="B73" s="24">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C73" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D73" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E73" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F73" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H73" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J73" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K73" s="1">
+        <f>E72</f>
+        <v>0</v>
+      </c>
+      <c r="L73" s="1">
+        <f>F72</f>
+        <v>1</v>
+      </c>
+      <c r="M73" s="1">
+        <f>G72</f>
+        <v>0</v>
+      </c>
+      <c r="N73" s="1">
+        <f>J72</f>
+        <v>0</v>
+      </c>
+      <c r="O73" s="1">
+        <f>L72</f>
+        <v>1</v>
+      </c>
+      <c r="P73" s="1">
+        <f>M72</f>
+        <v>1</v>
+      </c>
+      <c r="Q73" s="1">
+        <f>O72</f>
+        <v>0</v>
+      </c>
+      <c r="R73" s="1">
+        <f>P72</f>
+        <v>1</v>
+      </c>
+      <c r="S73" s="1">
+        <f>Q72</f>
+        <v>0</v>
+      </c>
+      <c r="T73" s="1">
+        <f>R72</f>
+        <v>1</v>
+      </c>
+      <c r="U73" s="1">
+        <f>S72</f>
+        <v>1</v>
+      </c>
+      <c r="V73" s="1">
+        <f>T72</f>
+        <v>1</v>
+      </c>
+      <c r="W73" s="1">
+        <f>V72</f>
+        <v>0</v>
+      </c>
+      <c r="X73" s="1">
+        <f>W72</f>
+        <v>0</v>
+      </c>
+      <c r="Y73" s="1">
+        <f>X72</f>
+        <v>1</v>
+      </c>
+      <c r="Z73" s="1">
+        <f>Y72</f>
+        <v>0</v>
+      </c>
+      <c r="AA73" s="1">
+        <f>Z72</f>
+        <v>0</v>
+      </c>
+      <c r="AB73" s="1">
+        <f t="shared" ref="AB73" si="37">AB72</f>
+        <v>1</v>
+      </c>
+      <c r="AC73" s="1">
+        <f t="shared" ref="AC73" si="38">AC72</f>
+        <v>0</v>
+      </c>
+      <c r="AD73" s="1">
+        <f t="shared" ref="AD73" si="39">AD72</f>
+        <v>1</v>
+      </c>
+      <c r="AE73" s="1">
+        <f t="shared" ref="AE73" si="40">AE72</f>
+        <v>1</v>
+      </c>
+      <c r="AF73" s="1">
+        <f>AF72</f>
+        <v>0</v>
+      </c>
+      <c r="AG73" s="8">
+        <f>AF73</f>
+        <v>0</v>
+      </c>
+      <c r="AH73" s="9">
+        <f>AE73</f>
+        <v>1</v>
+      </c>
+      <c r="AI73" s="9">
+        <f>AD73</f>
+        <v>1</v>
+      </c>
+      <c r="AJ73" s="10">
+        <f>AC73</f>
+        <v>0</v>
+      </c>
+      <c r="AL73" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM73" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN73" s="9">
+        <v>2</v>
+      </c>
+      <c r="AO73" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" s="30"/>
+      <c r="C74" s="25" t="str">
+        <f>CONCATENATE("uint32_t ",A74," = (B",A73,B73,C73,D73,E73,F73,G73,H73," &lt;&lt; 24) + (B",I73,J73,K73,L73,M73,N73,O73,P73," &lt;&lt; 16) + (B",Q73,R73,S73,T73,U73,V73,W73,X73," &lt;&lt; 8) + B",Y73,Z73,AA73,AB73,AC73,AD73,AE73,AF73,";")</f>
+        <v>uint32_t six = (B00000000 &lt;&lt; 24) + (B00010011 &lt;&lt; 16) + (B01011100 &lt;&lt; 8) + B10010110;</v>
+      </c>
+      <c r="D74" s="21"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="21"/>
+      <c r="O74" s="21"/>
+      <c r="P74" s="26"/>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="21"/>
+      <c r="S74" s="21"/>
+      <c r="T74" s="21"/>
+      <c r="AG74" s="11">
+        <f>AB73</f>
+        <v>1</v>
+      </c>
+      <c r="AH74" s="19"/>
+      <c r="AI74" s="12">
+        <f>AA73</f>
+        <v>0</v>
+      </c>
+      <c r="AJ74" s="13">
+        <f>Z73</f>
+        <v>0</v>
+      </c>
+      <c r="AL74" s="11">
+        <v>4</v>
+      </c>
+      <c r="AM74" s="19"/>
+      <c r="AN74" s="12">
+        <v>5</v>
+      </c>
+      <c r="AO74" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="31"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="21"/>
+      <c r="O75" s="21"/>
+      <c r="P75" s="26"/>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="21"/>
+      <c r="S75" s="21"/>
+      <c r="T75" s="21"/>
+      <c r="AG75" s="11">
+        <f>Y73</f>
+        <v>1</v>
+      </c>
+      <c r="AH75" s="12">
+        <f>X73</f>
+        <v>0</v>
+      </c>
+      <c r="AI75" s="12">
+        <f>W73</f>
+        <v>0</v>
+      </c>
+      <c r="AJ75" s="13">
+        <f>Z73</f>
+        <v>0</v>
+      </c>
+      <c r="AL75" s="11">
+        <v>7</v>
+      </c>
+      <c r="AM75" s="12">
+        <v>8</v>
+      </c>
+      <c r="AN75" s="12">
+        <v>9</v>
+      </c>
+      <c r="AO75" s="13">
+        <f>AO74</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="31"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="21"/>
+      <c r="M76" s="21"/>
+      <c r="N76" s="21"/>
+      <c r="O76" s="21"/>
+      <c r="P76" s="26"/>
+      <c r="Q76" s="21"/>
+      <c r="R76" s="21"/>
+      <c r="S76" s="21"/>
+      <c r="T76" s="21"/>
+      <c r="AG76" s="11">
+        <f>V73</f>
+        <v>1</v>
+      </c>
+      <c r="AH76" s="12">
+        <f>U73</f>
+        <v>1</v>
+      </c>
+      <c r="AI76" s="12">
+        <f>T73</f>
+        <v>1</v>
+      </c>
+      <c r="AJ76" s="13">
+        <f>S73</f>
+        <v>0</v>
+      </c>
+      <c r="AL76" s="11">
+        <v>10</v>
+      </c>
+      <c r="AM76" s="12">
+        <v>11</v>
+      </c>
+      <c r="AN76" s="12">
+        <v>12</v>
+      </c>
+      <c r="AO76" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="31"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="21"/>
+      <c r="N77" s="21"/>
+      <c r="O77" s="21"/>
+      <c r="P77" s="26"/>
+      <c r="Q77" s="21"/>
+      <c r="R77" s="21"/>
+      <c r="S77" s="21"/>
+      <c r="T77" s="21"/>
+      <c r="AG77" s="11">
+        <f>R73</f>
+        <v>1</v>
+      </c>
+      <c r="AH77" s="22">
+        <f>Q73</f>
+        <v>0</v>
+      </c>
+      <c r="AI77" s="12">
+        <f>AA73</f>
+        <v>0</v>
+      </c>
+      <c r="AJ77" s="23">
+        <f>P73</f>
+        <v>1</v>
+      </c>
+      <c r="AL77" s="11">
+        <v>14</v>
+      </c>
+      <c r="AM77" s="22">
+        <v>15</v>
+      </c>
+      <c r="AN77" s="12">
+        <f>AN74</f>
+        <v>5</v>
+      </c>
+      <c r="AO77" s="23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="32"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="26"/>
+      <c r="L78" s="21"/>
+      <c r="M78" s="21"/>
+      <c r="N78" s="21"/>
+      <c r="O78" s="21"/>
+      <c r="P78" s="26"/>
+      <c r="Q78" s="21"/>
+      <c r="R78" s="21"/>
+      <c r="S78" s="21"/>
+      <c r="T78" s="21"/>
+      <c r="AG78" s="11">
+        <f>O73</f>
+        <v>1</v>
+      </c>
+      <c r="AH78" s="19"/>
+      <c r="AI78" s="12">
+        <f>N73</f>
+        <v>0</v>
+      </c>
+      <c r="AJ78" s="23">
+        <f>P73</f>
+        <v>1</v>
+      </c>
+      <c r="AL78" s="11">
+        <v>17</v>
+      </c>
+      <c r="AM78" s="19"/>
+      <c r="AN78" s="12">
+        <v>18</v>
+      </c>
+      <c r="AO78" s="23">
+        <f>AO77</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" s="32"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="21"/>
+      <c r="O79" s="21"/>
+      <c r="P79" s="26"/>
+      <c r="Q79" s="21"/>
+      <c r="R79" s="21"/>
+      <c r="S79" s="21"/>
+      <c r="T79" s="21"/>
+      <c r="AG79" s="14">
+        <f>M73</f>
+        <v>0</v>
+      </c>
+      <c r="AH79" s="20">
+        <f>AB73</f>
+        <v>1</v>
+      </c>
+      <c r="AI79" s="15">
+        <f>L73</f>
+        <v>1</v>
+      </c>
+      <c r="AJ79" s="16">
+        <f>K73</f>
+        <v>0</v>
+      </c>
+      <c r="AL79" s="14">
+        <v>19</v>
+      </c>
+      <c r="AM79" s="20">
+        <f>AL74</f>
+        <v>4</v>
+      </c>
+      <c r="AN79" s="15">
+        <v>20</v>
+      </c>
+      <c r="AO79" s="16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="1">
+        <v>21</v>
+      </c>
+      <c r="F80" s="1">
+        <v>20</v>
+      </c>
+      <c r="G80" s="1">
+        <v>4</v>
+      </c>
+      <c r="H80" s="1">
+        <v>19</v>
+      </c>
+      <c r="I80" s="1">
+        <v>16</v>
+      </c>
+      <c r="J80" s="1">
+        <v>18</v>
+      </c>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1">
+        <v>17</v>
+      </c>
+      <c r="M80" s="1">
+        <v>16</v>
+      </c>
+      <c r="N80" s="1">
+        <v>5</v>
+      </c>
+      <c r="O80" s="1">
+        <v>15</v>
+      </c>
+      <c r="P80" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>13</v>
+      </c>
+      <c r="R80" s="1">
+        <v>12</v>
+      </c>
+      <c r="S80" s="1">
+        <v>11</v>
+      </c>
+      <c r="T80" s="1">
+        <v>10</v>
+      </c>
+      <c r="U80" s="1">
+        <v>6</v>
+      </c>
+      <c r="V80" s="1">
+        <v>9</v>
+      </c>
+      <c r="W80" s="1">
+        <v>8</v>
+      </c>
+      <c r="X80" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y80" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z80" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC80" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD80" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE80" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG80" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH80" s="18"/>
+      <c r="AI80" s="18"/>
+      <c r="AJ80" s="18"/>
+      <c r="AL80" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM80" s="18"/>
+      <c r="AN80" s="18"/>
+      <c r="AO80" s="18"/>
+    </row>
+    <row r="81" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="24">
+        <v>0</v>
+      </c>
+      <c r="B81" s="24">
+        <v>0</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+      <c r="H81" s="1">
+        <v>1</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0</v>
+      </c>
+      <c r="J81" s="1">
+        <v>0</v>
+      </c>
+      <c r="K81" s="1">
+        <v>0</v>
+      </c>
+      <c r="L81" s="1">
+        <v>1</v>
+      </c>
+      <c r="M81" s="1">
+        <v>0</v>
+      </c>
+      <c r="N81" s="1">
+        <v>0</v>
+      </c>
+      <c r="O81" s="1">
+        <v>1</v>
+      </c>
+      <c r="P81" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>0</v>
+      </c>
+      <c r="R81" s="1">
+        <v>1</v>
+      </c>
+      <c r="S81" s="1">
+        <v>0</v>
+      </c>
+      <c r="T81" s="1">
+        <v>0</v>
+      </c>
+      <c r="U81" s="1">
+        <v>0</v>
+      </c>
+      <c r="V81" s="1">
+        <v>0</v>
+      </c>
+      <c r="W81" s="1">
+        <v>0</v>
+      </c>
+      <c r="X81" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD81" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE81" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF81" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG81" s="17"/>
+      <c r="AH81" s="17"/>
+      <c r="AI81" s="17"/>
+      <c r="AJ81" s="17"/>
+      <c r="AL81" s="17"/>
+      <c r="AM81" s="17"/>
+      <c r="AN81" s="17"/>
+      <c r="AO81" s="17"/>
+    </row>
+    <row r="82" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="24">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="B82" s="24">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C82" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D82" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E82" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F82" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G82" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H82" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I82" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J82" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K82" s="1">
+        <f>E81</f>
+        <v>0</v>
+      </c>
+      <c r="L82" s="1">
+        <f>F81</f>
+        <v>0</v>
+      </c>
+      <c r="M82" s="1">
+        <f>H81</f>
+        <v>1</v>
+      </c>
+      <c r="N82" s="1">
+        <f>J81</f>
+        <v>0</v>
+      </c>
+      <c r="O82" s="1">
+        <f>L81</f>
+        <v>1</v>
+      </c>
+      <c r="P82" s="1">
+        <f>M81</f>
+        <v>0</v>
+      </c>
+      <c r="Q82" s="1">
+        <f>O81</f>
+        <v>1</v>
+      </c>
+      <c r="R82" s="1">
+        <f>P81</f>
+        <v>0</v>
+      </c>
+      <c r="S82" s="1">
+        <f>Q81</f>
+        <v>0</v>
+      </c>
+      <c r="T82" s="1">
+        <f>R81</f>
+        <v>1</v>
+      </c>
+      <c r="U82" s="1">
+        <f>S81</f>
+        <v>0</v>
+      </c>
+      <c r="V82" s="1">
+        <f>T81</f>
+        <v>0</v>
+      </c>
+      <c r="W82" s="1">
+        <f>V81</f>
+        <v>0</v>
+      </c>
+      <c r="X82" s="1">
+        <f>W81</f>
+        <v>0</v>
+      </c>
+      <c r="Y82" s="1">
+        <f>X81</f>
+        <v>0</v>
+      </c>
+      <c r="Z82" s="1">
+        <f>Y81</f>
+        <v>1</v>
+      </c>
+      <c r="AA82" s="1">
+        <f>Z81</f>
+        <v>0</v>
+      </c>
+      <c r="AB82" s="1">
+        <f t="shared" ref="AB82" si="41">AB81</f>
+        <v>0</v>
+      </c>
+      <c r="AC82" s="1">
+        <f t="shared" ref="AC82" si="42">AC81</f>
+        <v>1</v>
+      </c>
+      <c r="AD82" s="1">
+        <f t="shared" ref="AD82" si="43">AD81</f>
+        <v>1</v>
+      </c>
+      <c r="AE82" s="1">
+        <f t="shared" ref="AE82" si="44">AE81</f>
+        <v>1</v>
+      </c>
+      <c r="AF82" s="1">
+        <f>AF81</f>
+        <v>1</v>
+      </c>
+      <c r="AG82" s="8">
+        <f>AF82</f>
+        <v>1</v>
+      </c>
+      <c r="AH82" s="9">
+        <f>AE82</f>
+        <v>1</v>
+      </c>
+      <c r="AI82" s="9">
+        <f>AD82</f>
+        <v>1</v>
+      </c>
+      <c r="AJ82" s="10">
+        <f>AC82</f>
+        <v>1</v>
+      </c>
+      <c r="AL82" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM82" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN82" s="9">
+        <v>2</v>
+      </c>
+      <c r="AO82" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B83" s="30"/>
+      <c r="C83" s="25" t="str">
+        <f>CONCATENATE("uint32_t ",A83," = (B",A82,B82,C82,D82,E82,F82,G82,H82," &lt;&lt; 24) + (B",I82,J82,K82,L82,M82,N82,O82,P82," &lt;&lt; 16) + (B",Q82,R82,S82,T82,U82,V82,W82,X82," &lt;&lt; 8) + B",Y82,Z82,AA82,AB82,AC82,AD82,AE82,AF82,";")</f>
+        <v>uint32_t seven = (B00000000 &lt;&lt; 24) + (B00001010 &lt;&lt; 16) + (B10010000 &lt;&lt; 8) + B01001111;</v>
+      </c>
+      <c r="D83" s="21"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="26"/>
+      <c r="L83" s="21"/>
+      <c r="M83" s="21"/>
+      <c r="N83" s="21"/>
+      <c r="O83" s="21"/>
+      <c r="P83" s="26"/>
+      <c r="Q83" s="21"/>
+      <c r="R83" s="21"/>
+      <c r="S83" s="21"/>
+      <c r="T83" s="21"/>
+      <c r="AG83" s="11">
+        <f>AB82</f>
+        <v>0</v>
+      </c>
+      <c r="AH83" s="19"/>
+      <c r="AI83" s="12">
+        <f>AA82</f>
+        <v>0</v>
+      </c>
+      <c r="AJ83" s="13">
+        <f>Z82</f>
+        <v>1</v>
+      </c>
+      <c r="AL83" s="11">
+        <v>4</v>
+      </c>
+      <c r="AM83" s="19"/>
+      <c r="AN83" s="12">
+        <v>5</v>
+      </c>
+      <c r="AO83" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="31"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="26"/>
+      <c r="L84" s="21"/>
+      <c r="M84" s="21"/>
+      <c r="N84" s="21"/>
+      <c r="O84" s="21"/>
+      <c r="P84" s="26"/>
+      <c r="Q84" s="21"/>
+      <c r="R84" s="21"/>
+      <c r="S84" s="21"/>
+      <c r="T84" s="21"/>
+      <c r="AG84" s="11">
+        <f>Y82</f>
+        <v>0</v>
+      </c>
+      <c r="AH84" s="12">
+        <f>X82</f>
+        <v>0</v>
+      </c>
+      <c r="AI84" s="12">
+        <f>W82</f>
+        <v>0</v>
+      </c>
+      <c r="AJ84" s="13">
+        <f>Z82</f>
+        <v>1</v>
+      </c>
+      <c r="AL84" s="11">
+        <v>7</v>
+      </c>
+      <c r="AM84" s="12">
+        <v>8</v>
+      </c>
+      <c r="AN84" s="12">
+        <v>9</v>
+      </c>
+      <c r="AO84" s="13">
+        <f>AO83</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="31"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="26"/>
+      <c r="L85" s="21"/>
+      <c r="M85" s="21"/>
+      <c r="N85" s="21"/>
+      <c r="O85" s="21"/>
+      <c r="P85" s="26"/>
+      <c r="Q85" s="21"/>
+      <c r="R85" s="21"/>
+      <c r="S85" s="21"/>
+      <c r="T85" s="21"/>
+      <c r="AG85" s="11">
+        <f>V82</f>
+        <v>0</v>
+      </c>
+      <c r="AH85" s="12">
+        <f>U82</f>
+        <v>0</v>
+      </c>
+      <c r="AI85" s="12">
+        <f>T82</f>
+        <v>1</v>
+      </c>
+      <c r="AJ85" s="13">
+        <f>S82</f>
+        <v>0</v>
+      </c>
+      <c r="AL85" s="11">
+        <v>10</v>
+      </c>
+      <c r="AM85" s="12">
+        <v>11</v>
+      </c>
+      <c r="AN85" s="12">
+        <v>12</v>
+      </c>
+      <c r="AO85" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="31"/>
+      <c r="B86" s="31"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="26"/>
+      <c r="K86" s="26"/>
+      <c r="L86" s="21"/>
+      <c r="M86" s="21"/>
+      <c r="N86" s="21"/>
+      <c r="O86" s="21"/>
+      <c r="P86" s="26"/>
+      <c r="Q86" s="21"/>
+      <c r="R86" s="21"/>
+      <c r="S86" s="21"/>
+      <c r="T86" s="21"/>
+      <c r="AG86" s="11">
+        <f>R82</f>
+        <v>0</v>
+      </c>
+      <c r="AH86" s="22">
+        <f>Q82</f>
+        <v>1</v>
+      </c>
+      <c r="AI86" s="12">
+        <f>AA82</f>
+        <v>0</v>
+      </c>
+      <c r="AJ86" s="23">
+        <f>P82</f>
+        <v>0</v>
+      </c>
+      <c r="AL86" s="11">
+        <v>14</v>
+      </c>
+      <c r="AM86" s="22">
+        <v>15</v>
+      </c>
+      <c r="AN86" s="12">
+        <f>AN83</f>
+        <v>5</v>
+      </c>
+      <c r="AO86" s="23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="32"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="26"/>
+      <c r="K87" s="26"/>
+      <c r="L87" s="21"/>
+      <c r="M87" s="21"/>
+      <c r="N87" s="21"/>
+      <c r="O87" s="21"/>
+      <c r="P87" s="26"/>
+      <c r="Q87" s="21"/>
+      <c r="R87" s="21"/>
+      <c r="S87" s="21"/>
+      <c r="T87" s="21"/>
+      <c r="AG87" s="11">
+        <f>O82</f>
+        <v>1</v>
+      </c>
+      <c r="AH87" s="19"/>
+      <c r="AI87" s="12">
+        <f>N82</f>
+        <v>0</v>
+      </c>
+      <c r="AJ87" s="23">
+        <f>P82</f>
+        <v>0</v>
+      </c>
+      <c r="AL87" s="11">
+        <v>17</v>
+      </c>
+      <c r="AM87" s="19"/>
+      <c r="AN87" s="12">
+        <v>18</v>
+      </c>
+      <c r="AO87" s="23">
+        <f>AO86</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" s="32"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="26"/>
+      <c r="K88" s="26"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="21"/>
+      <c r="O88" s="21"/>
+      <c r="P88" s="26"/>
+      <c r="Q88" s="21"/>
+      <c r="R88" s="21"/>
+      <c r="S88" s="21"/>
+      <c r="T88" s="21"/>
+      <c r="AG88" s="14">
+        <f>M82</f>
+        <v>1</v>
+      </c>
+      <c r="AH88" s="20">
+        <f>AB82</f>
+        <v>0</v>
+      </c>
+      <c r="AI88" s="15">
+        <f>L82</f>
+        <v>0</v>
+      </c>
+      <c r="AJ88" s="16">
+        <f>K82</f>
+        <v>0</v>
+      </c>
+      <c r="AL88" s="14">
+        <v>19</v>
+      </c>
+      <c r="AM88" s="20">
+        <f>AL83</f>
+        <v>4</v>
+      </c>
+      <c r="AN88" s="15">
+        <v>20</v>
+      </c>
+      <c r="AO88" s="16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="1">
+        <v>21</v>
+      </c>
+      <c r="F89" s="1">
+        <v>20</v>
+      </c>
+      <c r="G89" s="1">
+        <v>4</v>
+      </c>
+      <c r="H89" s="1">
+        <v>19</v>
+      </c>
+      <c r="I89" s="1">
+        <v>16</v>
+      </c>
+      <c r="J89" s="1">
+        <v>18</v>
+      </c>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1">
+        <v>17</v>
+      </c>
+      <c r="M89" s="1">
+        <v>16</v>
+      </c>
+      <c r="N89" s="1">
+        <v>5</v>
+      </c>
+      <c r="O89" s="1">
+        <v>15</v>
+      </c>
+      <c r="P89" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q89" s="1">
+        <v>13</v>
+      </c>
+      <c r="R89" s="1">
+        <v>12</v>
+      </c>
+      <c r="S89" s="1">
+        <v>11</v>
+      </c>
+      <c r="T89" s="1">
+        <v>10</v>
+      </c>
+      <c r="U89" s="1">
+        <v>6</v>
+      </c>
+      <c r="V89" s="1">
+        <v>9</v>
+      </c>
+      <c r="W89" s="1">
+        <v>8</v>
+      </c>
+      <c r="X89" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y89" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z89" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA89" s="1"/>
+      <c r="AB89" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC89" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD89" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE89" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG89" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH89" s="18"/>
+      <c r="AI89" s="18"/>
+      <c r="AJ89" s="18"/>
+      <c r="AL89" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM89" s="18"/>
+      <c r="AN89" s="18"/>
+      <c r="AO89" s="18"/>
+    </row>
+    <row r="90" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="24">
+        <v>0</v>
+      </c>
+      <c r="B90" s="24">
+        <v>0</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0</v>
+      </c>
+      <c r="I90" s="1">
+        <v>0</v>
+      </c>
+      <c r="J90" s="1">
+        <v>0</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0</v>
+      </c>
+      <c r="L90" s="1">
+        <v>1</v>
+      </c>
+      <c r="M90" s="1">
+        <v>1</v>
+      </c>
+      <c r="N90" s="1">
+        <v>0</v>
+      </c>
+      <c r="O90" s="1">
+        <v>0</v>
+      </c>
+      <c r="P90" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q90" s="1">
+        <v>0</v>
+      </c>
+      <c r="R90" s="1">
+        <v>1</v>
+      </c>
+      <c r="S90" s="1">
+        <v>1</v>
+      </c>
+      <c r="T90" s="1">
+        <v>0</v>
+      </c>
+      <c r="U90" s="1">
+        <v>0</v>
+      </c>
+      <c r="V90" s="1">
+        <v>0</v>
+      </c>
+      <c r="W90" s="1">
+        <v>0</v>
+      </c>
+      <c r="X90" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y90" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB90" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD90" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE90" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG90" s="17"/>
+      <c r="AH90" s="17"/>
+      <c r="AI90" s="17"/>
+      <c r="AJ90" s="17"/>
+      <c r="AL90" s="17"/>
+      <c r="AM90" s="17"/>
+      <c r="AN90" s="17"/>
+      <c r="AO90" s="17"/>
+    </row>
+    <row r="91" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="24">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="B91" s="24">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C91" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D91" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E91" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F91" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G91" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H91" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I91" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J91" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K91" s="1">
+        <f>E90</f>
+        <v>0</v>
+      </c>
+      <c r="L91" s="1">
+        <f>F90</f>
+        <v>1</v>
+      </c>
+      <c r="M91" s="1">
+        <f>G90</f>
+        <v>0</v>
+      </c>
+      <c r="N91" s="1">
+        <f>J90</f>
+        <v>0</v>
+      </c>
+      <c r="O91" s="1">
+        <f>L90</f>
+        <v>1</v>
+      </c>
+      <c r="P91" s="1">
+        <f>M90</f>
+        <v>1</v>
+      </c>
+      <c r="Q91" s="1">
+        <f>O90</f>
+        <v>0</v>
+      </c>
+      <c r="R91" s="1">
+        <f>P90</f>
+        <v>1</v>
+      </c>
+      <c r="S91" s="1">
+        <f>Q90</f>
+        <v>0</v>
+      </c>
+      <c r="T91" s="1">
+        <f>R90</f>
+        <v>1</v>
+      </c>
+      <c r="U91" s="1">
+        <f>S90</f>
+        <v>1</v>
+      </c>
+      <c r="V91" s="1">
+        <f>T90</f>
+        <v>0</v>
+      </c>
+      <c r="W91" s="1">
+        <f>V90</f>
+        <v>0</v>
+      </c>
+      <c r="X91" s="1">
+        <f>W90</f>
+        <v>0</v>
+      </c>
+      <c r="Y91" s="1">
+        <f>X90</f>
+        <v>1</v>
+      </c>
+      <c r="Z91" s="1">
+        <f>Y90</f>
+        <v>1</v>
+      </c>
+      <c r="AA91" s="1">
+        <f>Z90</f>
+        <v>0</v>
+      </c>
+      <c r="AB91" s="1">
+        <f t="shared" ref="AB91" si="45">AB90</f>
+        <v>1</v>
+      </c>
+      <c r="AC91" s="1">
+        <f t="shared" ref="AC91" si="46">AC90</f>
+        <v>0</v>
+      </c>
+      <c r="AD91" s="1">
+        <f t="shared" ref="AD91" si="47">AD90</f>
+        <v>1</v>
+      </c>
+      <c r="AE91" s="1">
+        <f t="shared" ref="AE91" si="48">AE90</f>
+        <v>1</v>
+      </c>
+      <c r="AF91" s="1">
+        <f>AF90</f>
+        <v>0</v>
+      </c>
+      <c r="AG91" s="8">
+        <f>AF91</f>
+        <v>0</v>
+      </c>
+      <c r="AH91" s="9">
+        <f>AE91</f>
+        <v>1</v>
+      </c>
+      <c r="AI91" s="9">
+        <f>AD91</f>
+        <v>1</v>
+      </c>
+      <c r="AJ91" s="10">
+        <f>AC91</f>
+        <v>0</v>
+      </c>
+      <c r="AL91" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM91" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN91" s="9">
+        <v>2</v>
+      </c>
+      <c r="AO91" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B92" s="30"/>
+      <c r="C92" s="25" t="str">
+        <f>CONCATENATE("uint32_t ",A92," = (B",A91,B91,C91,D91,E91,F91,G91,H91," &lt;&lt; 24) + (B",I91,J91,K91,L91,M91,N91,O91,P91," &lt;&lt; 16) + (B",Q91,R91,S91,T91,U91,V91,W91,X91," &lt;&lt; 8) + B",Y91,Z91,AA91,AB91,AC91,AD91,AE91,AF91,";")</f>
+        <v>uint32_t eight = (B00000000 &lt;&lt; 24) + (B00010011 &lt;&lt; 16) + (B01011000 &lt;&lt; 8) + B11010110;</v>
+      </c>
+      <c r="D92" s="21"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="26"/>
+      <c r="L92" s="21"/>
+      <c r="M92" s="21"/>
+      <c r="N92" s="21"/>
+      <c r="O92" s="21"/>
+      <c r="P92" s="26"/>
+      <c r="Q92" s="21"/>
+      <c r="R92" s="21"/>
+      <c r="S92" s="21"/>
+      <c r="T92" s="21"/>
+      <c r="AG92" s="11">
+        <f>AB91</f>
+        <v>1</v>
+      </c>
+      <c r="AH92" s="19"/>
+      <c r="AI92" s="12">
+        <f>AA91</f>
+        <v>0</v>
+      </c>
+      <c r="AJ92" s="13">
+        <f>Z91</f>
+        <v>1</v>
+      </c>
+      <c r="AL92" s="11">
+        <v>4</v>
+      </c>
+      <c r="AM92" s="19"/>
+      <c r="AN92" s="12">
+        <v>5</v>
+      </c>
+      <c r="AO92" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="31"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="26"/>
+      <c r="K93" s="26"/>
+      <c r="L93" s="21"/>
+      <c r="M93" s="21"/>
+      <c r="N93" s="21"/>
+      <c r="O93" s="21"/>
+      <c r="P93" s="26"/>
+      <c r="Q93" s="21"/>
+      <c r="R93" s="21"/>
+      <c r="S93" s="21"/>
+      <c r="T93" s="21"/>
+      <c r="AG93" s="11">
+        <f>Y91</f>
+        <v>1</v>
+      </c>
+      <c r="AH93" s="12">
+        <f>X91</f>
+        <v>0</v>
+      </c>
+      <c r="AI93" s="12">
+        <f>W91</f>
+        <v>0</v>
+      </c>
+      <c r="AJ93" s="13">
+        <f>Z91</f>
+        <v>1</v>
+      </c>
+      <c r="AL93" s="11">
+        <v>7</v>
+      </c>
+      <c r="AM93" s="12">
+        <v>8</v>
+      </c>
+      <c r="AN93" s="12">
+        <v>9</v>
+      </c>
+      <c r="AO93" s="13">
+        <f>AO92</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="31"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="21"/>
+      <c r="J94" s="26"/>
+      <c r="K94" s="26"/>
+      <c r="L94" s="21"/>
+      <c r="M94" s="21"/>
+      <c r="N94" s="21"/>
+      <c r="O94" s="21"/>
+      <c r="P94" s="26"/>
+      <c r="Q94" s="21"/>
+      <c r="R94" s="21"/>
+      <c r="S94" s="21"/>
+      <c r="T94" s="21"/>
+      <c r="AG94" s="11">
+        <f>V91</f>
+        <v>0</v>
+      </c>
+      <c r="AH94" s="12">
+        <f>U91</f>
+        <v>1</v>
+      </c>
+      <c r="AI94" s="12">
+        <f>T91</f>
+        <v>1</v>
+      </c>
+      <c r="AJ94" s="13">
+        <f>S91</f>
+        <v>0</v>
+      </c>
+      <c r="AL94" s="11">
+        <v>10</v>
+      </c>
+      <c r="AM94" s="12">
+        <v>11</v>
+      </c>
+      <c r="AN94" s="12">
+        <v>12</v>
+      </c>
+      <c r="AO94" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="31"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="21"/>
+      <c r="J95" s="26"/>
+      <c r="K95" s="26"/>
+      <c r="L95" s="21"/>
+      <c r="M95" s="21"/>
+      <c r="N95" s="21"/>
+      <c r="O95" s="21"/>
+      <c r="P95" s="26"/>
+      <c r="Q95" s="21"/>
+      <c r="R95" s="21"/>
+      <c r="S95" s="21"/>
+      <c r="T95" s="21"/>
+      <c r="AG95" s="11">
+        <f>R91</f>
+        <v>1</v>
+      </c>
+      <c r="AH95" s="22">
+        <f>Q91</f>
+        <v>0</v>
+      </c>
+      <c r="AI95" s="12">
+        <f>AA91</f>
+        <v>0</v>
+      </c>
+      <c r="AJ95" s="23">
+        <f>P91</f>
+        <v>1</v>
+      </c>
+      <c r="AL95" s="11">
+        <v>14</v>
+      </c>
+      <c r="AM95" s="22">
+        <v>15</v>
+      </c>
+      <c r="AN95" s="12">
+        <f>AN92</f>
+        <v>5</v>
+      </c>
+      <c r="AO95" s="23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="32"/>
+      <c r="B96" s="32"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="21"/>
+      <c r="J96" s="26"/>
+      <c r="K96" s="26"/>
+      <c r="L96" s="21"/>
+      <c r="M96" s="21"/>
+      <c r="N96" s="21"/>
+      <c r="O96" s="21"/>
+      <c r="P96" s="26"/>
+      <c r="Q96" s="21"/>
+      <c r="R96" s="21"/>
+      <c r="S96" s="21"/>
+      <c r="T96" s="21"/>
+      <c r="AG96" s="11">
+        <f>O91</f>
+        <v>1</v>
+      </c>
+      <c r="AH96" s="19"/>
+      <c r="AI96" s="12">
+        <f>N91</f>
+        <v>0</v>
+      </c>
+      <c r="AJ96" s="23">
+        <f>P91</f>
+        <v>1</v>
+      </c>
+      <c r="AL96" s="11">
+        <v>17</v>
+      </c>
+      <c r="AM96" s="19"/>
+      <c r="AN96" s="12">
+        <v>18</v>
+      </c>
+      <c r="AO96" s="23">
+        <f>AO95</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B97" s="32"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
+      <c r="I97" s="21"/>
+      <c r="J97" s="26"/>
+      <c r="K97" s="26"/>
+      <c r="L97" s="21"/>
+      <c r="M97" s="21"/>
+      <c r="N97" s="21"/>
+      <c r="O97" s="21"/>
+      <c r="P97" s="26"/>
+      <c r="Q97" s="21"/>
+      <c r="R97" s="21"/>
+      <c r="S97" s="21"/>
+      <c r="T97" s="21"/>
+      <c r="AG97" s="14">
+        <f>M91</f>
+        <v>0</v>
+      </c>
+      <c r="AH97" s="20">
+        <f>AB91</f>
+        <v>1</v>
+      </c>
+      <c r="AI97" s="15">
+        <f>L91</f>
+        <v>1</v>
+      </c>
+      <c r="AJ97" s="16">
+        <f>K91</f>
+        <v>0</v>
+      </c>
+      <c r="AL97" s="14">
+        <v>19</v>
+      </c>
+      <c r="AM97" s="20">
+        <f>AL92</f>
+        <v>4</v>
+      </c>
+      <c r="AN97" s="15">
+        <v>20</v>
+      </c>
+      <c r="AO97" s="16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B98" s="27"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="1">
+        <v>21</v>
+      </c>
+      <c r="F98" s="1">
+        <v>20</v>
+      </c>
+      <c r="G98" s="1">
+        <v>4</v>
+      </c>
+      <c r="H98" s="1">
+        <v>19</v>
+      </c>
+      <c r="I98" s="1">
+        <v>16</v>
+      </c>
+      <c r="J98" s="1">
+        <v>18</v>
+      </c>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1">
+        <v>17</v>
+      </c>
+      <c r="M98" s="1">
+        <v>16</v>
+      </c>
+      <c r="N98" s="1">
+        <v>5</v>
+      </c>
+      <c r="O98" s="1">
+        <v>15</v>
+      </c>
+      <c r="P98" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q98" s="1">
+        <v>13</v>
+      </c>
+      <c r="R98" s="1">
+        <v>12</v>
+      </c>
+      <c r="S98" s="1">
+        <v>11</v>
+      </c>
+      <c r="T98" s="1">
+        <v>10</v>
+      </c>
+      <c r="U98" s="1">
+        <v>6</v>
+      </c>
+      <c r="V98" s="1">
+        <v>9</v>
+      </c>
+      <c r="W98" s="1">
+        <v>8</v>
+      </c>
+      <c r="X98" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y98" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z98" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA98" s="1"/>
+      <c r="AB98" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC98" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD98" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE98" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG98" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH98" s="18"/>
+      <c r="AI98" s="18"/>
+      <c r="AJ98" s="18"/>
+      <c r="AL98" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM98" s="18"/>
+      <c r="AN98" s="18"/>
+      <c r="AO98" s="18"/>
+    </row>
+    <row r="99" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="24">
+        <v>0</v>
+      </c>
+      <c r="B99" s="24">
+        <v>0</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0</v>
+      </c>
+      <c r="F99" s="1">
+        <v>1</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0</v>
+      </c>
+      <c r="I99" s="1">
+        <v>0</v>
+      </c>
+      <c r="J99" s="1">
+        <v>0</v>
+      </c>
+      <c r="K99" s="1">
+        <v>0</v>
+      </c>
+      <c r="L99" s="1">
+        <v>0</v>
+      </c>
+      <c r="M99" s="1">
+        <v>1</v>
+      </c>
+      <c r="N99" s="1">
+        <v>0</v>
+      </c>
+      <c r="O99" s="1">
+        <v>0</v>
+      </c>
+      <c r="P99" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="1">
+        <v>1</v>
+      </c>
+      <c r="R99" s="1">
+        <v>1</v>
+      </c>
+      <c r="S99" s="1">
+        <v>1</v>
+      </c>
+      <c r="T99" s="1">
+        <v>0</v>
+      </c>
+      <c r="U99" s="1">
+        <v>0</v>
+      </c>
+      <c r="V99" s="1">
+        <v>0</v>
+      </c>
+      <c r="W99" s="1">
+        <v>0</v>
+      </c>
+      <c r="X99" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y99" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z99" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC99" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE99" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF99" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG99" s="17"/>
+      <c r="AH99" s="17"/>
+      <c r="AI99" s="17"/>
+      <c r="AJ99" s="17"/>
+      <c r="AL99" s="17"/>
+      <c r="AM99" s="17"/>
+      <c r="AN99" s="17"/>
+      <c r="AO99" s="17"/>
+    </row>
+    <row r="100" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="24">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="B100" s="24">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C100" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D100" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E100" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F100" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G100" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H100" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I100" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J100" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K100" s="1">
+        <f>E99</f>
+        <v>0</v>
+      </c>
+      <c r="L100" s="1">
+        <f>F99</f>
+        <v>1</v>
+      </c>
+      <c r="M100" s="1">
+        <f>G99</f>
+        <v>0</v>
+      </c>
+      <c r="N100" s="1">
+        <f>J99</f>
+        <v>0</v>
+      </c>
+      <c r="O100" s="1">
+        <f>L99</f>
+        <v>0</v>
+      </c>
+      <c r="P100" s="1">
+        <f>M99</f>
+        <v>1</v>
+      </c>
+      <c r="Q100" s="1">
+        <f>O99</f>
+        <v>0</v>
+      </c>
+      <c r="R100" s="1">
+        <f>P99</f>
+        <v>0</v>
+      </c>
+      <c r="S100" s="1">
+        <f>Q99</f>
+        <v>1</v>
+      </c>
+      <c r="T100" s="1">
+        <f>R99</f>
+        <v>1</v>
+      </c>
+      <c r="U100" s="1">
+        <f>S99</f>
+        <v>1</v>
+      </c>
+      <c r="V100" s="1">
+        <f>T99</f>
+        <v>0</v>
+      </c>
+      <c r="W100" s="1">
+        <f>V99</f>
+        <v>0</v>
+      </c>
+      <c r="X100" s="1">
+        <f>W99</f>
+        <v>0</v>
+      </c>
+      <c r="Y100" s="1">
+        <f>X99</f>
+        <v>1</v>
+      </c>
+      <c r="Z100" s="1">
+        <f>Y99</f>
+        <v>1</v>
+      </c>
+      <c r="AA100" s="1">
+        <f>Z99</f>
+        <v>0</v>
+      </c>
+      <c r="AB100" s="1">
+        <f t="shared" ref="AB100" si="49">AB99</f>
+        <v>1</v>
+      </c>
+      <c r="AC100" s="1">
+        <f t="shared" ref="AC100" si="50">AC99</f>
+        <v>0</v>
+      </c>
+      <c r="AD100" s="1">
+        <f t="shared" ref="AD100" si="51">AD99</f>
+        <v>1</v>
+      </c>
+      <c r="AE100" s="1">
+        <f t="shared" ref="AE100" si="52">AE99</f>
+        <v>1</v>
+      </c>
+      <c r="AF100" s="1">
+        <f>AF99</f>
+        <v>0</v>
+      </c>
+      <c r="AG100" s="8">
+        <f>AF100</f>
+        <v>0</v>
+      </c>
+      <c r="AH100" s="9">
+        <f>AE100</f>
+        <v>1</v>
+      </c>
+      <c r="AI100" s="9">
+        <f>AD100</f>
+        <v>1</v>
+      </c>
+      <c r="AJ100" s="10">
+        <f>AC100</f>
+        <v>0</v>
+      </c>
+      <c r="AL100" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM100" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN100" s="9">
+        <v>2</v>
+      </c>
+      <c r="AO100" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B101" s="30"/>
+      <c r="C101" s="25" t="str">
+        <f>CONCATENATE("uint32_t ",A101," = (B",A100,B100,C100,D100,E100,F100,G100,H100," &lt;&lt; 24) + (B",I100,J100,K100,L100,M100,N100,O100,P100," &lt;&lt; 16) + (B",Q100,R100,S100,T100,U100,V100,W100,X100," &lt;&lt; 8) + B",Y100,Z100,AA100,AB100,AC100,AD100,AE100,AF100,";")</f>
+        <v>uint32_t nine = (B00000000 &lt;&lt; 24) + (B00010001 &lt;&lt; 16) + (B00111000 &lt;&lt; 8) + B11010110;</v>
+      </c>
+      <c r="D101" s="21"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="21"/>
+      <c r="J101" s="26"/>
+      <c r="K101" s="26"/>
+      <c r="L101" s="21"/>
+      <c r="M101" s="21"/>
+      <c r="N101" s="21"/>
+      <c r="O101" s="21"/>
+      <c r="P101" s="26"/>
+      <c r="Q101" s="21"/>
+      <c r="R101" s="21"/>
+      <c r="S101" s="21"/>
+      <c r="T101" s="21"/>
+      <c r="AG101" s="11">
+        <f>AB100</f>
+        <v>1</v>
+      </c>
+      <c r="AH101" s="19"/>
+      <c r="AI101" s="12">
+        <f>AA100</f>
+        <v>0</v>
+      </c>
+      <c r="AJ101" s="13">
+        <f>Z100</f>
+        <v>1</v>
+      </c>
+      <c r="AL101" s="11">
+        <v>4</v>
+      </c>
+      <c r="AM101" s="19"/>
+      <c r="AN101" s="12">
+        <v>5</v>
+      </c>
+      <c r="AO101" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="28"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="21"/>
+      <c r="I102" s="21"/>
+      <c r="J102" s="26"/>
+      <c r="K102" s="26"/>
+      <c r="L102" s="21"/>
+      <c r="M102" s="21"/>
+      <c r="N102" s="21"/>
+      <c r="O102" s="21"/>
+      <c r="P102" s="26"/>
+      <c r="Q102" s="21"/>
+      <c r="R102" s="21"/>
+      <c r="S102" s="21"/>
+      <c r="T102" s="21"/>
+      <c r="AG102" s="11">
+        <f>Y100</f>
+        <v>1</v>
+      </c>
+      <c r="AH102" s="12">
+        <f>X100</f>
+        <v>0</v>
+      </c>
+      <c r="AI102" s="12">
+        <f>W100</f>
+        <v>0</v>
+      </c>
+      <c r="AJ102" s="13">
+        <f>Z100</f>
+        <v>1</v>
+      </c>
+      <c r="AL102" s="11">
+        <v>7</v>
+      </c>
+      <c r="AM102" s="12">
+        <v>8</v>
+      </c>
+      <c r="AN102" s="12">
+        <v>9</v>
+      </c>
+      <c r="AO102" s="13">
+        <f>AO101</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="28"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="21"/>
+      <c r="J103" s="26"/>
+      <c r="K103" s="26"/>
+      <c r="L103" s="21"/>
+      <c r="M103" s="21"/>
+      <c r="N103" s="21"/>
+      <c r="O103" s="21"/>
+      <c r="P103" s="26"/>
+      <c r="Q103" s="21"/>
+      <c r="R103" s="21"/>
+      <c r="S103" s="21"/>
+      <c r="T103" s="21"/>
+      <c r="AG103" s="11">
+        <f>V100</f>
+        <v>0</v>
+      </c>
+      <c r="AH103" s="12">
+        <f>U100</f>
+        <v>1</v>
+      </c>
+      <c r="AI103" s="12">
+        <f>T100</f>
+        <v>1</v>
+      </c>
+      <c r="AJ103" s="13">
+        <f>S100</f>
+        <v>1</v>
+      </c>
+      <c r="AL103" s="11">
+        <v>10</v>
+      </c>
+      <c r="AM103" s="12">
+        <v>11</v>
+      </c>
+      <c r="AN103" s="12">
+        <v>12</v>
+      </c>
+      <c r="AO103" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="28"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="21"/>
+      <c r="I104" s="21"/>
+      <c r="J104" s="26"/>
+      <c r="K104" s="26"/>
+      <c r="L104" s="21"/>
+      <c r="M104" s="21"/>
+      <c r="N104" s="21"/>
+      <c r="O104" s="21"/>
+      <c r="P104" s="26"/>
+      <c r="Q104" s="21"/>
+      <c r="R104" s="21"/>
+      <c r="S104" s="21"/>
+      <c r="T104" s="21"/>
+      <c r="AG104" s="11">
+        <f>R100</f>
+        <v>0</v>
+      </c>
+      <c r="AH104" s="22">
+        <f>Q100</f>
+        <v>0</v>
+      </c>
+      <c r="AI104" s="12">
+        <f>AA100</f>
+        <v>0</v>
+      </c>
+      <c r="AJ104" s="23">
+        <f>P100</f>
+        <v>1</v>
+      </c>
+      <c r="AL104" s="11">
+        <v>14</v>
+      </c>
+      <c r="AM104" s="22">
+        <v>15</v>
+      </c>
+      <c r="AN104" s="12">
+        <f>AN101</f>
+        <v>5</v>
+      </c>
+      <c r="AO104" s="23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="21"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="21"/>
+      <c r="I105" s="21"/>
+      <c r="J105" s="26"/>
+      <c r="K105" s="26"/>
+      <c r="L105" s="21"/>
+      <c r="M105" s="21"/>
+      <c r="N105" s="21"/>
+      <c r="O105" s="21"/>
+      <c r="P105" s="26"/>
+      <c r="Q105" s="21"/>
+      <c r="R105" s="21"/>
+      <c r="S105" s="21"/>
+      <c r="T105" s="21"/>
+      <c r="AG105" s="11">
+        <f>O100</f>
+        <v>0</v>
+      </c>
+      <c r="AH105" s="19"/>
+      <c r="AI105" s="12">
+        <f>N100</f>
+        <v>0</v>
+      </c>
+      <c r="AJ105" s="23">
+        <f>P100</f>
+        <v>1</v>
+      </c>
+      <c r="AL105" s="11">
+        <v>17</v>
+      </c>
+      <c r="AM105" s="19"/>
+      <c r="AN105" s="12">
+        <v>18</v>
+      </c>
+      <c r="AO105" s="23">
+        <f>AO104</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="21"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="21"/>
+      <c r="I106" s="21"/>
+      <c r="J106" s="26"/>
+      <c r="K106" s="26"/>
+      <c r="L106" s="21"/>
+      <c r="M106" s="21"/>
+      <c r="N106" s="21"/>
+      <c r="O106" s="21"/>
+      <c r="P106" s="26"/>
+      <c r="Q106" s="21"/>
+      <c r="R106" s="21"/>
+      <c r="S106" s="21"/>
+      <c r="T106" s="21"/>
+      <c r="AG106" s="14">
+        <f>M100</f>
+        <v>0</v>
+      </c>
+      <c r="AH106" s="20">
+        <f>AB100</f>
+        <v>1</v>
+      </c>
+      <c r="AI106" s="15">
+        <f>L100</f>
+        <v>1</v>
+      </c>
+      <c r="AJ106" s="16">
+        <f>K100</f>
+        <v>0</v>
+      </c>
+      <c r="AL106" s="14">
+        <v>19</v>
+      </c>
+      <c r="AM106" s="20">
+        <f>AL101</f>
+        <v>4</v>
+      </c>
+      <c r="AN106" s="15">
+        <v>20</v>
+      </c>
+      <c r="AO106" s="16">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A60:B60"/>
+  <mergeCells count="32">
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="AG98:AJ99"/>
+    <mergeCell ref="AL98:AO99"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="AG80:AJ81"/>
+    <mergeCell ref="AL80:AO81"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="AG89:AJ90"/>
+    <mergeCell ref="AL89:AO90"/>
+    <mergeCell ref="AL53:AO54"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="AG62:AJ63"/>
+    <mergeCell ref="AL62:AO63"/>
     <mergeCell ref="A65:B65"/>
+    <mergeCell ref="AG71:AJ72"/>
+    <mergeCell ref="AL71:AO72"/>
+    <mergeCell ref="AL17:AO18"/>
+    <mergeCell ref="AL26:AO27"/>
+    <mergeCell ref="AL35:AO36"/>
+    <mergeCell ref="AL44:AO45"/>
+    <mergeCell ref="AG26:AJ27"/>
+    <mergeCell ref="AG35:AJ36"/>
+    <mergeCell ref="AG44:AJ45"/>
+    <mergeCell ref="AG17:AJ18"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="AG53:AJ54"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="V1:Y2"/>
     <mergeCell ref="AA1:AD2"/>
   </mergeCells>
+  <conditionalFormatting sqref="AG14:AJ106">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/headr_pin_map.xlsx
+++ b/headr_pin_map.xlsx
@@ -1840,7 +1840,7 @@
   <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="M12" sqref="M12:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2160,6 +2160,12 @@
       <c r="A12" t="s">
         <v>57</v>
       </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
       <c r="D12" t="s">
         <v>54</v>
       </c>
@@ -2183,12 +2189,6 @@
       </c>
       <c r="L12" t="s">
         <v>44</v>
-      </c>
-      <c r="M12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N12" t="s">
-        <v>55</v>
       </c>
       <c r="O12" t="s">
         <v>47</v>

--- a/headr_pin_map.xlsx
+++ b/headr_pin_map.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="7140" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="7140" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Px_y" sheetId="1" r:id="rId1"/>
@@ -1839,7 +1839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="M12" sqref="M12:N12"/>
     </sheetView>
   </sheetViews>
@@ -2646,8 +2646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:N2"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="AG82" sqref="AG82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4206,7 +4206,6 @@
         <v>1</v>
       </c>
       <c r="Z19" s="1">
-        <f>Y18</f>
         <v>1</v>
       </c>
       <c r="AA19" s="1">
